--- a/src/attributions/attributions_saliency_traj_318.xlsx
+++ b/src/attributions/attributions_saliency_traj_318.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0004738904826808721</v>
+        <v>0.1490065306425095</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000394110509660095</v>
+        <v>0.1984957009553909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001162607921287417</v>
+        <v>0.01873193681240082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001445596572011709</v>
+        <v>0.7304599285125732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002790614729747176</v>
+        <v>0.3012646436691284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005012784386053681</v>
+        <v>0.3044618368148804</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009623948135413229</v>
+        <v>0.01347563415765762</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001732477801851928</v>
+        <v>0.4205416440963745</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002180551964556798</v>
+        <v>0.01827265322208405</v>
       </c>
       <c r="J2" t="n">
-        <v>2.527673495933414e-05</v>
+        <v>0.2372583746910095</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005844815168529749</v>
+        <v>0.05761437863111496</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001518062548711896</v>
+        <v>0.2081080973148346</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0004177266964688897</v>
+        <v>0.7684413194656372</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002734072739258409</v>
+        <v>0.4868702292442322</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001150074967881665</v>
+        <v>0.3026413321495056</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0006387637695297599</v>
+        <v>0.01230053603649139</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001523079467006028</v>
+        <v>0.2784341275691986</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0005460991524159908</v>
+        <v>0.1334371119737625</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001773260883055627</v>
+        <v>0.1878391206264496</v>
       </c>
       <c r="T2" t="n">
-        <v>5.113240695209242e-05</v>
+        <v>0.1945741176605225</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002413011679891497</v>
+        <v>0.4282936751842499</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0005179574945941567</v>
+        <v>0.2067107260227203</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0004611554904840887</v>
+        <v>0.1125613451004028</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000776049040723592</v>
+        <v>0.2386278659105301</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001160786632681265</v>
+        <v>0.4299274384975433</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0004796888679265976</v>
+        <v>0.2552525997161865</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.000938505632802844</v>
+        <v>0.1359560191631317</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000453236629255116</v>
+        <v>0.05435903370380402</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.000368497974704951</v>
+        <v>0.5948250889778137</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0007427315576933324</v>
+        <v>0.001152466982603073</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0006241465453058481</v>
+        <v>0.312019944190979</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.281604196876287e-05</v>
+        <v>0.3020730018615723</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.000815659062936902</v>
+        <v>0.1201523169875145</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001627025485504419</v>
+        <v>0.1272949427366257</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001490817521698773</v>
+        <v>0.1450197547674179</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0002398564392933622</v>
+        <v>0.0238373726606369</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0005163762252777815</v>
+        <v>0.03555332869291306</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001276453549508005</v>
+        <v>0.1286918073892593</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0005226178327575326</v>
+        <v>0.04017168655991554</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0003001264412887394</v>
+        <v>0.2538448870182037</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0003480134473647922</v>
+        <v>0.2542004287242889</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0004824118805117905</v>
+        <v>0.268673300743103</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.870601019822061e-05</v>
+        <v>0.0002131685614585876</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0008154937531799078</v>
+        <v>0.08889282494783401</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.250068741384894e-05</v>
+        <v>0.09764159470796585</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.445862289983779e-05</v>
+        <v>0.03105847537517548</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0004253422957845032</v>
+        <v>0.01924559287726879</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001421241904608905</v>
+        <v>0.2132802158594131</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0002502446586731821</v>
+        <v>0.5561287403106689</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0008725686348043382</v>
+        <v>0.2387803941965103</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.000839729851577431</v>
+        <v>0.1545846164226532</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00016325457545463</v>
+        <v>0.005288165062665939</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0009360725525766611</v>
+        <v>0.1951741129159927</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001567603321745992</v>
+        <v>0.2204955816268921</v>
       </c>
       <c r="BC2" t="n">
-        <v>9.650090214563534e-05</v>
+        <v>0.0395178385078907</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0001913725864142179</v>
+        <v>0.2775619626045227</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.000150887542986311</v>
+        <v>0.2196866869926453</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.405036790762097e-05</v>
+        <v>0.1027513816952705</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.001458455924876034</v>
+        <v>0.328370213508606</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0003360425762366503</v>
+        <v>0.1704896986484528</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001651189231779426</v>
+        <v>0.08341290056705475</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0002108428452629596</v>
+        <v>0.1054157912731171</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0003175565216224641</v>
+        <v>0.04596691578626633</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0005069531034678221</v>
+        <v>0.06792019307613373</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0002120660210493952</v>
+        <v>0.05732156336307526</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0007847509114071727</v>
+        <v>0.1439926028251648</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0001284008321817964</v>
+        <v>0.159429520368576</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0002372675080550835</v>
+        <v>0.1880023777484894</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0005211377283558249</v>
+        <v>0.02698457799851894</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00067959661828354</v>
+        <v>0.1522618532180786</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0001056880864780396</v>
+        <v>0.09117735177278519</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0005890738684684038</v>
+        <v>0.07744424790143967</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0006197210750542581</v>
+        <v>0.08099986612796783</v>
       </c>
       <c r="BV2" t="n">
-        <v>8.069165050983429e-05</v>
+        <v>0.04299918562173843</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0007166757714003325</v>
+        <v>0.1232163906097412</v>
       </c>
       <c r="BX2" t="n">
-        <v>5.644941120408475e-05</v>
+        <v>0.206481084227562</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001100956069421954</v>
+        <v>0.02412767335772514</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0003679263754747808</v>
+        <v>0.05692362040281296</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0005112076760269701</v>
+        <v>0.1167501285672188</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.001167495734989643</v>
+        <v>0.04677018523216248</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002295718004461378</v>
+        <v>0.2408829778432846</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0006443203892558813</v>
+        <v>0.05189134553074837</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.139788557542488e-05</v>
+        <v>0.03013050928711891</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0002534558589104563</v>
+        <v>0.09561721235513687</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0001114425394916907</v>
+        <v>0.1897473335266113</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0003292435721959919</v>
+        <v>0.05536754801869392</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0004271762154530734</v>
+        <v>0.06355674564838409</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.220259193563834e-05</v>
+        <v>0.001516060903668404</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0004080621874891222</v>
+        <v>0.03540552407503128</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0003275527851656079</v>
+        <v>0.1039465814828873</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0005561982979997993</v>
+        <v>0.01717069000005722</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0002186323108617216</v>
+        <v>0.009750615805387497</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.909588435315527e-05</v>
+        <v>0.2939414083957672</v>
       </c>
       <c r="CP2" t="n">
-        <v>6.278643922996707e-06</v>
+        <v>0.005370751023292542</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0005385317490436137</v>
+        <v>0.2432169020175934</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0005902510602027178</v>
+        <v>0.3283393979072571</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0001775489654392004</v>
+        <v>0.225130558013916</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001775365817593411</v>
+        <v>0.1521479487419128</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0006173331057652831</v>
+        <v>0.04157782346010208</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.000651817477773875</v>
+        <v>0.03595819696784019</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0001834112626966089</v>
+        <v>0.1016606986522675</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0002905640285462141</v>
+        <v>0.1804564595222473</v>
       </c>
       <c r="CY2" t="n">
-        <v>7.566763088107109e-06</v>
+        <v>0.1895127147436142</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001204751606564969</v>
+        <v>0.02549130283296108</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0005563116865232587</v>
+        <v>0.04294592514634132</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.174480171874166e-05</v>
+        <v>0.03364024683833122</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.000204912867047824</v>
+        <v>0.0837651863694191</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0001676561951171607</v>
+        <v>0.06704946607351303</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0009823010768741369</v>
+        <v>0.004893749952316284</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001255075185326859</v>
+        <v>0.04548294469714165</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0006187899853102863</v>
+        <v>0.02537504583597183</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0003389695193618536</v>
+        <v>0.07968881726264954</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0004417040618136525</v>
+        <v>0.008837044239044189</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0005746477982029319</v>
+        <v>0.1944429278373718</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0001682399015408009</v>
+        <v>0.175144836306572</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0004480307688936591</v>
+        <v>0.4611345529556274</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0002229168603662401</v>
+        <v>0.5272575616836548</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0003782533458434045</v>
+        <v>0.2439462840557098</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0002157210692530498</v>
+        <v>0.1151773482561111</v>
       </c>
       <c r="DP2" t="n">
-        <v>9.650326683185995e-05</v>
+        <v>0.03095146268606186</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.55267771333456e-05</v>
+        <v>0.2151466608047485</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0003390223137103021</v>
+        <v>0.0556299202144146</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0001783992920536548</v>
+        <v>0.08842626959085464</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0001468823902541772</v>
+        <v>0.03060023486614227</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0004655724915210158</v>
+        <v>0.2011485546827316</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0003245642292313278</v>
+        <v>0.1774301677942276</v>
       </c>
       <c r="DW2" t="n">
-        <v>5.937735841143876e-05</v>
+        <v>0.1219828575849533</v>
       </c>
       <c r="DX2" t="n">
-        <v>4.518313653534278e-05</v>
+        <v>0.2901670932769775</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0007875293376855552</v>
+        <v>0.1369994878768921</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0003448041970841587</v>
+        <v>0.06088215857744217</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0004439525073394179</v>
+        <v>0.2372315376996994</v>
       </c>
       <c r="EB2" t="n">
-        <v>5.324387529981323e-05</v>
+        <v>0.02814736217260361</v>
       </c>
       <c r="EC2" t="n">
-        <v>5.535063974093646e-05</v>
+        <v>0.04667975381016731</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001256966934306547</v>
+        <v>0.4591558873653412</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0007254989468492568</v>
+        <v>0.1274291574954987</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.000856824335642159</v>
+        <v>0.601471483707428</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0006049655494280159</v>
+        <v>0.033237025141716</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0002786980185192078</v>
+        <v>0.09331374615430832</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0001366283395327628</v>
+        <v>0.157457172870636</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0009118136367760599</v>
+        <v>0.004090439528226852</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0008203585166484118</v>
+        <v>0.008259864524006844</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0001243296137545258</v>
+        <v>0.05966063588857651</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0007118182256817818</v>
+        <v>0.04911056533455849</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0001316715788561851</v>
+        <v>0.2174558937549591</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0002570823417045176</v>
+        <v>0.06159937009215355</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001995746861211956</v>
+        <v>0.01289489772170782</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0001289141800953075</v>
+        <v>0.2208603769540787</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0002053850330412388</v>
+        <v>0.125025287270546</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.000281956628896296</v>
+        <v>0.03845944628119469</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.001186177833005786</v>
+        <v>0.1959664523601532</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002899050887208432</v>
+        <v>0.1292974650859833</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0005008432199247181</v>
+        <v>0.1216169372200966</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0005192424869164824</v>
+        <v>0.01196057070046663</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0007321045268326998</v>
+        <v>0.05671437829732895</v>
       </c>
       <c r="EY2" t="n">
-        <v>5.662674811901525e-05</v>
+        <v>0.1130491718649864</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.000284004578134045</v>
+        <v>0.1792550683021545</v>
       </c>
       <c r="FA2" t="n">
-        <v>5.192088428884745e-05</v>
+        <v>0.1291786134243011</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0002953054499812424</v>
+        <v>0.0160253532230854</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0005042919074185193</v>
+        <v>0.05155321955680847</v>
       </c>
       <c r="FD2" t="n">
-        <v>6.732997280778363e-05</v>
+        <v>0.1078470572829247</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0004589886520989239</v>
+        <v>0.07862217724323273</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0001792091352399439</v>
+        <v>0.1251581758260727</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0004061035579070449</v>
+        <v>0.009747372940182686</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001192304771393538</v>
+        <v>0.07548034936189651</v>
       </c>
       <c r="FI2" t="n">
-        <v>5.879675518372096e-05</v>
+        <v>0.001244107261300087</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001036511966958642</v>
+        <v>0.0884670689702034</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0003782545099966228</v>
+        <v>0.1983572691679001</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0002838248037733138</v>
+        <v>0.2714565694332123</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0004530722508206964</v>
+        <v>0.007467501796782017</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0002102987200487405</v>
+        <v>0.3085934519767761</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0004041765350848436</v>
+        <v>0.003466963768005371</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003285485727246851</v>
+        <v>0.09255162626504898</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0009902640013024211</v>
+        <v>0.1977817565202713</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.000105713501397986</v>
+        <v>0.1485424637794495</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001127309864386916</v>
+        <v>0.5450910329818726</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0002259294269606471</v>
+        <v>0.9355056285858154</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0002975511597469449</v>
+        <v>0.0425681471824646</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0003846695180982351</v>
+        <v>0.2450797408819199</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0005779967177659273</v>
+        <v>0.03417254611849785</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0003468316281214356</v>
+        <v>0.1643220484256744</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0004155159695073962</v>
+        <v>0.05904536694288254</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0006188474944792688</v>
+        <v>0.1722150146961212</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0003285279090050608</v>
+        <v>0.02103625237941742</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001975100312847644</v>
+        <v>0.02721879631280899</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0006471271626651287</v>
+        <v>0.2356287986040115</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0007491069263778627</v>
+        <v>0.01812377013266087</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001101325178751722</v>
+        <v>0.1487335413694382</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0004884130321443081</v>
+        <v>0.3141189515590668</v>
       </c>
       <c r="GG2" t="n">
-        <v>6.557387678185478e-06</v>
+        <v>0.19522824883461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.295145027479521e-08</v>
+        <v>0.001660631503909826</v>
       </c>
       <c r="B3" t="n">
-        <v>5.892005106034048e-09</v>
+        <v>0.004953867755830288</v>
       </c>
       <c r="C3" t="n">
-        <v>2.377582291046565e-07</v>
+        <v>0.002492680214345455</v>
       </c>
       <c r="D3" t="n">
-        <v>1.445312580727887e-08</v>
+        <v>0.01096384413540363</v>
       </c>
       <c r="E3" t="n">
-        <v>8.53505994768966e-08</v>
+        <v>0.005842647515237331</v>
       </c>
       <c r="F3" t="n">
-        <v>1.315301201287866e-08</v>
+        <v>0.007210820447653532</v>
       </c>
       <c r="G3" t="n">
-        <v>7.534132429043439e-09</v>
+        <v>0.02030862309038639</v>
       </c>
       <c r="H3" t="n">
-        <v>4.865824365651861e-08</v>
+        <v>0.005641506519168615</v>
       </c>
       <c r="I3" t="n">
-        <v>2.796365947688173e-07</v>
+        <v>0.007700447458773851</v>
       </c>
       <c r="J3" t="n">
-        <v>2.68455764285136e-08</v>
+        <v>0.0004735823604278266</v>
       </c>
       <c r="K3" t="n">
-        <v>7.515147615322348e-08</v>
+        <v>0.007074420340359211</v>
       </c>
       <c r="L3" t="n">
-        <v>1.558681219648861e-07</v>
+        <v>0.003162629902362823</v>
       </c>
       <c r="M3" t="n">
-        <v>1.718261977146085e-08</v>
+        <v>0.01509550772607327</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002702063601646e-07</v>
+        <v>0.003237848170101643</v>
       </c>
       <c r="O3" t="n">
-        <v>3.970523465568476e-08</v>
+        <v>0.006469028070569038</v>
       </c>
       <c r="P3" t="n">
-        <v>1.23952581532194e-09</v>
+        <v>0.02050583250820637</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.313906849986779e-08</v>
+        <v>2.347456756979227e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>2.760884285635257e-07</v>
+        <v>0.0129550639539957</v>
       </c>
       <c r="S3" t="n">
-        <v>1.599166843391231e-08</v>
+        <v>0.001288161613047123</v>
       </c>
       <c r="T3" t="n">
-        <v>3.667575398935696e-08</v>
+        <v>0.003322566393762827</v>
       </c>
       <c r="U3" t="n">
-        <v>3.772974821458774e-08</v>
+        <v>0.0002487245947122574</v>
       </c>
       <c r="V3" t="n">
-        <v>6.436434318857209e-08</v>
+        <v>0.004536884371191263</v>
       </c>
       <c r="W3" t="n">
-        <v>2.223606543338974e-08</v>
+        <v>0.004822693765163422</v>
       </c>
       <c r="X3" t="n">
-        <v>1.338127653127685e-08</v>
+        <v>0.002395929768681526</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.059127682396138e-08</v>
+        <v>0.001904522534459829</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.309407148321952e-08</v>
+        <v>0.002604443579912186</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.176922559409377e-08</v>
+        <v>0.001724076922982931</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.63591706029365e-08</v>
+        <v>0.00375599879771471</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.854264202767354e-08</v>
+        <v>0.004840884357690811</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.434182106407889e-08</v>
+        <v>0.0009021010482683778</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.303734530391012e-08</v>
+        <v>0.005156034603714943</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.921630297223146e-09</v>
+        <v>0.005563316401094198</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.074799627076573e-08</v>
+        <v>0.00158183160237968</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.385993352367223e-08</v>
+        <v>0.0006920754676684737</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.203365015584495e-08</v>
+        <v>0.003774430602788925</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.457348351001201e-08</v>
+        <v>0.004939978010952473</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.917672681235217e-08</v>
+        <v>0.0003677718050312251</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.852147566542953e-08</v>
+        <v>0.004652844276279211</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.00617353840471e-08</v>
+        <v>0.002031985437497497</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.324344355348785e-09</v>
+        <v>0.001080421265214682</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.290961471056562e-08</v>
+        <v>0.004796790424734354</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.254990043113139e-08</v>
+        <v>0.003378028748556972</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.662805715341165e-08</v>
+        <v>0.003622127696871758</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.798122622493793e-08</v>
+        <v>0.001256874180398881</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.849342368132056e-08</v>
+        <v>0.001353064086288214</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.280553511648577e-08</v>
+        <v>0.001242418773472309</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.690805408662072e-09</v>
+        <v>0.002401627134531736</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.148882802226581e-07</v>
+        <v>0.000610275543294847</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.652202374913259e-09</v>
+        <v>0.002059607766568661</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.939138413348701e-08</v>
+        <v>0.003491380484774709</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.029930439879536e-08</v>
+        <v>0.006106751505285501</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5.403190783681566e-08</v>
+        <v>0.01120641455054283</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.001584806203937e-07</v>
+        <v>0.003550554625689983</v>
       </c>
       <c r="BB3" t="n">
-        <v>8.245614679935898e-08</v>
+        <v>0.003565959632396698</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.423129880606666e-08</v>
+        <v>0.001579660223796964</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.243394092715789e-08</v>
+        <v>0.0004645306617021561</v>
       </c>
       <c r="BE3" t="n">
-        <v>8.799077022558777e-08</v>
+        <v>0.00105147494468838</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.202139708946561e-08</v>
+        <v>0.005457879044115543</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.221631234533561e-08</v>
+        <v>0.0005070754559710622</v>
       </c>
       <c r="BH3" t="n">
-        <v>6.021777743114853e-09</v>
+        <v>0.003359248396009207</v>
       </c>
       <c r="BI3" t="n">
-        <v>3.070295662155331e-08</v>
+        <v>0.005692743696272373</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.362581685844134e-09</v>
+        <v>0.003472086973488331</v>
       </c>
       <c r="BK3" t="n">
-        <v>7.342062957604867e-08</v>
+        <v>0.00567234680056572</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.923913828250079e-08</v>
+        <v>0.001708062365651131</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.594665460264878e-08</v>
+        <v>0.008573800325393677</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.45119024259111e-08</v>
+        <v>0.001521781319752336</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.790986641798554e-08</v>
+        <v>0.003712770761922002</v>
       </c>
       <c r="BP3" t="n">
-        <v>4.074493986649941e-08</v>
+        <v>0.0004359316662885249</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.969039686855467e-08</v>
+        <v>0.004227756056934595</v>
       </c>
       <c r="BR3" t="n">
-        <v>5.592875496063243e-09</v>
+        <v>0.004608580842614174</v>
       </c>
       <c r="BS3" t="n">
-        <v>2.05919388207576e-08</v>
+        <v>0.001478309044614434</v>
       </c>
       <c r="BT3" t="n">
-        <v>4.121787355870765e-08</v>
+        <v>0.0007146368734538555</v>
       </c>
       <c r="BU3" t="n">
-        <v>5.514799283901084e-08</v>
+        <v>0.0006780633702874184</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.051984893114422e-08</v>
+        <v>0.002915036864578724</v>
       </c>
       <c r="BW3" t="n">
-        <v>4.900643091332313e-08</v>
+        <v>0.0007707602344453335</v>
       </c>
       <c r="BX3" t="n">
-        <v>5.473887654261489e-08</v>
+        <v>0.0007598455995321274</v>
       </c>
       <c r="BY3" t="n">
-        <v>8.316790456319723e-08</v>
+        <v>0.001927507459186018</v>
       </c>
       <c r="BZ3" t="n">
-        <v>4.137737619203108e-08</v>
+        <v>0.006100122351199389</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.275270999911982e-08</v>
+        <v>0.005165067967027426</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.062996943801409e-07</v>
+        <v>0.0003715259954333305</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.324936249602615e-07</v>
+        <v>0.002607520902529359</v>
       </c>
       <c r="CD3" t="n">
-        <v>4.158903976758666e-08</v>
+        <v>0.001475557452067733</v>
       </c>
       <c r="CE3" t="n">
-        <v>5.5937508847137e-08</v>
+        <v>0.001033794018439949</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.708902790971024e-08</v>
+        <v>8.928909664973617e-05</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.1365211882719e-08</v>
+        <v>0.001742339925840497</v>
       </c>
       <c r="CH3" t="n">
-        <v>4.160558475518883e-08</v>
+        <v>0.0005677150329574943</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.405661696045172e-09</v>
+        <v>0.002597274025902152</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.21103305161796e-08</v>
+        <v>0.003721171990036964</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.822997752753963e-09</v>
+        <v>0.0007702526054345071</v>
       </c>
       <c r="CL3" t="n">
-        <v>4.004873943586063e-08</v>
+        <v>0.001611353829503059</v>
       </c>
       <c r="CM3" t="n">
-        <v>4.889919580364221e-09</v>
+        <v>0.002123457146808505</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.806173344220952e-07</v>
+        <v>0.0003067412471864372</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.365699103279439e-08</v>
+        <v>0.001674447557888925</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.797939930270331e-08</v>
+        <v>0.001958199311047792</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.077887077371997e-07</v>
+        <v>0.0005223636399023235</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.976151686733374e-08</v>
+        <v>0.001486734603531659</v>
       </c>
       <c r="CS3" t="n">
-        <v>7.749081376573486e-10</v>
+        <v>0.001992505043745041</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.911779510370252e-08</v>
+        <v>0.002069463022053242</v>
       </c>
       <c r="CU3" t="n">
-        <v>4.843723289127411e-08</v>
+        <v>0.004635556135326624</v>
       </c>
       <c r="CV3" t="n">
-        <v>4.379574392032737e-08</v>
+        <v>0.0005884988349862397</v>
       </c>
       <c r="CW3" t="n">
-        <v>5.388423929275632e-08</v>
+        <v>0.001655955798923969</v>
       </c>
       <c r="CX3" t="n">
-        <v>3.904401424392745e-08</v>
+        <v>0.0001831526897149161</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.333886778809301e-08</v>
+        <v>0.002376949647441506</v>
       </c>
       <c r="CZ3" t="n">
-        <v>4.666140895892568e-08</v>
+        <v>9.985894575947896e-05</v>
       </c>
       <c r="DA3" t="n">
-        <v>6.213580761027515e-09</v>
+        <v>0.001525726285763085</v>
       </c>
       <c r="DB3" t="n">
-        <v>9.418982038766899e-09</v>
+        <v>0.003579443786293268</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.976034529922345e-09</v>
+        <v>0.001008320599794388</v>
       </c>
       <c r="DD3" t="n">
-        <v>4.646209106340393e-08</v>
+        <v>0.001209722133353353</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.178194963813439e-07</v>
+        <v>0.001854148460552096</v>
       </c>
       <c r="DF3" t="n">
-        <v>1.404798410931107e-07</v>
+        <v>0.00501922657713294</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.063816057467193e-07</v>
+        <v>0.003315011039376259</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.957348061409903e-08</v>
+        <v>0.001820008619688451</v>
       </c>
       <c r="DI3" t="n">
-        <v>4.913088957891887e-08</v>
+        <v>0.002390299458056688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.916768788134959e-08</v>
+        <v>0.002619072562083602</v>
       </c>
       <c r="DK3" t="n">
-        <v>1.241949476593618e-08</v>
+        <v>0.002641506027430296</v>
       </c>
       <c r="DL3" t="n">
-        <v>3.87918746014293e-08</v>
+        <v>0.001371521269902587</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.332543497767347e-08</v>
+        <v>0.003126802621409297</v>
       </c>
       <c r="DN3" t="n">
-        <v>2.515098707078778e-08</v>
+        <v>0.002641296479851007</v>
       </c>
       <c r="DO3" t="n">
-        <v>3.095725631396817e-08</v>
+        <v>0.001300166244618595</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.613297051505924e-09</v>
+        <v>0.005195981822907925</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.587174480732756e-08</v>
+        <v>0.003701255191117525</v>
       </c>
       <c r="DR3" t="n">
-        <v>2.935811238558017e-08</v>
+        <v>0.0009625514503568411</v>
       </c>
       <c r="DS3" t="n">
-        <v>1.966115092955079e-08</v>
+        <v>0.002217756118625402</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.524429731920463e-08</v>
+        <v>0.0008732550195418298</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.839308687110133e-08</v>
+        <v>0.000957098207436502</v>
       </c>
       <c r="DV3" t="n">
-        <v>3.13004662189087e-08</v>
+        <v>0.002582553075626493</v>
       </c>
       <c r="DW3" t="n">
-        <v>3.080996791027246e-09</v>
+        <v>0.003133791964501143</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.261396676000004e-08</v>
+        <v>0.0010020014597103</v>
       </c>
       <c r="DY3" t="n">
-        <v>1.322257858760167e-09</v>
+        <v>0.003552420996129513</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.935424348038396e-08</v>
+        <v>0.003085623728111386</v>
       </c>
       <c r="EA3" t="n">
-        <v>1.488325640508492e-08</v>
+        <v>0.00294923922047019</v>
       </c>
       <c r="EB3" t="n">
-        <v>8.886905078497875e-08</v>
+        <v>0.007970808073878288</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.937596749712611e-09</v>
+        <v>0.003042619908228517</v>
       </c>
       <c r="ED3" t="n">
-        <v>2.296964574100002e-08</v>
+        <v>0.001436132821254432</v>
       </c>
       <c r="EE3" t="n">
-        <v>3.436950990476362e-08</v>
+        <v>0.0004552730533760041</v>
       </c>
       <c r="EF3" t="n">
-        <v>4.75122838849984e-08</v>
+        <v>0.0004862236091867089</v>
       </c>
       <c r="EG3" t="n">
-        <v>7.450985606283211e-08</v>
+        <v>0.0001230777124874294</v>
       </c>
       <c r="EH3" t="n">
-        <v>3.821222094302357e-08</v>
+        <v>0.0006602470530197024</v>
       </c>
       <c r="EI3" t="n">
-        <v>4.602983949553163e-08</v>
+        <v>0.0006240002112463117</v>
       </c>
       <c r="EJ3" t="n">
-        <v>6.75924098914038e-08</v>
+        <v>0.0003209040150977671</v>
       </c>
       <c r="EK3" t="n">
-        <v>2.795663078813959e-08</v>
+        <v>0.0001509612193331122</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.659161519285135e-08</v>
+        <v>0.003216441255062819</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.434657713796696e-08</v>
+        <v>0.0002915199147537351</v>
       </c>
       <c r="EN3" t="n">
-        <v>4.92072693702994e-08</v>
+        <v>0.002275741891935468</v>
       </c>
       <c r="EO3" t="n">
-        <v>2.233662854678187e-08</v>
+        <v>0.001898340415209532</v>
       </c>
       <c r="EP3" t="n">
-        <v>3.612512244899335e-08</v>
+        <v>0.0003422480076551437</v>
       </c>
       <c r="EQ3" t="n">
-        <v>4.353356430897293e-08</v>
+        <v>0.0002564904280006886</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.33300364477418e-08</v>
+        <v>0.006134981755167246</v>
       </c>
       <c r="ES3" t="n">
-        <v>6.015421405436427e-08</v>
+        <v>0.002475500572472811</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.678162497853464e-08</v>
+        <v>0.0003499521408230066</v>
       </c>
       <c r="EU3" t="n">
-        <v>9.410111800889354e-09</v>
+        <v>0.003385483287274837</v>
       </c>
       <c r="EV3" t="n">
-        <v>9.813216905740774e-09</v>
+        <v>0.001053489977493882</v>
       </c>
       <c r="EW3" t="n">
-        <v>3.222428190952087e-08</v>
+        <v>0.003509280737489462</v>
       </c>
       <c r="EX3" t="n">
-        <v>3.648039736958708e-08</v>
+        <v>0.001210942398756742</v>
       </c>
       <c r="EY3" t="n">
-        <v>5.473036424064048e-08</v>
+        <v>0.001942895003594458</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.771975798372296e-08</v>
+        <v>0.0001719583233352751</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.813792532307957e-09</v>
+        <v>0.002073723590001464</v>
       </c>
       <c r="FB3" t="n">
-        <v>3.470356801926755e-08</v>
+        <v>0.001162105822004378</v>
       </c>
       <c r="FC3" t="n">
-        <v>8.975579390835264e-09</v>
+        <v>0.002205165801569819</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.161202867194788e-08</v>
+        <v>0.004535166546702385</v>
       </c>
       <c r="FE3" t="n">
-        <v>7.485704500709289e-09</v>
+        <v>0.0007662480929866433</v>
       </c>
       <c r="FF3" t="n">
-        <v>4.681850640508856e-08</v>
+        <v>0.001105929259210825</v>
       </c>
       <c r="FG3" t="n">
-        <v>3.027525252718988e-08</v>
+        <v>0.0006636582547798753</v>
       </c>
       <c r="FH3" t="n">
-        <v>6.018483844627553e-08</v>
+        <v>0.004929109942167997</v>
       </c>
       <c r="FI3" t="n">
-        <v>3.040012686028604e-11</v>
+        <v>0.0004309547366574407</v>
       </c>
       <c r="FJ3" t="n">
-        <v>2.579317914808144e-08</v>
+        <v>0.003250773530453444</v>
       </c>
       <c r="FK3" t="n">
-        <v>7.239814436843517e-08</v>
+        <v>0.003193354234099388</v>
       </c>
       <c r="FL3" t="n">
-        <v>9.045401583307466e-08</v>
+        <v>0.004065311513841152</v>
       </c>
       <c r="FM3" t="n">
-        <v>3.214930899275714e-08</v>
+        <v>9.604182559996843e-05</v>
       </c>
       <c r="FN3" t="n">
-        <v>4.271884179729568e-08</v>
+        <v>0.001735882717184722</v>
       </c>
       <c r="FO3" t="n">
-        <v>3.774266232881018e-08</v>
+        <v>0.0006550031248480082</v>
       </c>
       <c r="FP3" t="n">
-        <v>3.31055218794063e-08</v>
+        <v>0.005001270212233067</v>
       </c>
       <c r="FQ3" t="n">
-        <v>2.766490680983225e-08</v>
+        <v>0.005009740125387907</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.09063803835852e-08</v>
+        <v>0.002688302658498287</v>
       </c>
       <c r="FS3" t="n">
-        <v>6.061510404720138e-09</v>
+        <v>0.001437137485481799</v>
       </c>
       <c r="FT3" t="n">
-        <v>3.974210471824335e-08</v>
+        <v>0.002274599159136415</v>
       </c>
       <c r="FU3" t="n">
-        <v>7.941373780795402e-09</v>
+        <v>0.002158128190785646</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.588503550919995e-08</v>
+        <v>0.007938103750348091</v>
       </c>
       <c r="FW3" t="n">
-        <v>9.458928751371332e-09</v>
+        <v>0.002028393559157848</v>
       </c>
       <c r="FX3" t="n">
-        <v>2.019986311552202e-08</v>
+        <v>0.002334976568818092</v>
       </c>
       <c r="FY3" t="n">
-        <v>5.561223304084706e-08</v>
+        <v>0.00453875819221139</v>
       </c>
       <c r="FZ3" t="n">
-        <v>6.269400643077461e-08</v>
+        <v>0.001357790431939065</v>
       </c>
       <c r="GA3" t="n">
-        <v>5.224046617513523e-08</v>
+        <v>0.003571582725271583</v>
       </c>
       <c r="GB3" t="n">
-        <v>3.49465416604744e-08</v>
+        <v>0.00437909597530961</v>
       </c>
       <c r="GC3" t="n">
-        <v>5.447030204663861e-08</v>
+        <v>0.01448347605764866</v>
       </c>
       <c r="GD3" t="n">
-        <v>4.279358378767029e-08</v>
+        <v>0.007205994799733162</v>
       </c>
       <c r="GE3" t="n">
-        <v>2.395898412999031e-08</v>
+        <v>0.002531354082748294</v>
       </c>
       <c r="GF3" t="n">
-        <v>5.094682364870096e-08</v>
+        <v>0.001838204800151289</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.610967714782419e-08</v>
+        <v>0.0005000638193450868</v>
       </c>
     </row>
     <row r="4">
@@ -2711,3985 +2711,3985 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.259333531488664e-07</v>
+        <v>0.0007620517280884087</v>
       </c>
       <c r="B5" t="n">
-        <v>1.101937959901989e-05</v>
+        <v>0.00499086594209075</v>
       </c>
       <c r="C5" t="n">
-        <v>7.115338576113572e-07</v>
+        <v>0.0004331530362833291</v>
       </c>
       <c r="D5" t="n">
-        <v>2.422121542622335e-05</v>
+        <v>0.003358883550390601</v>
       </c>
       <c r="E5" t="n">
-        <v>3.062332552872249e-06</v>
+        <v>0.001665784744545817</v>
       </c>
       <c r="F5" t="n">
-        <v>1.07756668512593e-05</v>
+        <v>0.001362605602480471</v>
       </c>
       <c r="G5" t="n">
-        <v>4.510328835749533e-06</v>
+        <v>0.0001223699073307216</v>
       </c>
       <c r="H5" t="n">
-        <v>1.69880286193802e-06</v>
+        <v>3.383030707482249e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57565955305472e-05</v>
+        <v>0.001361341215670109</v>
       </c>
       <c r="J5" t="n">
-        <v>6.011997356836218e-06</v>
+        <v>0.001395736704580486</v>
       </c>
       <c r="K5" t="n">
-        <v>3.428496256674407e-06</v>
+        <v>0.003678133944049478</v>
       </c>
       <c r="L5" t="n">
-        <v>2.046924009846407e-06</v>
+        <v>0.0003057435678783804</v>
       </c>
       <c r="M5" t="n">
-        <v>1.888125188997947e-05</v>
+        <v>0.00311032822355628</v>
       </c>
       <c r="N5" t="n">
-        <v>1.444528243155219e-05</v>
+        <v>0.001304421573877335</v>
       </c>
       <c r="O5" t="n">
-        <v>5.782320386060746e-06</v>
+        <v>0.001710681477561593</v>
       </c>
       <c r="P5" t="n">
-        <v>3.675655079860007e-06</v>
+        <v>0.000120396027341485</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.98258100883686e-06</v>
+        <v>0.0002727134851738811</v>
       </c>
       <c r="R5" t="n">
-        <v>1.518634599051438e-05</v>
+        <v>0.001284668571315706</v>
       </c>
       <c r="S5" t="n">
-        <v>3.701770992847742e-06</v>
+        <v>0.0002403353428235278</v>
       </c>
       <c r="T5" t="n">
-        <v>1.322700882155914e-06</v>
+        <v>0.0003477961290627718</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97341159946518e-06</v>
+        <v>0.0007038525072857738</v>
       </c>
       <c r="V5" t="n">
-        <v>4.032174729218241e-06</v>
+        <v>0.001227122033014894</v>
       </c>
       <c r="W5" t="n">
-        <v>2.017892256844789e-05</v>
+        <v>0.001058617606759071</v>
       </c>
       <c r="X5" t="n">
-        <v>2.793056410155259e-06</v>
+        <v>0.0004167945589870214</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.725791091506835e-06</v>
+        <v>0.0003950053942389786</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.108972562898998e-07</v>
+        <v>0.0003733866615220904</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.591303998793592e-06</v>
+        <v>0.0003759402898140252</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.217479949555127e-06</v>
+        <v>0.0001261548604816198</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.728361091110855e-06</v>
+        <v>0.0007341853925026953</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.144024726178031e-06</v>
+        <v>2.456522634020075e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.200950570520945e-06</v>
+        <v>0.0003648428828455508</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.39057236892404e-06</v>
+        <v>0.0004033471050206572</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.054821940575493e-06</v>
+        <v>0.000697881041560322</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.711352069833083e-06</v>
+        <v>0.0005775863537564874</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.729217018464624e-07</v>
+        <v>8.172861998900771e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.452709163160762e-06</v>
+        <v>0.0006382970022968948</v>
       </c>
       <c r="AK5" t="n">
-        <v>5.061871888756286e-06</v>
+        <v>0.0004305389011278749</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.402115458404296e-06</v>
+        <v>0.0005643687909469008</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.921327109106642e-07</v>
+        <v>0.0002249107783427462</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.050632797880098e-06</v>
+        <v>5.817812052555382e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.143391159530438e-07</v>
+        <v>0.0005932895001024008</v>
       </c>
       <c r="AP5" t="n">
-        <v>8.043616617214866e-06</v>
+        <v>0.0002807069104164839</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.450334133958677e-06</v>
+        <v>0.0001876493042800575</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.929176355972231e-08</v>
+        <v>5.506572779268026e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.204126980766887e-06</v>
+        <v>0.0008503719582222402</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.559597073239274e-07</v>
+        <v>4.123258986510336e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.935792392439907e-06</v>
+        <v>0.002994253532961011</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.055267262017878e-06</v>
+        <v>3.153039870085195e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.301187876379117e-05</v>
+        <v>0.001062917173840106</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.489350314746844e-06</v>
+        <v>0.001246146159246564</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.794558198133018e-06</v>
+        <v>0.00116654159501195</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3.162829443681403e-06</v>
+        <v>0.00095441157463938</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.573802137500024e-07</v>
+        <v>0.001230742549523711</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.202913260087371e-06</v>
+        <v>0.001003471203148365</v>
       </c>
       <c r="BC5" t="n">
-        <v>5.433627848105971e-06</v>
+        <v>0.0003091057296842337</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.041384161406313e-06</v>
+        <v>0.0008526793099008501</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.929734470555559e-06</v>
+        <v>0.0008158799610100687</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.200712176796515e-05</v>
+        <v>0.0005543104489333928</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.684414766918053e-06</v>
+        <v>0.0006828097393736243</v>
       </c>
       <c r="BH5" t="n">
-        <v>4.513759108704107e-07</v>
+        <v>0.000291456759441644</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.999617890964146e-06</v>
+        <v>0.0006017102859914303</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.780796878847468e-06</v>
+        <v>7.841801561880857e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>7.547316727141151e-06</v>
+        <v>0.001142159220762551</v>
       </c>
       <c r="BL5" t="n">
-        <v>7.302796348085394e-06</v>
+        <v>0.0001613542262930423</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.877087242974085e-06</v>
+        <v>0.0002613307151477784</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.045997350956895e-06</v>
+        <v>0.0002292848512297496</v>
       </c>
       <c r="BO5" t="n">
-        <v>3.710390501510119e-06</v>
+        <v>4.962168168276548e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>3.477872496659984e-06</v>
+        <v>0.0004754764959216118</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.245946006951272e-06</v>
+        <v>0.0001765636552590877</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.453023287467659e-06</v>
+        <v>0.0003419610438868403</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.336388661206001e-06</v>
+        <v>0.0002740437048487365</v>
       </c>
       <c r="BT5" t="n">
-        <v>5.111372502142331e-06</v>
+        <v>7.821043982403353e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.358589538038359e-06</v>
+        <v>6.015198596287519e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.322225554962642e-06</v>
+        <v>0.001612759893760085</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.257288088003406e-06</v>
+        <v>0.0005820926162414253</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.488731595600257e-05</v>
+        <v>0.00108932564035058</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.232704446214484e-06</v>
+        <v>0.0005841908860020339</v>
       </c>
       <c r="BZ5" t="n">
-        <v>4.795145287062041e-06</v>
+        <v>0.0002936272649094462</v>
       </c>
       <c r="CA5" t="n">
-        <v>3.273065203757142e-06</v>
+        <v>0.0004597284714691341</v>
       </c>
       <c r="CB5" t="n">
-        <v>3.238620138290571e-06</v>
+        <v>0.0005246178479865193</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.17485024020425e-05</v>
+        <v>0.0006963760824874043</v>
       </c>
       <c r="CD5" t="n">
-        <v>4.338604412623681e-06</v>
+        <v>0.0001177435187855735</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.787068640624057e-06</v>
+        <v>0.0008398173958994448</v>
       </c>
       <c r="CF5" t="n">
-        <v>4.012344732018391e-07</v>
+        <v>0.0004634589713532478</v>
       </c>
       <c r="CG5" t="n">
-        <v>6.255146217881702e-06</v>
+        <v>0.0004358490114100277</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.251105908930185e-06</v>
+        <v>5.626006168313324e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>3.036640919162892e-06</v>
+        <v>0.000238739579799585</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.132481884269509e-06</v>
+        <v>0.0001837563613662496</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.493235342626576e-06</v>
+        <v>7.849820394767448e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.083356664821622e-06</v>
+        <v>0.0002118057163897902</v>
       </c>
       <c r="CM5" t="n">
-        <v>9.263490028388333e-07</v>
+        <v>0.0006883348687551916</v>
       </c>
       <c r="CN5" t="n">
-        <v>1.566128844388004e-07</v>
+        <v>7.670042396057397e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>3.022118562512333e-06</v>
+        <v>0.0003670381556730717</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.297928520216374e-05</v>
+        <v>0.0007002262282185256</v>
       </c>
       <c r="CQ5" t="n">
-        <v>6.210486390045844e-06</v>
+        <v>0.000174110202351585</v>
       </c>
       <c r="CR5" t="n">
-        <v>9.334193237009458e-06</v>
+        <v>8.401693776249886e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.485370830778265e-06</v>
+        <v>0.0007651064079254866</v>
       </c>
       <c r="CT5" t="n">
-        <v>6.441575806093169e-08</v>
+        <v>0.0008825487457215786</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.979441887873691e-06</v>
+        <v>4.443727448233403e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>4.58250497104018e-06</v>
+        <v>0.0001080391448340379</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.866633167286636e-06</v>
+        <v>0.0007895238231867552</v>
       </c>
       <c r="CX5" t="n">
-        <v>4.113631746349711e-07</v>
+        <v>0.0004684911691583693</v>
       </c>
       <c r="CY5" t="n">
-        <v>5.922231594013283e-06</v>
+        <v>0.0005920194671489298</v>
       </c>
       <c r="CZ5" t="n">
-        <v>4.158438514423324e-06</v>
+        <v>0.0001162434637080878</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.771723759702581e-06</v>
+        <v>0.0002042543783318251</v>
       </c>
       <c r="DB5" t="n">
-        <v>4.478018809095374e-07</v>
+        <v>0.0002253981947433203</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.388770553807262e-06</v>
+        <v>0.0001578775118105114</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.141436769103166e-06</v>
+        <v>0.0001692900113994256</v>
       </c>
       <c r="DE5" t="n">
-        <v>6.209959337866167e-06</v>
+        <v>0.0006370362243615091</v>
       </c>
       <c r="DF5" t="n">
-        <v>6.69012479193043e-06</v>
+        <v>0.0001071810402208939</v>
       </c>
       <c r="DG5" t="n">
-        <v>8.105804226943292e-06</v>
+        <v>0.0002809410216286778</v>
       </c>
       <c r="DH5" t="n">
-        <v>6.447533905884484e-06</v>
+        <v>0.002043266082182527</v>
       </c>
       <c r="DI5" t="n">
-        <v>8.185620572476182e-06</v>
+        <v>0.002019527601078153</v>
       </c>
       <c r="DJ5" t="n">
-        <v>8.136405995173845e-06</v>
+        <v>0.00120897707529366</v>
       </c>
       <c r="DK5" t="n">
-        <v>6.084467713662889e-06</v>
+        <v>0.000620792678091675</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.180723029392539e-05</v>
+        <v>0.0004525804833974689</v>
       </c>
       <c r="DM5" t="n">
-        <v>2.743632421697839e-06</v>
+        <v>0.0004103151732124388</v>
       </c>
       <c r="DN5" t="n">
-        <v>1.941331447596895e-06</v>
+        <v>0.0002368338464293629</v>
       </c>
       <c r="DO5" t="n">
-        <v>6.719480552419554e-06</v>
+        <v>0.0004947145353071392</v>
       </c>
       <c r="DP5" t="n">
-        <v>7.444018592650536e-07</v>
+        <v>0.000391422159736976</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2.967893124150578e-06</v>
+        <v>0.000178840389708057</v>
       </c>
       <c r="DR5" t="n">
-        <v>7.489133167837281e-06</v>
+        <v>0.000603474909439683</v>
       </c>
       <c r="DS5" t="n">
-        <v>4.466132850211579e-06</v>
+        <v>0.0003570679400581867</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.872674033620569e-06</v>
+        <v>0.0003025699697900563</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.992230969946831e-06</v>
+        <v>1.606253499630839e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>3.191405994584784e-06</v>
+        <v>0.0008226491627283394</v>
       </c>
       <c r="DW5" t="n">
-        <v>9.854210247794981e-08</v>
+        <v>1.400180190103129e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>5.285416591505054e-06</v>
+        <v>7.396993169095367e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.660962425376056e-06</v>
+        <v>0.0005125550087541342</v>
       </c>
       <c r="DZ5" t="n">
-        <v>5.781803793070139e-06</v>
+        <v>9.289395529776812e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>3.142667537758825e-06</v>
+        <v>3.522882252582349e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>8.972235264081974e-06</v>
+        <v>0.0001443613728042692</v>
       </c>
       <c r="EC5" t="n">
-        <v>2.525604941183701e-06</v>
+        <v>0.0001701982837403193</v>
       </c>
       <c r="ED5" t="n">
-        <v>2.210706952610053e-06</v>
+        <v>0.0002629321534186602</v>
       </c>
       <c r="EE5" t="n">
-        <v>5.708691787731368e-06</v>
+        <v>6.407331238733605e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>2.416506049485179e-06</v>
+        <v>7.623738201800734e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>1.40964289130352e-06</v>
+        <v>0.0005700174951925874</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.510434569558129e-06</v>
+        <v>0.0003223981184419245</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.180480340844952e-06</v>
+        <v>0.0003459733270574361</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.363232627227262e-06</v>
+        <v>0.0004616918449755758</v>
       </c>
       <c r="EK5" t="n">
-        <v>3.550848305167165e-06</v>
+        <v>0.000243993810727261</v>
       </c>
       <c r="EL5" t="n">
-        <v>4.320219431974692e-06</v>
+        <v>0.0001737554848659784</v>
       </c>
       <c r="EM5" t="n">
-        <v>2.972030642922618e-06</v>
+        <v>1.907767727971077e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>2.511068487365264e-06</v>
+        <v>2.332194344489835e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>7.294161150639411e-06</v>
+        <v>0.0001895886234706268</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.987266841751989e-06</v>
+        <v>0.0006303364643827081</v>
       </c>
       <c r="EQ5" t="n">
-        <v>7.145772542571649e-07</v>
+        <v>0.0003503137559164315</v>
       </c>
       <c r="ER5" t="n">
-        <v>3.404359631531406e-06</v>
+        <v>0.0002480013354215771</v>
       </c>
       <c r="ES5" t="n">
-        <v>4.503846412262646e-06</v>
+        <v>0.0001444605586584657</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.88777562470932e-06</v>
+        <v>0.0008890063618309796</v>
       </c>
       <c r="EU5" t="n">
-        <v>3.855234353977721e-08</v>
+        <v>0.000644761195871979</v>
       </c>
       <c r="EV5" t="n">
-        <v>2.6275097297912e-06</v>
+        <v>0.0009976492729038</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.04533546618768e-06</v>
+        <v>1.676642568781972e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.558537173375953e-06</v>
+        <v>9.070921805687249e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.236087882716674e-06</v>
+        <v>0.0007156452629715204</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.170088345745171e-07</v>
+        <v>0.0003213389136362821</v>
       </c>
       <c r="FA5" t="n">
-        <v>3.719103233379428e-06</v>
+        <v>0.000588446797337383</v>
       </c>
       <c r="FB5" t="n">
-        <v>5.224759206612362e-06</v>
+        <v>6.270652374951169e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.413346692264895e-06</v>
+        <v>0.0003145860973745584</v>
       </c>
       <c r="FD5" t="n">
-        <v>1.243300971509598e-06</v>
+        <v>0.0002939174009952694</v>
       </c>
       <c r="FE5" t="n">
-        <v>9.792582886802847e-07</v>
+        <v>0.0001304022007388994</v>
       </c>
       <c r="FF5" t="n">
-        <v>2.493163492545136e-06</v>
+        <v>0.0003303257108200341</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.793983869902149e-06</v>
+        <v>0.0001667001488385722</v>
       </c>
       <c r="FH5" t="n">
-        <v>2.217068413301604e-06</v>
+        <v>0.0002127183106495067</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.607190029062622e-06</v>
+        <v>0.0002738920447882265</v>
       </c>
       <c r="FJ5" t="n">
-        <v>3.615407422330463e-07</v>
+        <v>0.0004164313722867519</v>
       </c>
       <c r="FK5" t="n">
-        <v>5.976959982945118e-06</v>
+        <v>0.0005703115020878613</v>
       </c>
       <c r="FL5" t="n">
-        <v>7.539581474702572e-06</v>
+        <v>0.0001687839394435287</v>
       </c>
       <c r="FM5" t="n">
-        <v>3.292196652182611e-06</v>
+        <v>0.0001694521633908153</v>
       </c>
       <c r="FN5" t="n">
-        <v>5.419468379841419e-06</v>
+        <v>0.0006814376683905721</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.390924069255561e-07</v>
+        <v>4.309651558287442e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>2.745033953033271e-06</v>
+        <v>0.0006248903227970004</v>
       </c>
       <c r="FQ5" t="n">
-        <v>3.064521933993092e-06</v>
+        <v>6.250393926165998e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.932539352215827e-06</v>
+        <v>0.0004217294626869261</v>
       </c>
       <c r="FS5" t="n">
-        <v>4.604700734489597e-06</v>
+        <v>0.0001347267243545502</v>
       </c>
       <c r="FT5" t="n">
-        <v>6.400818165275268e-06</v>
+        <v>0.0002992733498103917</v>
       </c>
       <c r="FU5" t="n">
-        <v>2.295302920174436e-06</v>
+        <v>0.0003092187107540667</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.679919361980865e-07</v>
+        <v>0.0004593072226271033</v>
       </c>
       <c r="FW5" t="n">
-        <v>4.057796104461886e-06</v>
+        <v>5.560798308579251e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>1.573913550600992e-06</v>
+        <v>0.0001296850823564455</v>
       </c>
       <c r="FY5" t="n">
-        <v>5.492970558407251e-06</v>
+        <v>0.0006810134509578347</v>
       </c>
       <c r="FZ5" t="n">
-        <v>8.182246347132605e-07</v>
+        <v>0.0001099292421713471</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.783475340744189e-06</v>
+        <v>0.0003952270199079067</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.067372750185314e-06</v>
+        <v>4.308047937229276e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.574968791828724e-06</v>
+        <v>0.000757782079745084</v>
       </c>
       <c r="GD5" t="n">
-        <v>1.429090502824693e-06</v>
+        <v>0.0001927400298882276</v>
       </c>
       <c r="GE5" t="n">
-        <v>5.864685590495355e-07</v>
+        <v>0.001664798241108656</v>
       </c>
       <c r="GF5" t="n">
-        <v>8.496218697473523e-07</v>
+        <v>0.0004907780094072223</v>
       </c>
       <c r="GG5" t="n">
-        <v>6.56782822261448e-06</v>
+        <v>6.405552267096937e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.498943326325389e-06</v>
+        <v>0.01621035486459732</v>
       </c>
       <c r="B6" t="n">
-        <v>6.898705578350928e-06</v>
+        <v>0.03028069064021111</v>
       </c>
       <c r="C6" t="n">
-        <v>7.650581892448827e-07</v>
+        <v>0.003261901438236237</v>
       </c>
       <c r="D6" t="n">
-        <v>1.443605833628681e-05</v>
+        <v>0.002741613425314426</v>
       </c>
       <c r="E6" t="n">
-        <v>1.372692167933565e-06</v>
+        <v>0.01076275296509266</v>
       </c>
       <c r="F6" t="n">
-        <v>4.163945504842559e-06</v>
+        <v>0.02186289988458157</v>
       </c>
       <c r="G6" t="n">
-        <v>1.481880417486536e-06</v>
+        <v>0.003027828643098474</v>
       </c>
       <c r="H6" t="n">
-        <v>3.825027761195088e-08</v>
+        <v>0.005597131326794624</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304228760545811e-07</v>
+        <v>0.006441971752792597</v>
       </c>
       <c r="J6" t="n">
-        <v>1.277892124562641e-06</v>
+        <v>0.010836536064744</v>
       </c>
       <c r="K6" t="n">
-        <v>3.343881644468638e-06</v>
+        <v>0.01740892045199871</v>
       </c>
       <c r="L6" t="n">
-        <v>5.070962174613669e-07</v>
+        <v>0.003687913529574871</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5550682292087e-05</v>
+        <v>0.01333008892834187</v>
       </c>
       <c r="N6" t="n">
-        <v>4.22214998252457e-06</v>
+        <v>0.001242378493770957</v>
       </c>
       <c r="O6" t="n">
-        <v>3.895051577273989e-06</v>
+        <v>0.02460683137178421</v>
       </c>
       <c r="P6" t="n">
-        <v>1.709566049612476e-06</v>
+        <v>0.001083938870579004</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.663867235241923e-06</v>
+        <v>0.004947989247739315</v>
       </c>
       <c r="R6" t="n">
-        <v>5.742186885981937e-07</v>
+        <v>0.001570628257468343</v>
       </c>
       <c r="S6" t="n">
-        <v>4.272444130037911e-06</v>
+        <v>0.005585826933383942</v>
       </c>
       <c r="T6" t="n">
-        <v>3.656768399196153e-07</v>
+        <v>0.001699820626527071</v>
       </c>
       <c r="U6" t="n">
-        <v>1.164402647191309e-06</v>
+        <v>0.007858910597860813</v>
       </c>
       <c r="V6" t="n">
-        <v>3.912589932042465e-07</v>
+        <v>0.003640762064605951</v>
       </c>
       <c r="W6" t="n">
-        <v>6.989613211771939e-06</v>
+        <v>0.000703600060660392</v>
       </c>
       <c r="X6" t="n">
-        <v>2.555930791459105e-07</v>
+        <v>0.007876009680330753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.191362116514938e-06</v>
+        <v>0.000664214720018208</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.435032345398213e-06</v>
+        <v>0.005547172855585814</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.292925374713377e-07</v>
+        <v>0.003310414496809244</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.836489880399313e-07</v>
+        <v>0.0007931531872600317</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.285634764120914e-06</v>
+        <v>0.004254930187016726</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.783783773134928e-06</v>
+        <v>0.0032302001491189</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.668675956054358e-06</v>
+        <v>0.005563782528042793</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.275256742403144e-06</v>
+        <v>0.002011789008975029</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.216284428868676e-06</v>
+        <v>0.002622575499117374</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.65883807312639e-06</v>
+        <v>0.00784979946911335</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.156320857073297e-07</v>
+        <v>0.0004917545011267066</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.054989070325973e-06</v>
+        <v>0.005523388274013996</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.335566594207194e-06</v>
+        <v>0.003797633340582252</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.121864102060499e-06</v>
+        <v>0.00256973085924983</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.878787315945374e-06</v>
+        <v>0.004203061573207378</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.249148448958294e-06</v>
+        <v>0.002993671223521233</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.88344051821332e-06</v>
+        <v>0.004884356632828712</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.94069775211392e-06</v>
+        <v>0.00304791796952486</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.250474437914818e-07</v>
+        <v>0.0004306596238166094</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.137268412776393e-08</v>
+        <v>0.0007092163432389498</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.69216491485713e-07</v>
+        <v>0.001191622810438275</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.337315893579216e-06</v>
+        <v>0.004215005319565535</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.307012760473299e-07</v>
+        <v>0.02437996678054333</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.577005605213344e-06</v>
+        <v>0.007349811960011721</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.199873728794046e-06</v>
+        <v>0.005764944478869438</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.185733814665582e-06</v>
+        <v>0.01629948057234287</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.085763521288754e-06</v>
+        <v>0.01011792384088039</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.995312115672277e-06</v>
+        <v>0.001479927217587829</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.136204102498596e-06</v>
+        <v>0.005738882347941399</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.594858187876525e-06</v>
+        <v>0.005008503794670105</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.47063121858082e-06</v>
+        <v>0.006368743255734444</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.316475047337008e-06</v>
+        <v>0.01018205285072327</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.255954202861176e-07</v>
+        <v>0.005652147345244884</v>
       </c>
       <c r="BF6" t="n">
-        <v>8.600758519605733e-06</v>
+        <v>0.00285200634971261</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.688199730182532e-06</v>
+        <v>0.00699320062994957</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.255921789488639e-07</v>
+        <v>0.01879682950675488</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.40913504967466e-06</v>
+        <v>0.0003547684755176306</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.692545988087659e-06</v>
+        <v>0.0007389060920104384</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.288828682139865e-06</v>
+        <v>0.001709515694528818</v>
       </c>
       <c r="BL6" t="n">
-        <v>5.235875732978457e-07</v>
+        <v>0.004431829322129488</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.744029982044594e-06</v>
+        <v>0.01059349253773689</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.172530230382108e-06</v>
+        <v>0.001941321068443358</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.186682652587479e-06</v>
+        <v>0.01207468099892139</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.998906663582602e-07</v>
+        <v>0.007101185154169798</v>
       </c>
       <c r="BQ6" t="n">
-        <v>4.280771008779993e-07</v>
+        <v>0.006116027943789959</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.588232064226759e-07</v>
+        <v>0.007903832942247391</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.705040060391184e-06</v>
+        <v>0.001918795518577099</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.827736807375913e-06</v>
+        <v>0.004543857648968697</v>
       </c>
       <c r="BU6" t="n">
-        <v>7.936481551951147e-07</v>
+        <v>0.0007345992489717901</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.07284722616896e-06</v>
+        <v>0.01081146579235792</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.448998659725476e-06</v>
+        <v>0.004462940618395805</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.371457857312635e-06</v>
+        <v>0.003674339270219207</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.414204120919749e-06</v>
+        <v>0.002077807672321796</v>
       </c>
       <c r="BZ6" t="n">
-        <v>8.041062073971261e-07</v>
+        <v>0.01496340613812208</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.158105078502558e-06</v>
+        <v>0.002789756050333381</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.485336608515354e-06</v>
+        <v>0.004558696411550045</v>
       </c>
       <c r="CC6" t="n">
-        <v>3.988143816968659e-06</v>
+        <v>0.004966880660504103</v>
       </c>
       <c r="CD6" t="n">
-        <v>8.918689218262443e-07</v>
+        <v>0.00452539324760437</v>
       </c>
       <c r="CE6" t="n">
-        <v>7.200836762422114e-07</v>
+        <v>0.004324403591454029</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.103736906316044e-07</v>
+        <v>0.001946657779626548</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.858316292986274e-06</v>
+        <v>0.0006241074879653752</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.746842485772504e-06</v>
+        <v>0.004139240831136703</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.767741878211382e-06</v>
+        <v>0.004620925989001989</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.842295453499901e-08</v>
+        <v>0.002569978591054678</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.949559979650076e-07</v>
+        <v>0.001248468644917011</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.875880002444319e-07</v>
+        <v>0.0008793330052867532</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.698040250630584e-07</v>
+        <v>2.50902958214283e-05</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.730898247842561e-06</v>
+        <v>0.006413607858121395</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.293945388169959e-06</v>
+        <v>0.00527326250448823</v>
       </c>
       <c r="CP6" t="n">
-        <v>5.497298388945637e-06</v>
+        <v>0.009069611318409443</v>
       </c>
       <c r="CQ6" t="n">
-        <v>6.0389711507014e-06</v>
+        <v>0.0005953405052423477</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.701246560514846e-06</v>
+        <v>0.01660563610494137</v>
       </c>
       <c r="CS6" t="n">
-        <v>7.113945912351483e-07</v>
+        <v>0.0006959885940887034</v>
       </c>
       <c r="CT6" t="n">
-        <v>4.71969258342142e-07</v>
+        <v>0.002352239098399878</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.010909500109847e-06</v>
+        <v>0.005302826408296824</v>
       </c>
       <c r="CV6" t="n">
-        <v>5.077662876828981e-07</v>
+        <v>0.00394167797639966</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.645419729356945e-06</v>
+        <v>0.002322482876479626</v>
       </c>
       <c r="CX6" t="n">
-        <v>2.156622258553398e-08</v>
+        <v>0.001080483198165894</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.287726147187641e-06</v>
+        <v>0.0009810645133256912</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.656972926866729e-06</v>
+        <v>0.004114930517971516</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.000064339175879e-07</v>
+        <v>0.005909977480769157</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.214166047702747e-07</v>
+        <v>0.00154852110426873</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.90589525775431e-08</v>
+        <v>0.0007175146602094173</v>
       </c>
       <c r="DD6" t="n">
-        <v>3.195268050149025e-07</v>
+        <v>0.0002832785539794713</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.757117383429431e-06</v>
+        <v>0.003086782991886139</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.337291905656457e-06</v>
+        <v>0.008086021989583969</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.546403609609115e-07</v>
+        <v>9.80349286692217e-05</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.61179934568645e-06</v>
+        <v>0.0005720816552639008</v>
       </c>
       <c r="DI6" t="n">
-        <v>6.384307198459283e-06</v>
+        <v>0.008831261657178402</v>
       </c>
       <c r="DJ6" t="n">
-        <v>4.285275281290524e-06</v>
+        <v>0.003951485734432936</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.181281161028892e-06</v>
+        <v>0.002077549463137984</v>
       </c>
       <c r="DL6" t="n">
-        <v>5.264262199489167e-06</v>
+        <v>0.003315283684059978</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.737125330691924e-06</v>
+        <v>0.003850668203085661</v>
       </c>
       <c r="DN6" t="n">
-        <v>8.723125688447908e-08</v>
+        <v>0.00828113965690136</v>
       </c>
       <c r="DO6" t="n">
-        <v>2.496334673196543e-06</v>
+        <v>0.002654650714248419</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.938801344498643e-07</v>
+        <v>0.0008969039190560579</v>
       </c>
       <c r="DQ6" t="n">
-        <v>5.603766339845606e-08</v>
+        <v>0.001441748579964042</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.418726355950639e-06</v>
+        <v>0.0002908522146753967</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.333246357011376e-06</v>
+        <v>0.004552546888589859</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.008979324979009e-06</v>
+        <v>0.001010068459436297</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.609987521078438e-06</v>
+        <v>0.001702525652945042</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.281945287701092e-06</v>
+        <v>0.01103326864540577</v>
       </c>
       <c r="DW6" t="n">
-        <v>8.585278692407883e-07</v>
+        <v>0.002039831597357988</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.305272917306866e-06</v>
+        <v>0.004895265214145184</v>
       </c>
       <c r="DY6" t="n">
-        <v>4.313525892030157e-08</v>
+        <v>0.00445715943351388</v>
       </c>
       <c r="DZ6" t="n">
-        <v>2.474898792570457e-06</v>
+        <v>0.006203748751431704</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.903436661152227e-07</v>
+        <v>0.000267581082880497</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.159056066375342e-06</v>
+        <v>0.004282264970242977</v>
       </c>
       <c r="EC6" t="n">
-        <v>2.199951865122785e-08</v>
+        <v>0.001710012787953019</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.405399245868466e-07</v>
+        <v>0.003212916431948543</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.633958504498878e-06</v>
+        <v>0.003017492592334747</v>
       </c>
       <c r="EF6" t="n">
-        <v>3.947593256725668e-07</v>
+        <v>0.003033392829820514</v>
       </c>
       <c r="EG6" t="n">
-        <v>6.437650768020831e-07</v>
+        <v>0.004361798986792564</v>
       </c>
       <c r="EH6" t="n">
-        <v>6.052948720025597e-07</v>
+        <v>0.004434902220964432</v>
       </c>
       <c r="EI6" t="n">
-        <v>5.149311618879437e-06</v>
+        <v>0.0002035560901276767</v>
       </c>
       <c r="EJ6" t="n">
-        <v>9.010190069602686e-07</v>
+        <v>0.002720921766012907</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.594946411387355e-06</v>
+        <v>0.005051664542406797</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.652520040806849e-07</v>
+        <v>0.001754615223035216</v>
       </c>
       <c r="EM6" t="n">
-        <v>2.914197239078931e-07</v>
+        <v>0.00376897631213069</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.244464215233165e-06</v>
+        <v>0.0005610273219645023</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.411347850284074e-07</v>
+        <v>0.0035268384963274</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.061634859273909e-06</v>
+        <v>0.005143339280039072</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.959559085662477e-06</v>
+        <v>0.008083129301667213</v>
       </c>
       <c r="ER6" t="n">
-        <v>5.668177323059354e-07</v>
+        <v>0.005928488448262215</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.418408257653937e-06</v>
+        <v>0.007935834117233753</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.075165869224293e-06</v>
+        <v>0.01021590642631054</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.211733539705165e-07</v>
+        <v>0.0009224505629390478</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.138314246418304e-06</v>
+        <v>0.0001064333482645452</v>
       </c>
       <c r="EW6" t="n">
-        <v>5.533117928280262e-07</v>
+        <v>0.0003286811988800764</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.872216041145293e-07</v>
+        <v>0.003735437523573637</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.817349811972235e-06</v>
+        <v>0.003981528338044882</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.912060719812871e-08</v>
+        <v>0.002923501189798117</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.075567181236693e-06</v>
+        <v>0.001040654722601175</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.629251414669852e-06</v>
+        <v>0.001516719232313335</v>
       </c>
       <c r="FC6" t="n">
-        <v>4.799160819857207e-07</v>
+        <v>0.006195520516484976</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.435041892567824e-07</v>
+        <v>0.0009628956904634833</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.294714024879795e-07</v>
+        <v>0.0002463152632117271</v>
       </c>
       <c r="FF6" t="n">
-        <v>4.11322162108263e-07</v>
+        <v>0.001291580265387893</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.935817635967396e-06</v>
+        <v>0.001406680792570114</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.092833710776176e-06</v>
+        <v>0.001291883527301252</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.16645503314794e-06</v>
+        <v>0.005951664410531521</v>
       </c>
       <c r="FJ6" t="n">
-        <v>2.078544639516622e-06</v>
+        <v>0.002639671321958303</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.969514869415434e-06</v>
+        <v>0.005511033814400434</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.695376454335928e-06</v>
+        <v>0.004702466074377298</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.441244646433915e-07</v>
+        <v>0.001510727102868259</v>
       </c>
       <c r="FN6" t="n">
-        <v>4.918998683933751e-07</v>
+        <v>0.002640342805534601</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.000076622403867e-06</v>
+        <v>0.005067826714366674</v>
       </c>
       <c r="FP6" t="n">
-        <v>8.39210315461969e-07</v>
+        <v>0.003737865015864372</v>
       </c>
       <c r="FQ6" t="n">
-        <v>5.810767333969125e-07</v>
+        <v>0.0151539146900177</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.379609670948412e-06</v>
+        <v>0.005055642686784267</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.407159743394004e-06</v>
+        <v>0.008822030387818813</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.939451976795681e-06</v>
+        <v>0.01892462931573391</v>
       </c>
       <c r="FU6" t="n">
-        <v>4.668772817240097e-06</v>
+        <v>0.00607649190351367</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.424729134669178e-06</v>
+        <v>0.004773647524416447</v>
       </c>
       <c r="FW6" t="n">
-        <v>9.854310434320723e-08</v>
+        <v>0.002014765050262213</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.578455794515321e-06</v>
+        <v>0.004035124555230141</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.064927736635582e-07</v>
+        <v>0.001792311784811318</v>
       </c>
       <c r="FZ6" t="n">
-        <v>7.108475301720318e-07</v>
+        <v>0.006758116651326418</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.783898243156727e-07</v>
+        <v>0.00489213690161705</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.873410494430573e-06</v>
+        <v>0.0062208641320467</v>
       </c>
       <c r="GC6" t="n">
-        <v>5.820392289024312e-06</v>
+        <v>0.00736584234982729</v>
       </c>
       <c r="GD6" t="n">
-        <v>7.792988299115677e-08</v>
+        <v>0.005347494967281818</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.343812527920818e-06</v>
+        <v>0.0002790405414998531</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.478222998230194e-06</v>
+        <v>0.0001598727540113032</v>
       </c>
       <c r="GG6" t="n">
-        <v>7.073543883961975e-07</v>
+        <v>0.001242937752977014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.885097286602466e-11</v>
+        <v>2.07375001082255e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>3.126008132903202e-11</v>
+        <v>9.402532668900676e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605296187119244e-11</v>
+        <v>1.008519575407263e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>3.862584904701372e-11</v>
+        <v>9.716050044517033e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>1.61891444694362e-10</v>
+        <v>6.652096544712549e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>1.050802084234803e-10</v>
+        <v>2.36505875363946e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>5.950642062435563e-11</v>
+        <v>6.952717740205117e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>6.480858905089093e-11</v>
+        <v>6.663204658252653e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.090451895446876e-10</v>
+        <v>1.314267410634784e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.213252233735808e-11</v>
+        <v>2.09056065614277e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>9.51819595362835e-11</v>
+        <v>1.355367430733168e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>4.186584065535293e-11</v>
+        <v>1.823484012675181e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>1.232060287126302e-11</v>
+        <v>2.249476438009879e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.660840290104939e-12</v>
+        <v>1.315462213824503e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>3.432494739830094e-12</v>
+        <v>2.101098289131187e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>4.81371539851061e-11</v>
+        <v>4.150034783378942e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.494948494641719e-11</v>
+        <v>1.825946355893393e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>7.873385277079592e-11</v>
+        <v>6.417518761736574e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>3.919969557286684e-11</v>
+        <v>1.942861672432628e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>3.403681416574988e-12</v>
+        <v>2.880112219827424e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>5.991034057739597e-11</v>
+        <v>2.639197646203684e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.777763006249877e-11</v>
+        <v>2.287006282131188e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.200382016008916e-10</v>
+        <v>9.51868059928529e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>1.447810447918751e-11</v>
+        <v>5.216815225139726e-06</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002842766108849e-11</v>
+        <v>1.909328943838773e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.382297575014402e-11</v>
+        <v>2.569061052781763e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.408993143854232e-11</v>
+        <v>6.781289357604692e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.617096643564576e-11</v>
+        <v>1.57378042331402e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.607295100989006e-11</v>
+        <v>1.009709376376122e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.057251476596306e-12</v>
+        <v>4.817416993319057e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.357324834807329e-11</v>
+        <v>4.174352397967596e-06</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.742454676857747e-11</v>
+        <v>9.985869837692007e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.098330884048316e-11</v>
+        <v>2.537390855650301e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.464379032067313e-11</v>
+        <v>5.729129043174908e-06</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.113087656241408e-11</v>
+        <v>9.87523435469484e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.292748720571613e-11</v>
+        <v>2.031806616287213e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.224102235188653e-11</v>
+        <v>7.970377282617847e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.490778838546095e-12</v>
+        <v>2.942879746115068e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.121699517465547e-11</v>
+        <v>7.397275680887105e-08</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.756489812076438e-11</v>
+        <v>4.368307600088883e-06</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.017425975222366e-11</v>
+        <v>6.476479029515758e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.057909918862233e-11</v>
+        <v>5.038102244725451e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.91363183579918e-11</v>
+        <v>1.587434553584899e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.765545175336225e-11</v>
+        <v>7.036927399894921e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.273050225629294e-12</v>
+        <v>1.370083282381529e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>6.966615478942728e-11</v>
+        <v>1.888828137452947e-06</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.922689753194547e-11</v>
+        <v>1.583517769176979e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.393611697737441e-11</v>
+        <v>9.709611958896858e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.22400534152689e-10</v>
+        <v>3.957294211431872e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.557553530595612e-10</v>
+        <v>5.17331045557512e-07</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.111066516568116e-10</v>
+        <v>1.796506512619089e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.750624810727743e-12</v>
+        <v>4.053144039062317e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.760489753450557e-11</v>
+        <v>5.137158041179646e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>9.145383755848613e-11</v>
+        <v>2.141789082088508e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.668359614492303e-11</v>
+        <v>1.404871454724343e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.524767275610909e-12</v>
+        <v>3.213546506231069e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.019153495600115e-12</v>
+        <v>4.90302636535489e-06</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.493270256393899e-11</v>
+        <v>1.204382101605006e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.342388353253732e-11</v>
+        <v>1.90038754226407e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>8.382308042120812e-11</v>
+        <v>1.897147012641653e-05</v>
       </c>
       <c r="BI7" t="n">
-        <v>4.853561302864406e-11</v>
+        <v>1.950854084498133e-06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.008539519259388e-11</v>
+        <v>4.845204784942325e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>5.076818414447015e-13</v>
+        <v>2.707999328777078e-06</v>
       </c>
       <c r="BL7" t="n">
-        <v>5.615737735942261e-11</v>
+        <v>9.814563100007945e-07</v>
       </c>
       <c r="BM7" t="n">
-        <v>4.6238533835119e-11</v>
+        <v>1.213377527164994e-05</v>
       </c>
       <c r="BN7" t="n">
-        <v>7.831651299694542e-11</v>
+        <v>2.614767709019361e-07</v>
       </c>
       <c r="BO7" t="n">
-        <v>5.322809554231256e-11</v>
+        <v>5.144651368027553e-06</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.331340333116104e-11</v>
+        <v>6.282964022830129e-06</v>
       </c>
       <c r="BQ7" t="n">
-        <v>6.023714166358829e-11</v>
+        <v>3.287104846094735e-06</v>
       </c>
       <c r="BR7" t="n">
-        <v>9.722883956286843e-12</v>
+        <v>4.723276106233243e-06</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.732944343579845e-11</v>
+        <v>3.265525947426795e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.606849805464329e-11</v>
+        <v>8.695093129063025e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>4.828456037775375e-11</v>
+        <v>4.557880970423867e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.92576102234321e-11</v>
+        <v>3.171770003973506e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.184881615907575e-11</v>
+        <v>1.760090526659042e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>7.887780012483248e-11</v>
+        <v>1.880317313407431e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>5.181496204320624e-11</v>
+        <v>2.24288532990613e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>6.770566052249904e-11</v>
+        <v>2.437381681374973e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.349064263078681e-11</v>
+        <v>1.709778871372691e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>5.622692936246843e-11</v>
+        <v>1.169448523796746e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>8.48575099077209e-11</v>
+        <v>4.463144250621554e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.756940426478337e-11</v>
+        <v>1.677792909049458e-07</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.741553429246423e-11</v>
+        <v>2.318200358786271e-06</v>
       </c>
       <c r="CF7" t="n">
-        <v>9.173812751117616e-12</v>
+        <v>5.458249461298692e-07</v>
       </c>
       <c r="CG7" t="n">
-        <v>9.733043364323901e-12</v>
+        <v>1.464389015382039e-06</v>
       </c>
       <c r="CH7" t="n">
-        <v>2.907459342726959e-11</v>
+        <v>6.430509529309347e-07</v>
       </c>
       <c r="CI7" t="n">
-        <v>2.608539773074625e-11</v>
+        <v>4.081959104951238e-06</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.577880534564535e-11</v>
+        <v>1.711018512651208e-06</v>
       </c>
       <c r="CK7" t="n">
-        <v>2.915796076807808e-12</v>
+        <v>7.580350711577921e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>2.090209515887009e-12</v>
+        <v>2.82299515674822e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>2.910972157765812e-11</v>
+        <v>3.243958872189978e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>4.198127262489137e-11</v>
+        <v>2.453671186231077e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>8.565989931264006e-12</v>
+        <v>7.896109082139446e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.47682915843761e-11</v>
+        <v>2.069339188892627e-08</v>
       </c>
       <c r="CQ7" t="n">
-        <v>2.828994156989229e-11</v>
+        <v>5.904513727728045e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.556886299909245e-11</v>
+        <v>1.228618839377305e-05</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.21023052690461e-11</v>
+        <v>5.085405973659363e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>5.579552792012166e-11</v>
+        <v>1.164300783784711e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.617582969295263e-11</v>
+        <v>8.220869858632796e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>1.945283864546177e-11</v>
+        <v>2.286898848069541e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>2.22944943756298e-11</v>
+        <v>4.862121727455815e-07</v>
       </c>
       <c r="CX7" t="n">
-        <v>3.724403598026615e-12</v>
+        <v>1.732939267640177e-06</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.600515553423776e-11</v>
+        <v>2.286205244672601e-06</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.522334688863758e-11</v>
+        <v>1.182476580652292e-06</v>
       </c>
       <c r="DA7" t="n">
-        <v>2.085839487242502e-11</v>
+        <v>3.103190920228371e-06</v>
       </c>
       <c r="DB7" t="n">
-        <v>6.922207165110938e-12</v>
+        <v>7.023368198133539e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>6.839371950728701e-12</v>
+        <v>7.459664175257785e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>3.669988358351306e-12</v>
+        <v>2.227091044915142e-06</v>
       </c>
       <c r="DE7" t="n">
-        <v>4.385071472601254e-11</v>
+        <v>4.08948562835576e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>6.174214611798234e-11</v>
+        <v>6.337365903164027e-06</v>
       </c>
       <c r="DG7" t="n">
-        <v>6.046621536803798e-12</v>
+        <v>2.017626684391871e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>7.527927586847838e-11</v>
+        <v>4.723254733107751e-06</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.045663694521082e-10</v>
+        <v>1.415159545103961e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>5.209519621240943e-11</v>
+        <v>8.040885404625442e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>2.978567392730724e-11</v>
+        <v>3.529684590830584e-06</v>
       </c>
       <c r="DL7" t="n">
-        <v>5.39403174903974e-11</v>
+        <v>3.954007297579665e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.967101655175885e-11</v>
+        <v>4.538645043794531e-06</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.427931904662838e-11</v>
+        <v>5.398198481998406e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>3.748189952856862e-11</v>
+        <v>2.936508280981798e-08</v>
       </c>
       <c r="DP7" t="n">
-        <v>2.772471315026781e-11</v>
+        <v>5.432140824268572e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>1.766021009985685e-11</v>
+        <v>1.634434056541068e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.01722956447059e-10</v>
+        <v>1.116398743761238e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>8.992299266319392e-11</v>
+        <v>2.871935976145323e-06</v>
       </c>
       <c r="DT7" t="n">
-        <v>1.355554644227874e-11</v>
+        <v>1.197826122734114e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>5.540090088074212e-12</v>
+        <v>2.675061978152371e-06</v>
       </c>
       <c r="DV7" t="n">
-        <v>1.527445184223986e-11</v>
+        <v>2.961927975775325e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>9.685009738635841e-12</v>
+        <v>2.407890860922635e-06</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.617273676091102e-11</v>
+        <v>1.616799522707879e-06</v>
       </c>
       <c r="DY7" t="n">
-        <v>4.982703138978195e-11</v>
+        <v>9.473639579482551e-07</v>
       </c>
       <c r="DZ7" t="n">
-        <v>6.915537587026677e-11</v>
+        <v>2.443837274768157e-06</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.371979266306944e-11</v>
+        <v>1.022040123643819e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>4.410609030780499e-11</v>
+        <v>2.448852455927408e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>2.325802311159419e-12</v>
+        <v>1.759586439220584e-06</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.727857440458891e-11</v>
+        <v>5.7598276725912e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.182460379611783e-11</v>
+        <v>3.280377541159396e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.521877671968209e-11</v>
+        <v>2.692285647754034e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.888079094793717e-14</v>
+        <v>2.425994352961425e-06</v>
       </c>
       <c r="EH7" t="n">
-        <v>1.106837885234135e-11</v>
+        <v>3.207121608284069e-07</v>
       </c>
       <c r="EI7" t="n">
-        <v>1.539353366997176e-11</v>
+        <v>3.636541805462912e-06</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.907138162671185e-11</v>
+        <v>3.516862307151314e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>5.869697089488923e-11</v>
+        <v>8.885434681360493e-07</v>
       </c>
       <c r="EL7" t="n">
-        <v>3.96761790089073e-11</v>
+        <v>5.62872810405679e-06</v>
       </c>
       <c r="EM7" t="n">
-        <v>1.549133044065343e-11</v>
+        <v>1.529556357127149e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>4.690754035197031e-11</v>
+        <v>1.514678501735034e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>2.711948894618121e-11</v>
+        <v>5.189868261368247e-06</v>
       </c>
       <c r="EP7" t="n">
-        <v>6.880125635877476e-11</v>
+        <v>4.203324806439923e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>3.995432457104542e-12</v>
+        <v>4.147691015532473e-06</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.898980081133544e-12</v>
+        <v>8.453642976746778e-07</v>
       </c>
       <c r="ES7" t="n">
-        <v>5.102964578673763e-11</v>
+        <v>2.069022229989059e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>4.040966519736067e-11</v>
+        <v>5.114159648655914e-06</v>
       </c>
       <c r="EU7" t="n">
-        <v>2.243718752459323e-11</v>
+        <v>3.490012659312924e-06</v>
       </c>
       <c r="EV7" t="n">
-        <v>5.672033676074051e-11</v>
+        <v>3.415151013541617e-06</v>
       </c>
       <c r="EW7" t="n">
-        <v>1.043922066845671e-11</v>
+        <v>4.795536369783804e-06</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.393189643511539e-11</v>
+        <v>4.278149674519227e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.366094820072107e-11</v>
+        <v>2.071121230073913e-07</v>
       </c>
       <c r="EZ7" t="n">
-        <v>3.560741111685584e-12</v>
+        <v>3.56827740688459e-07</v>
       </c>
       <c r="FA7" t="n">
-        <v>1.229959363524546e-11</v>
+        <v>1.139599021371396e-06</v>
       </c>
       <c r="FB7" t="n">
-        <v>1.492097417843397e-11</v>
+        <v>1.197978804157174e-06</v>
       </c>
       <c r="FC7" t="n">
-        <v>1.436854628333872e-11</v>
+        <v>4.458476723812055e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>7.0064939093617e-12</v>
+        <v>1.921182501973817e-08</v>
       </c>
       <c r="FE7" t="n">
-        <v>6.938906914333298e-13</v>
+        <v>7.5618595474225e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>9.376663508142702e-12</v>
+        <v>1.364046511298511e-06</v>
       </c>
       <c r="FG7" t="n">
-        <v>4.554362789677135e-11</v>
+        <v>8.567832878725312e-07</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.654850388665974e-11</v>
+        <v>2.504468056940823e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>6.53953800833218e-12</v>
+        <v>2.701486437217682e-06</v>
       </c>
       <c r="FJ7" t="n">
-        <v>4.883064438909734e-13</v>
+        <v>4.846931915380992e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>1.478775261964937e-11</v>
+        <v>1.021359457809012e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.036438469770307e-11</v>
+        <v>1.309740014221461e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>8.431139467135473e-12</v>
+        <v>5.990320914861513e-07</v>
       </c>
       <c r="FN7" t="n">
-        <v>8.025340114681256e-11</v>
+        <v>4.117000571568497e-06</v>
       </c>
       <c r="FO7" t="n">
-        <v>2.16290475113512e-11</v>
+        <v>3.387157221368398e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.384420612344673e-11</v>
+        <v>4.064479526277864e-06</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1.678074346145308e-11</v>
+        <v>5.729634722229093e-07</v>
       </c>
       <c r="FR7" t="n">
-        <v>3.327806780140108e-11</v>
+        <v>6.572592155862367e-06</v>
       </c>
       <c r="FS7" t="n">
-        <v>2.500718382369982e-12</v>
+        <v>7.694570740568452e-06</v>
       </c>
       <c r="FT7" t="n">
-        <v>9.946490853174339e-11</v>
+        <v>2.389476321695838e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>7.755276976162406e-11</v>
+        <v>7.828361049178056e-06</v>
       </c>
       <c r="FV7" t="n">
-        <v>3.209335575071748e-11</v>
+        <v>5.256182703305967e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>9.917559828931388e-12</v>
+        <v>1.670635242589924e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>3.430346718485966e-12</v>
+        <v>1.052940660883905e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>6.569310633669501e-12</v>
+        <v>2.683791990421014e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.236964523865236e-11</v>
+        <v>8.444897503068205e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>2.869210424805146e-11</v>
+        <v>4.282418558432255e-06</v>
       </c>
       <c r="GB7" t="n">
-        <v>4.042557955052928e-11</v>
+        <v>4.588972842611838e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.904693069931795e-11</v>
+        <v>1.589834255355527e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>6.544383091000583e-13</v>
+        <v>2.139846174031845e-06</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.725413388553587e-11</v>
+        <v>7.73898955230834e-06</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.077782828262652e-12</v>
+        <v>1.903826046145696e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>2.966929870187873e-12</v>
+        <v>9.216679245582782e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.571993147488683e-06</v>
+        <v>3.178460929120774e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>3.114613355137408e-05</v>
+        <v>1.697760671959259e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>3.983363785664551e-05</v>
+        <v>1.056852056535718e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002053883654298261</v>
+        <v>1.071488168236101e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>3.065160854021087e-07</v>
+        <v>1.791029262676602e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>6.898665014887229e-05</v>
+        <v>5.572674581344472e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>3.599243427743204e-07</v>
+        <v>7.790636118443217e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>4.561449895845726e-05</v>
+        <v>1.28471970128885e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>6.44442334305495e-05</v>
+        <v>7.497235969822214e-07</v>
       </c>
       <c r="J8" t="n">
-        <v>3.348263635416515e-05</v>
+        <v>4.502420779317617e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>5.55486731173005e-05</v>
+        <v>1.127642462961376e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.218354373122565e-05</v>
+        <v>3.979031930612109e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001584366691531613</v>
+        <v>1.033893113344675e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.760112930554897e-05</v>
+        <v>3.749601091840304e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>3.998637839686126e-05</v>
+        <v>7.358798939094413e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>6.700670382997487e-06</v>
+        <v>7.130377071007388e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0001000879055936821</v>
+        <v>4.418351409185561e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>6.434830720536411e-05</v>
+        <v>2.45861792791402e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>7.890781489550136e-06</v>
+        <v>4.868745691055665e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>5.996892650728114e-05</v>
+        <v>1.987646101042628e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>4.329115472501144e-05</v>
+        <v>1.330695482693045e-07</v>
       </c>
       <c r="V8" t="n">
-        <v>2.775227585516404e-05</v>
+        <v>2.458428525642375e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00013964188110549</v>
+        <v>4.945777618559077e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>6.770305844838731e-06</v>
+        <v>2.684525952645345e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.741697118035518e-06</v>
+        <v>2.296520960953785e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.828631295415107e-05</v>
+        <v>3.482738293314469e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.246857664227718e-05</v>
+        <v>1.172258293991035e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.322100357967429e-05</v>
+        <v>7.503949746023864e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.644080450409092e-05</v>
+        <v>2.283290314153419e-06</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.535367068252526e-05</v>
+        <v>1.485375378251774e-08</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.540783993434161e-05</v>
+        <v>6.109489731898066e-07</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.181755113881081e-06</v>
+        <v>3.216879576939391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.452383912692312e-05</v>
+        <v>1.139640062319813e-07</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.030949533742387e-05</v>
+        <v>1.114000269808457e-07</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.923960528278258e-05</v>
+        <v>1.879974433904863e-07</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.064535849262029e-05</v>
+        <v>1.051011167874094e-06</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.268957491149195e-05</v>
+        <v>3.869275246870529e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.416989445919171e-05</v>
+        <v>1.835417265283468e-06</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.486115706939017e-06</v>
+        <v>3.049059387194575e-07</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.605357389664277e-05</v>
+        <v>5.261472892925667e-07</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.396060542901978e-05</v>
+        <v>1.684418634795293e-06</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.362885010777973e-05</v>
+        <v>1.248017838406668e-06</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.34651667799335e-06</v>
+        <v>2.621953854031744e-07</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.834653272060677e-06</v>
+        <v>2.465171178300807e-07</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.409993274137378e-05</v>
+        <v>1.112486415877356e-06</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.319367922609672e-05</v>
+        <v>1.227809207193786e-06</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.277698124293238e-05</v>
+        <v>1.05701637949096e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.583090670465026e-05</v>
+        <v>3.900731826433912e-07</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.317740866914392e-05</v>
+        <v>3.037484020751435e-06</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.216744724137243e-05</v>
+        <v>2.571355253166985e-07</v>
       </c>
       <c r="AY8" t="n">
-        <v>3.951771941501647e-05</v>
+        <v>6.821022680014721e-07</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7.479678060917649e-06</v>
+        <v>2.20814536078251e-06</v>
       </c>
       <c r="BA8" t="n">
-        <v>3.179099803674035e-05</v>
+        <v>2.715296432143077e-07</v>
       </c>
       <c r="BB8" t="n">
-        <v>8.43229099700693e-06</v>
+        <v>1.164043055723596e-06</v>
       </c>
       <c r="BC8" t="n">
-        <v>3.325990837765858e-05</v>
+        <v>2.272805659231381e-06</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.388562643318437e-05</v>
+        <v>3.114679429927492e-06</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.248623448191211e-05</v>
+        <v>2.766224952210905e-06</v>
       </c>
       <c r="BF8" t="n">
-        <v>9.545998182147741e-05</v>
+        <v>9.476055993218324e-07</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.7370715290308e-05</v>
+        <v>4.771448402607348e-06</v>
       </c>
       <c r="BH8" t="n">
-        <v>3.061137249460444e-05</v>
+        <v>2.352330511712353e-06</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.639866241021082e-05</v>
+        <v>2.487988240318373e-06</v>
       </c>
       <c r="BJ8" t="n">
-        <v>8.285094736493193e-06</v>
+        <v>1.128106760006631e-06</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.927997411461547e-05</v>
+        <v>9.116165529121645e-07</v>
       </c>
       <c r="BL8" t="n">
-        <v>4.835635627387092e-05</v>
+        <v>1.464821366425895e-06</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.882033732021227e-05</v>
+        <v>8.571956868763664e-07</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.080468700820347e-05</v>
+        <v>5.12140104547143e-07</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.14566316572018e-05</v>
+        <v>6.083183166083472e-07</v>
       </c>
       <c r="BP8" t="n">
-        <v>2.085801133944187e-05</v>
+        <v>2.559059453233203e-07</v>
       </c>
       <c r="BQ8" t="n">
-        <v>9.829537702898961e-06</v>
+        <v>1.155043605649553e-06</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.088379485736368e-05</v>
+        <v>1.646098894525494e-06</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.576776412548497e-05</v>
+        <v>2.274467760798871e-07</v>
       </c>
       <c r="BT8" t="n">
-        <v>2.361932820349466e-05</v>
+        <v>5.249589776212815e-07</v>
       </c>
       <c r="BU8" t="n">
-        <v>4.242294380674139e-05</v>
+        <v>1.104786633732147e-06</v>
       </c>
       <c r="BV8" t="n">
-        <v>9.725404197524767e-06</v>
+        <v>5.285357474349439e-06</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.243532617285382e-05</v>
+        <v>3.102645962371753e-07</v>
       </c>
       <c r="BX8" t="n">
-        <v>9.15576092666015e-05</v>
+        <v>3.546164407453034e-06</v>
       </c>
       <c r="BY8" t="n">
-        <v>4.864627044298686e-06</v>
+        <v>6.601430868613534e-07</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3.831471258308738e-05</v>
+        <v>2.778977432171814e-06</v>
       </c>
       <c r="CA8" t="n">
-        <v>2.947158463939559e-06</v>
+        <v>2.059549615296419e-07</v>
       </c>
       <c r="CB8" t="n">
-        <v>3.286340142949484e-05</v>
+        <v>2.162985310860677e-07</v>
       </c>
       <c r="CC8" t="n">
-        <v>4.852512938668951e-05</v>
+        <v>1.472583790018689e-06</v>
       </c>
       <c r="CD8" t="n">
-        <v>4.825042196898721e-05</v>
+        <v>1.16065825750411e-06</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.270751090487465e-05</v>
+        <v>2.654293894011062e-06</v>
       </c>
       <c r="CF8" t="n">
-        <v>1.012156371871242e-05</v>
+        <v>1.08452138647408e-06</v>
       </c>
       <c r="CG8" t="n">
-        <v>4.260385321686044e-05</v>
+        <v>1.137214781010698e-06</v>
       </c>
       <c r="CH8" t="n">
-        <v>2.036267324001528e-05</v>
+        <v>8.117509082694596e-07</v>
       </c>
       <c r="CI8" t="n">
-        <v>1.710198375803884e-05</v>
+        <v>1.700288521533366e-06</v>
       </c>
       <c r="CJ8" t="n">
-        <v>5.015237547922879e-06</v>
+        <v>6.917796326888492e-07</v>
       </c>
       <c r="CK8" t="n">
-        <v>5.103485364088556e-06</v>
+        <v>2.436292447782762e-07</v>
       </c>
       <c r="CL8" t="n">
-        <v>2.134212536475388e-06</v>
+        <v>8.001035212146235e-07</v>
       </c>
       <c r="CM8" t="n">
-        <v>2.374797986703925e-05</v>
+        <v>7.058561664052831e-07</v>
       </c>
       <c r="CN8" t="n">
-        <v>5.906086880713701e-05</v>
+        <v>3.244687718506611e-07</v>
       </c>
       <c r="CO8" t="n">
-        <v>1.181518200610299e-05</v>
+        <v>1.002011572381889e-06</v>
       </c>
       <c r="CP8" t="n">
-        <v>7.025957165751606e-05</v>
+        <v>2.587605649750913e-06</v>
       </c>
       <c r="CQ8" t="n">
-        <v>2.969877095893025e-05</v>
+        <v>5.110439360578312e-07</v>
       </c>
       <c r="CR8" t="n">
-        <v>7.663504220545292e-05</v>
+        <v>2.707251951505896e-06</v>
       </c>
       <c r="CS8" t="n">
-        <v>1.095447078114375e-05</v>
+        <v>1.457363055124006e-06</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.986914139706641e-05</v>
+        <v>3.655812406577752e-06</v>
       </c>
       <c r="CU8" t="n">
-        <v>1.007864830171457e-05</v>
+        <v>8.712021326573449e-07</v>
       </c>
       <c r="CV8" t="n">
-        <v>5.037587106926367e-05</v>
+        <v>9.840953225648263e-07</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.753326978359837e-05</v>
+        <v>2.245724999738741e-06</v>
       </c>
       <c r="CX8" t="n">
-        <v>1.235820127476472e-05</v>
+        <v>1.020267973217415e-06</v>
       </c>
       <c r="CY8" t="n">
-        <v>4.080672806594521e-05</v>
+        <v>1.792704779290943e-06</v>
       </c>
       <c r="CZ8" t="n">
-        <v>2.179775401600637e-05</v>
+        <v>3.290124368504621e-07</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.706772491161246e-05</v>
+        <v>1.744231894917903e-06</v>
       </c>
       <c r="DB8" t="n">
-        <v>1.740044694997778e-06</v>
+        <v>9.126413260673871e-07</v>
       </c>
       <c r="DC8" t="n">
-        <v>5.821707873110427e-06</v>
+        <v>3.115417825938493e-07</v>
       </c>
       <c r="DD8" t="n">
-        <v>1.344764768873574e-06</v>
+        <v>5.03369278703758e-07</v>
       </c>
       <c r="DE8" t="n">
-        <v>6.949342059670016e-05</v>
+        <v>9.716709428175818e-07</v>
       </c>
       <c r="DF8" t="n">
-        <v>5.308582331053913e-05</v>
+        <v>3.389425728528295e-06</v>
       </c>
       <c r="DG8" t="n">
-        <v>5.338587288861163e-05</v>
+        <v>3.321491703900392e-08</v>
       </c>
       <c r="DH8" t="n">
-        <v>2.180742376367562e-05</v>
+        <v>3.43905503541464e-06</v>
       </c>
       <c r="DI8" t="n">
-        <v>4.243867442710325e-05</v>
+        <v>1.57868885253265e-06</v>
       </c>
       <c r="DJ8" t="n">
-        <v>3.402167931199074e-05</v>
+        <v>2.167944785469444e-06</v>
       </c>
       <c r="DK8" t="n">
-        <v>3.728439332917333e-05</v>
+        <v>1.823407728807069e-06</v>
       </c>
       <c r="DL8" t="n">
-        <v>6.333674537017941e-05</v>
+        <v>1.26992745208554e-07</v>
       </c>
       <c r="DM8" t="n">
-        <v>6.166375442262506e-06</v>
+        <v>9.122658184423926e-07</v>
       </c>
       <c r="DN8" t="n">
-        <v>2.619439874251839e-05</v>
+        <v>2.154990852432093e-06</v>
       </c>
       <c r="DO8" t="n">
-        <v>2.153945024474524e-05</v>
+        <v>9.786537020772812e-07</v>
       </c>
       <c r="DP8" t="n">
-        <v>1.824023092922289e-05</v>
+        <v>8.859053650667192e-07</v>
       </c>
       <c r="DQ8" t="n">
-        <v>1.031114970828639e-05</v>
+        <v>2.003774625336519e-06</v>
       </c>
       <c r="DR8" t="n">
-        <v>6.023457535775378e-05</v>
+        <v>9.366962103740661e-07</v>
       </c>
       <c r="DS8" t="n">
-        <v>2.244527422590181e-05</v>
+        <v>2.006706608881359e-06</v>
       </c>
       <c r="DT8" t="n">
-        <v>1.768674519553315e-05</v>
+        <v>3.895906672823912e-07</v>
       </c>
       <c r="DU8" t="n">
-        <v>2.257489541079849e-05</v>
+        <v>4.889270144303737e-08</v>
       </c>
       <c r="DV8" t="n">
-        <v>1.86050747288391e-05</v>
+        <v>1.578283445269335e-06</v>
       </c>
       <c r="DW8" t="n">
-        <v>3.911797648470383e-06</v>
+        <v>8.730685294722207e-07</v>
       </c>
       <c r="DX8" t="n">
-        <v>4.236224776832387e-05</v>
+        <v>1.385772634421301e-07</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.214593430631794e-05</v>
+        <v>2.311410753463861e-06</v>
       </c>
       <c r="DZ8" t="n">
-        <v>3.48370085703209e-05</v>
+        <v>1.525746483821422e-06</v>
       </c>
       <c r="EA8" t="n">
-        <v>4.204099241178483e-06</v>
+        <v>1.326019400949008e-06</v>
       </c>
       <c r="EB8" t="n">
-        <v>6.388434121618047e-05</v>
+        <v>8.91524791768461e-08</v>
       </c>
       <c r="EC8" t="n">
-        <v>2.293320449098246e-06</v>
+        <v>5.919503109907964e-09</v>
       </c>
       <c r="ED8" t="n">
-        <v>1.823106322262902e-05</v>
+        <v>6.106517957960023e-08</v>
       </c>
       <c r="EE8" t="n">
-        <v>2.014547681028489e-05</v>
+        <v>1.019508204080921e-06</v>
       </c>
       <c r="EF8" t="n">
-        <v>4.002311106887646e-05</v>
+        <v>1.584595565873315e-08</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.296070852025878e-05</v>
+        <v>1.079573735296435e-06</v>
       </c>
       <c r="EH8" t="n">
-        <v>1.425964728696272e-05</v>
+        <v>1.360787678095221e-07</v>
       </c>
       <c r="EI8" t="n">
-        <v>5.594325193669647e-05</v>
+        <v>3.039093314782804e-07</v>
       </c>
       <c r="EJ8" t="n">
-        <v>4.954989344696514e-05</v>
+        <v>9.271036560676293e-07</v>
       </c>
       <c r="EK8" t="n">
-        <v>2.527375181671232e-05</v>
+        <v>1.362075295219256e-06</v>
       </c>
       <c r="EL8" t="n">
-        <v>1.1769275261031e-05</v>
+        <v>1.398271479047253e-06</v>
       </c>
       <c r="EM8" t="n">
-        <v>2.691867666726466e-05</v>
+        <v>1.52702045852493e-06</v>
       </c>
       <c r="EN8" t="n">
-        <v>7.944098001644306e-07</v>
+        <v>4.122284735785797e-08</v>
       </c>
       <c r="EO8" t="n">
-        <v>6.129092071205378e-05</v>
+        <v>6.77462708154053e-07</v>
       </c>
       <c r="EP8" t="n">
-        <v>1.067824086931068e-05</v>
+        <v>2.515593905627611e-06</v>
       </c>
       <c r="EQ8" t="n">
-        <v>7.861370249884203e-06</v>
+        <v>1.154638411549058e-07</v>
       </c>
       <c r="ER8" t="n">
-        <v>2.574133759480901e-05</v>
+        <v>2.430622998872423e-06</v>
       </c>
       <c r="ES8" t="n">
-        <v>2.425648563075811e-05</v>
+        <v>1.365019215882057e-06</v>
       </c>
       <c r="ET8" t="n">
-        <v>2.362529630772769e-05</v>
+        <v>6.066896730771987e-06</v>
       </c>
       <c r="EU8" t="n">
-        <v>1.088206681743031e-05</v>
+        <v>2.155358970412635e-06</v>
       </c>
       <c r="EV8" t="n">
-        <v>1.400804285367485e-05</v>
+        <v>7.323126283154124e-08</v>
       </c>
       <c r="EW8" t="n">
-        <v>1.743901520967484e-05</v>
+        <v>9.055270311364438e-09</v>
       </c>
       <c r="EX8" t="n">
-        <v>4.42363198089879e-05</v>
+        <v>8.613190516371105e-07</v>
       </c>
       <c r="EY8" t="n">
-        <v>1.265621631318936e-05</v>
+        <v>2.335333647351945e-06</v>
       </c>
       <c r="EZ8" t="n">
-        <v>1.187254929391202e-05</v>
+        <v>3.717750303167122e-07</v>
       </c>
       <c r="FA8" t="n">
-        <v>3.051685052923858e-05</v>
+        <v>1.633885972296412e-06</v>
       </c>
       <c r="FB8" t="n">
-        <v>2.487493838998489e-05</v>
+        <v>6.682546995762095e-07</v>
       </c>
       <c r="FC8" t="n">
-        <v>2.142487392120529e-05</v>
+        <v>2.214310825365828e-06</v>
       </c>
       <c r="FD8" t="n">
-        <v>2.859922005882254e-06</v>
+        <v>1.215071961269132e-06</v>
       </c>
       <c r="FE8" t="n">
-        <v>6.378290891007055e-06</v>
+        <v>2.689332632144215e-07</v>
       </c>
       <c r="FF8" t="n">
-        <v>7.2315965553571e-06</v>
+        <v>6.463658337452216e-07</v>
       </c>
       <c r="FG8" t="n">
-        <v>2.246003168693278e-05</v>
+        <v>5.095169512969733e-07</v>
       </c>
       <c r="FH8" t="n">
-        <v>1.170954146800796e-05</v>
+        <v>8.954893928603269e-07</v>
       </c>
       <c r="FI8" t="n">
-        <v>2.033290002145804e-05</v>
+        <v>2.573620179191494e-07</v>
       </c>
       <c r="FJ8" t="n">
-        <v>9.280385711463168e-06</v>
+        <v>1.487513372921967e-06</v>
       </c>
       <c r="FK8" t="n">
-        <v>3.162161374348216e-05</v>
+        <v>5.592528395936824e-08</v>
       </c>
       <c r="FL8" t="n">
-        <v>6.02481777605135e-05</v>
+        <v>4.044619288379181e-07</v>
       </c>
       <c r="FM8" t="n">
-        <v>1.070184953277931e-05</v>
+        <v>6.880781029394711e-07</v>
       </c>
       <c r="FN8" t="n">
-        <v>7.586602350784233e-06</v>
+        <v>1.439326808849728e-07</v>
       </c>
       <c r="FO8" t="n">
-        <v>4.783672920893878e-06</v>
+        <v>1.81684413291805e-06</v>
       </c>
       <c r="FP8" t="n">
-        <v>8.136655196722131e-06</v>
+        <v>5.693107851811874e-08</v>
       </c>
       <c r="FQ8" t="n">
-        <v>3.053900945815258e-05</v>
+        <v>9.85051883617416e-07</v>
       </c>
       <c r="FR8" t="n">
-        <v>4.590215758071281e-05</v>
+        <v>3.096506304700597e-07</v>
       </c>
       <c r="FS8" t="n">
-        <v>3.889882646035403e-05</v>
+        <v>1.208923890771985e-06</v>
       </c>
       <c r="FT8" t="n">
-        <v>1.273312409466598e-05</v>
+        <v>4.839017492486164e-06</v>
       </c>
       <c r="FU8" t="n">
-        <v>1.374116527586011e-05</v>
+        <v>2.340508672205033e-06</v>
       </c>
       <c r="FV8" t="n">
-        <v>7.872795890762063e-07</v>
+        <v>7.435448878823081e-08</v>
       </c>
       <c r="FW8" t="n">
-        <v>3.027450929948827e-06</v>
+        <v>2.567119850027666e-07</v>
       </c>
       <c r="FX8" t="n">
-        <v>4.065679968334734e-05</v>
+        <v>2.014796109506278e-06</v>
       </c>
       <c r="FY8" t="n">
-        <v>4.320138759794645e-05</v>
+        <v>1.341046981906402e-06</v>
       </c>
       <c r="FZ8" t="n">
-        <v>3.006616680067964e-06</v>
+        <v>8.304008360937587e-07</v>
       </c>
       <c r="GA8" t="n">
-        <v>1.507118031440768e-05</v>
+        <v>8.137548093145597e-07</v>
       </c>
       <c r="GB8" t="n">
-        <v>1.859806434367783e-05</v>
+        <v>6.46874127596675e-07</v>
       </c>
       <c r="GC8" t="n">
-        <v>2.489437065378297e-05</v>
+        <v>2.551019861130044e-06</v>
       </c>
       <c r="GD8" t="n">
-        <v>4.63796422991436e-05</v>
+        <v>8.034666052481043e-07</v>
       </c>
       <c r="GE8" t="n">
-        <v>1.103340764530003e-05</v>
+        <v>2.81856773653999e-06</v>
       </c>
       <c r="GF8" t="n">
-        <v>7.707749318797141e-06</v>
+        <v>1.599808001628844e-06</v>
       </c>
       <c r="GG8" t="n">
-        <v>3.951407052227296e-05</v>
+        <v>3.439191971210676e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.250489044148708e-06</v>
+        <v>0.001592662651091814</v>
       </c>
       <c r="B9" t="n">
-        <v>1.959302790055517e-05</v>
+        <v>0.01011379528790712</v>
       </c>
       <c r="C9" t="n">
-        <v>1.106401555261982e-06</v>
+        <v>0.0004177416558377445</v>
       </c>
       <c r="D9" t="n">
-        <v>2.684486753423698e-05</v>
+        <v>0.006088342517614365</v>
       </c>
       <c r="E9" t="n">
-        <v>1.066151071427157e-06</v>
+        <v>0.002918633632361889</v>
       </c>
       <c r="F9" t="n">
-        <v>1.343769667982997e-06</v>
+        <v>0.009913831017911434</v>
       </c>
       <c r="G9" t="n">
-        <v>4.677559900301276e-06</v>
+        <v>0.003369776997715235</v>
       </c>
       <c r="H9" t="n">
-        <v>3.089658093813341e-06</v>
+        <v>0.001021481235511601</v>
       </c>
       <c r="I9" t="n">
-        <v>2.017092270989451e-07</v>
+        <v>0.00381778459995985</v>
       </c>
       <c r="J9" t="n">
-        <v>4.197976977593498e-06</v>
+        <v>0.002352096140384674</v>
       </c>
       <c r="K9" t="n">
-        <v>1.845500446506776e-05</v>
+        <v>0.006513636093586683</v>
       </c>
       <c r="L9" t="n">
-        <v>2.288490179580549e-07</v>
+        <v>0.0004948179703205824</v>
       </c>
       <c r="M9" t="n">
-        <v>2.34627332247328e-05</v>
+        <v>0.007865400984883308</v>
       </c>
       <c r="N9" t="n">
-        <v>2.748039833022631e-06</v>
+        <v>0.004616205580532551</v>
       </c>
       <c r="O9" t="n">
-        <v>7.194490535766818e-06</v>
+        <v>0.01176069770008326</v>
       </c>
       <c r="P9" t="n">
-        <v>6.756923539796844e-06</v>
+        <v>0.004098833538591862</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.609654873391264e-06</v>
+        <v>0.002638292033225298</v>
       </c>
       <c r="R9" t="n">
-        <v>3.055760089409887e-06</v>
+        <v>0.003114811144769192</v>
       </c>
       <c r="S9" t="n">
-        <v>3.542129888955969e-06</v>
+        <v>0.001247649779543281</v>
       </c>
       <c r="T9" t="n">
-        <v>1.760058125910291e-06</v>
+        <v>0.003040766809135675</v>
       </c>
       <c r="U9" t="n">
-        <v>9.239867040378158e-07</v>
+        <v>0.001405588467605412</v>
       </c>
       <c r="V9" t="n">
-        <v>2.901788320741616e-06</v>
+        <v>0.0006289903540164232</v>
       </c>
       <c r="W9" t="n">
-        <v>1.105866249417886e-05</v>
+        <v>0.001602825592271984</v>
       </c>
       <c r="X9" t="n">
-        <v>2.135593888397125e-07</v>
+        <v>0.001324011711403728</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.661399998440174e-06</v>
+        <v>0.001614129869267344</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.076614694284217e-06</v>
+        <v>0.0004199185641482472</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.68258127991794e-07</v>
+        <v>0.0007418596651405096</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.022147555180709e-06</v>
+        <v>0.0008411423186771572</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.480703629880736e-07</v>
+        <v>0.002688661450520158</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.275906576367561e-06</v>
+        <v>0.0006577553576789796</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.166991731035523e-06</v>
+        <v>0.004047395661473274</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.353382680870709e-06</v>
+        <v>0.002558313775807619</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.477647970204998e-06</v>
+        <v>0.0005953526706434786</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.684384187683463e-07</v>
+        <v>0.0006525481003336608</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.028226051857928e-06</v>
+        <v>0.0009194412268698215</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.736349978884391e-07</v>
+        <v>0.0011338657932356</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.31024022368365e-06</v>
+        <v>0.0006241766386665404</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.491261741648486e-06</v>
+        <v>0.001873976900242269</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.254112476090086e-07</v>
+        <v>0.0007437093299813569</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.758644425033708e-06</v>
+        <v>0.0004059335915371776</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.466835897190322e-08</v>
+        <v>5.946043529547751e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.634619361037039e-06</v>
+        <v>0.001104433438740671</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.691615238996746e-06</v>
+        <v>0.0009684412507340312</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.977504760172451e-07</v>
+        <v>0.001119787339121103</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.273780120911397e-07</v>
+        <v>0.001453077071346343</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.158783319027862e-06</v>
+        <v>0.00357418367639184</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.595156209077686e-05</v>
+        <v>0.009081625379621983</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.55590123035654e-06</v>
+        <v>0.0008781797369010746</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.782330951362383e-06</v>
+        <v>0.001674524741247296</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.431745305235381e-07</v>
+        <v>0.0001077765482477844</v>
       </c>
       <c r="AY9" t="n">
-        <v>4.259346496837679e-06</v>
+        <v>0.005145042203366756</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.909525953029515e-07</v>
+        <v>0.001713209319859743</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.187686393677723e-06</v>
+        <v>0.001015805057249963</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.701445512480859e-06</v>
+        <v>0.003675153944641352</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.808967681427021e-06</v>
+        <v>0.001992072910070419</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.85329485652619e-06</v>
+        <v>0.0002053475473076105</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.095121544698486e-06</v>
+        <v>0.002726710634306073</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.142046130553354e-05</v>
+        <v>0.0008661268511787057</v>
       </c>
       <c r="BG9" t="n">
-        <v>3.759511173484498e-07</v>
+        <v>0.0057003078982234</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.80848211736884e-06</v>
+        <v>0.003827406326308846</v>
       </c>
       <c r="BI9" t="n">
-        <v>6.424687398975948e-06</v>
+        <v>0.0006036855629645288</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.010206105434008e-07</v>
+        <v>0.003810293739661574</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.632761374523398e-07</v>
+        <v>0.0003552667039912194</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.657114919202286e-06</v>
+        <v>0.001004938269034028</v>
       </c>
       <c r="BM9" t="n">
-        <v>7.403794370475225e-06</v>
+        <v>0.002627544337883592</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.798974381017615e-06</v>
+        <v>0.001298198709264398</v>
       </c>
       <c r="BO9" t="n">
-        <v>6.151847173896385e-07</v>
+        <v>0.003403673181310296</v>
       </c>
       <c r="BP9" t="n">
-        <v>8.620132234682387e-07</v>
+        <v>0.002391611691564322</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.043248969130218e-06</v>
+        <v>1.603547207196243e-05</v>
       </c>
       <c r="BR9" t="n">
-        <v>4.776278501594788e-07</v>
+        <v>0.003231581766158342</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.980489287234377e-06</v>
+        <v>0.0003027933998964727</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.312745313152845e-07</v>
+        <v>0.000608204398304224</v>
       </c>
       <c r="BU9" t="n">
-        <v>5.051066636951873e-06</v>
+        <v>0.001886344747617841</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.859777739809942e-06</v>
+        <v>0.003686378942802548</v>
       </c>
       <c r="BW9" t="n">
-        <v>9.246188596989668e-07</v>
+        <v>0.001946517848409712</v>
       </c>
       <c r="BX9" t="n">
-        <v>8.293241080536973e-06</v>
+        <v>0.001436802092939615</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.673969904913974e-06</v>
+        <v>0.001930738100782037</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.704405121927266e-06</v>
+        <v>0.001715707592666149</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.094960336762597e-06</v>
+        <v>0.001129825250245631</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.566181021597004e-07</v>
+        <v>0.001266950159333646</v>
       </c>
       <c r="CC9" t="n">
-        <v>3.710281134772231e-06</v>
+        <v>0.001992181409150362</v>
       </c>
       <c r="CD9" t="n">
-        <v>4.396933945827186e-06</v>
+        <v>1.951427839230746e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.062200332555221e-06</v>
+        <v>0.002228065161034465</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.366857216884455e-07</v>
+        <v>0.001555622438900173</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.486694590217667e-06</v>
+        <v>0.001798257464542985</v>
       </c>
       <c r="CH9" t="n">
-        <v>8.492798428960668e-07</v>
+        <v>0.0006883421447128057</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.667010565142846e-06</v>
+        <v>0.001487476052716374</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.512610992904229e-06</v>
+        <v>0.001217242097482085</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.95196457500424e-07</v>
+        <v>3.241567173972726e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.299376094721083e-06</v>
+        <v>0.0006625195383094251</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.776919018288027e-06</v>
+        <v>0.003084818599745631</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.047037924057804e-06</v>
+        <v>0.0002790914732031524</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.734813276423665e-07</v>
+        <v>0.0002099899720633402</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.394737061375054e-06</v>
+        <v>0.001056903623975813</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.298454198054969e-06</v>
+        <v>0.0001372863043798134</v>
       </c>
       <c r="CR9" t="n">
-        <v>7.096756235114299e-06</v>
+        <v>0.0002140691503882408</v>
       </c>
       <c r="CS9" t="n">
-        <v>3.549572284100577e-06</v>
+        <v>0.0001746453635860234</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.346592388377758e-06</v>
+        <v>0.001904231496155262</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.636505999158544e-06</v>
+        <v>0.001409289543516934</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.251120572007494e-06</v>
+        <v>0.0002742207143455744</v>
       </c>
       <c r="CW9" t="n">
-        <v>4.89170452055987e-06</v>
+        <v>0.001572670298628509</v>
       </c>
       <c r="CX9" t="n">
-        <v>7.233258543237753e-07</v>
+        <v>0.001758093014359474</v>
       </c>
       <c r="CY9" t="n">
-        <v>5.77990113015403e-06</v>
+        <v>0.00245919544249773</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.012421876112057e-06</v>
+        <v>0.0006093255942687392</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.403126124292612e-07</v>
+        <v>0.001572074019350111</v>
       </c>
       <c r="DB9" t="n">
-        <v>4.641375426217564e-07</v>
+        <v>0.001311746425926685</v>
       </c>
       <c r="DC9" t="n">
-        <v>3.632519849361415e-07</v>
+        <v>0.001318261027336121</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.180337903861073e-06</v>
+        <v>4.951987648382783e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>6.166657840367407e-06</v>
+        <v>0.002106562256813049</v>
       </c>
       <c r="DF9" t="n">
-        <v>3.439566626184387e-06</v>
+        <v>0.00503735663369298</v>
       </c>
       <c r="DG9" t="n">
-        <v>9.100063493860944e-07</v>
+        <v>5.955435335636139e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>2.459745246596867e-06</v>
+        <v>0.001837203744798899</v>
       </c>
       <c r="DI9" t="n">
-        <v>8.617732419224922e-06</v>
+        <v>0.002146206796169281</v>
       </c>
       <c r="DJ9" t="n">
-        <v>6.047868737368844e-06</v>
+        <v>0.0002766068209894001</v>
       </c>
       <c r="DK9" t="n">
-        <v>4.408457812132838e-07</v>
+        <v>0.003939480520784855</v>
       </c>
       <c r="DL9" t="n">
-        <v>8.762885954638477e-06</v>
+        <v>0.002424465492367744</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.789560539895319e-06</v>
+        <v>0.001657393993809819</v>
       </c>
       <c r="DN9" t="n">
-        <v>5.739168955187779e-06</v>
+        <v>0.001104885945096612</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.996016969016637e-07</v>
+        <v>0.0006994992727413774</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.033801254379796e-06</v>
+        <v>0.001467730733565986</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.195558070321567e-07</v>
+        <v>0.001617536181584001</v>
       </c>
       <c r="DR9" t="n">
-        <v>5.528438578039641e-06</v>
+        <v>0.0005238542798906565</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.934370629896875e-06</v>
+        <v>0.000548018142580986</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.120600129273953e-06</v>
+        <v>0.0005844521219842136</v>
       </c>
       <c r="DU9" t="n">
-        <v>2.910864793648216e-07</v>
+        <v>4.627554153557867e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.249218818586087e-06</v>
+        <v>0.001373288570903242</v>
       </c>
       <c r="DW9" t="n">
-        <v>1.115385202865582e-06</v>
+        <v>0.0006429668283089995</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.3882766981842e-06</v>
+        <v>0.0001168753660749644</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.236604248333606e-06</v>
+        <v>0.002185748424381018</v>
       </c>
       <c r="DZ9" t="n">
-        <v>5.327493454387877e-06</v>
+        <v>0.001727028400637209</v>
       </c>
       <c r="EA9" t="n">
-        <v>2.727948185565765e-06</v>
+        <v>0.0003722956753335893</v>
       </c>
       <c r="EB9" t="n">
-        <v>4.053823886351893e-06</v>
+        <v>0.001077778986655176</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.336807028768817e-06</v>
+        <v>0.001582003897055984</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.107373037712023e-07</v>
+        <v>0.0009186567622236907</v>
       </c>
       <c r="EE9" t="n">
-        <v>4.959033503837418e-06</v>
+        <v>0.001690155710093677</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.934842763759661e-06</v>
+        <v>0.001508608576841652</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.564657961556804e-06</v>
+        <v>0.0002364357642363757</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.140622200386133e-06</v>
+        <v>0.0009622306097298861</v>
       </c>
       <c r="EI9" t="n">
-        <v>7.138608452805784e-06</v>
+        <v>0.0007299759890884161</v>
       </c>
       <c r="EJ9" t="n">
-        <v>4.14859732700279e-06</v>
+        <v>0.0005441387183964252</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.578461024109856e-07</v>
+        <v>0.001347772660665214</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.258616634913778e-06</v>
+        <v>0.00243268976919353</v>
       </c>
       <c r="EM9" t="n">
-        <v>6.080683760956163e-07</v>
+        <v>0.0001781448372639716</v>
       </c>
       <c r="EN9" t="n">
-        <v>4.70092743398709e-07</v>
+        <v>0.0006537308217957616</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.644014557517949e-06</v>
+        <v>0.001409511896781623</v>
       </c>
       <c r="EP9" t="n">
-        <v>2.91603600999224e-06</v>
+        <v>0.000212028156965971</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.781718194455607e-06</v>
+        <v>0.001910157734528184</v>
       </c>
       <c r="ER9" t="n">
-        <v>6.318185228337825e-07</v>
+        <v>0.001076034153811634</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.554582351876888e-06</v>
+        <v>0.0008405596017837524</v>
       </c>
       <c r="ET9" t="n">
-        <v>8.091129757303861e-07</v>
+        <v>0.002660523168742657</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.911245246650651e-06</v>
+        <v>0.001734175602905452</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.272328631785058e-06</v>
+        <v>0.001671346602961421</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.238370484519692e-07</v>
+        <v>0.0007661403506062925</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.738342911674408e-06</v>
+        <v>0.0002981919678859413</v>
       </c>
       <c r="EY9" t="n">
-        <v>4.866078143095365e-06</v>
+        <v>0.001397695625200868</v>
       </c>
       <c r="EZ9" t="n">
-        <v>7.389497795884381e-07</v>
+        <v>0.001329621649347246</v>
       </c>
       <c r="FA9" t="n">
-        <v>5.401384896686068e-06</v>
+        <v>0.001971888821572065</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.056456196442014e-06</v>
+        <v>0.0009797156089916825</v>
       </c>
       <c r="FC9" t="n">
-        <v>6.707051625198801e-07</v>
+        <v>0.001580680022016168</v>
       </c>
       <c r="FD9" t="n">
-        <v>6.17366083588422e-07</v>
+        <v>0.00145850470289588</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.535812993504805e-07</v>
+        <v>0.0004054356832057238</v>
       </c>
       <c r="FF9" t="n">
-        <v>8.026123055060452e-07</v>
+        <v>0.0006002458976581693</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.552663093207229e-06</v>
+        <v>0.001968645490705967</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.850137884204742e-06</v>
+        <v>0.002038375707343221</v>
       </c>
       <c r="FI9" t="n">
-        <v>4.680362337694532e-07</v>
+        <v>0.001709681702777743</v>
       </c>
       <c r="FJ9" t="n">
-        <v>5.820169917569729e-06</v>
+        <v>0.0009049532236531377</v>
       </c>
       <c r="FK9" t="n">
-        <v>4.679229732573731e-06</v>
+        <v>0.0007860650075599551</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.956717020832002e-06</v>
+        <v>0.0001285243779420853</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.589806283343933e-07</v>
+        <v>0.0003011630906257778</v>
       </c>
       <c r="FN9" t="n">
-        <v>7.600180538247514e-07</v>
+        <v>0.001059754169546068</v>
       </c>
       <c r="FO9" t="n">
-        <v>3.161878339597024e-06</v>
+        <v>0.002007126808166504</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.016054961335612e-06</v>
+        <v>0.00146747357212007</v>
       </c>
       <c r="FQ9" t="n">
-        <v>4.040236035507405e-06</v>
+        <v>0.001772701623849571</v>
       </c>
       <c r="FR9" t="n">
-        <v>7.164661838032771e-06</v>
+        <v>0.0002589049399830401</v>
       </c>
       <c r="FS9" t="n">
-        <v>5.300425982568413e-07</v>
+        <v>0.004713501781225204</v>
       </c>
       <c r="FT9" t="n">
-        <v>3.831617050309433e-06</v>
+        <v>0.003176958067342639</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.419751803652616e-06</v>
+        <v>0.00253847730346024</v>
       </c>
       <c r="FV9" t="n">
-        <v>5.412163659457292e-07</v>
+        <v>0.0004869879921898246</v>
       </c>
       <c r="FW9" t="n">
-        <v>6.228835900401464e-07</v>
+        <v>0.002940838923677802</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.878864168247674e-06</v>
+        <v>6.619584746658802e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>5.933623015152989e-06</v>
+        <v>0.001460792613215744</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.360199803457363e-06</v>
+        <v>0.002215170301496983</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.931538918142905e-06</v>
+        <v>0.001219529192894697</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.929595555338892e-06</v>
+        <v>0.002629920607432723</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.751736590449582e-06</v>
+        <v>0.0001011104905046523</v>
       </c>
       <c r="GD9" t="n">
-        <v>8.521132031091838e-07</v>
+        <v>8.20831919554621e-05</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.558925646349962e-06</v>
+        <v>0.003458881052210927</v>
       </c>
       <c r="GF9" t="n">
-        <v>2.329674316570163e-06</v>
+        <v>0.001540625235065818</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.66179017671675e-06</v>
+        <v>0.0007839911850169301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.947689546952461e-08</v>
+        <v>9.29248271859251e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>1.287984900955053e-06</v>
+        <v>0.0009602078353054821</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145853957496001e-06</v>
+        <v>0.0001190242182929069</v>
       </c>
       <c r="D10" t="n">
-        <v>4.060990704601863e-06</v>
+        <v>0.0004263363662175834</v>
       </c>
       <c r="E10" t="n">
-        <v>5.472435873343784e-07</v>
+        <v>0.0001209976326208562</v>
       </c>
       <c r="F10" t="n">
-        <v>8.063869216812236e-08</v>
+        <v>0.0002121913566952571</v>
       </c>
       <c r="G10" t="n">
-        <v>2.728157824094524e-07</v>
+        <v>4.45679179392755e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>8.8282462229472e-07</v>
+        <v>2.843296351784375e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>7.145363269955851e-07</v>
+        <v>4.424458529683761e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.124751231098344e-07</v>
+        <v>0.0001526145933894441</v>
       </c>
       <c r="K10" t="n">
-        <v>1.284092945752491e-06</v>
+        <v>0.0006861532456241548</v>
       </c>
       <c r="L10" t="n">
-        <v>9.564147376295296e-07</v>
+        <v>8.304520633828361e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>3.581703822419513e-06</v>
+        <v>0.0004016170569229871</v>
       </c>
       <c r="N10" t="n">
-        <v>3.427544470469002e-09</v>
+        <v>0.0002037122030742466</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15957845991943e-06</v>
+        <v>0.0002124122111126781</v>
       </c>
       <c r="P10" t="n">
-        <v>2.813475816765276e-07</v>
+        <v>1.832617635955103e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47812841078121e-06</v>
+        <v>8.67567359819077e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>3.856592343254306e-07</v>
+        <v>9.36440919758752e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>2.190667345303154e-07</v>
+        <v>1.345440523436991e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.964199185522375e-07</v>
+        <v>0.0001241357676917687</v>
       </c>
       <c r="U10" t="n">
-        <v>5.85211630266258e-08</v>
+        <v>3.131398625555448e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>7.968793624968384e-09</v>
+        <v>8.925217116484419e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.690166868684173e-06</v>
+        <v>2.913844582508318e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>3.566908048924233e-07</v>
+        <v>0.0001293906097998843</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.957286883680354e-07</v>
+        <v>6.577553722308949e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.090642172130174e-07</v>
+        <v>2.061162376776338e-06</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.625979564323643e-07</v>
+        <v>6.220952491275966e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.837661885583657e-07</v>
+        <v>3.746399670490064e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.184927261339453e-08</v>
+        <v>0.000162256445037201</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.649825828233588e-07</v>
+        <v>1.317101487074979e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.173319206936867e-07</v>
+        <v>1.004857131192693e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.125157827023941e-07</v>
+        <v>7.959078357089311e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.13460804540955e-07</v>
+        <v>7.11145912646316e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.731995382669993e-07</v>
+        <v>6.683660467388108e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.049286476652924e-07</v>
+        <v>3.375468077138066e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.218517553525089e-07</v>
+        <v>6.900439984747209e-06</v>
       </c>
       <c r="AK10" t="n">
-        <v>6.252938646866824e-07</v>
+        <v>5.525862070498988e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.565499161415573e-07</v>
+        <v>9.243221575161442e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.395727847215312e-07</v>
+        <v>1.428309587936383e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.788741646028939e-07</v>
+        <v>3.590852429624647e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.650328016467029e-07</v>
+        <v>6.764299178030342e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.9644422145102e-07</v>
+        <v>0.0001315701229032129</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.134812504550609e-08</v>
+        <v>2.141619006579276e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.405918012182156e-08</v>
+        <v>5.773724842583761e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.314729882386018e-08</v>
+        <v>6.257036147871986e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.265093250272912e-07</v>
+        <v>2.807096825563349e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.275070513263927e-07</v>
+        <v>0.0005754437297582626</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.450573326015729e-09</v>
+        <v>3.231139271520078e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.616070676391246e-06</v>
+        <v>2.661264261405449e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.298649661724994e-07</v>
+        <v>8.071483171079308e-05</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.01717767822629e-07</v>
+        <v>5.514610165846534e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.201701469559339e-07</v>
+        <v>3.533172275638208e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>7.739058673905674e-07</v>
+        <v>0.0001081355439964682</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.612326958726044e-07</v>
+        <v>5.403861723607406e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.885164403527597e-07</v>
+        <v>4.525364784058183e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.377969157256302e-07</v>
+        <v>0.0001508274144725874</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.578357331614825e-09</v>
+        <v>0.0001522255188319832</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.641578137423494e-06</v>
+        <v>0.000144451652886346</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.795988862658305e-08</v>
+        <v>0.0002893315686378628</v>
       </c>
       <c r="BH10" t="n">
-        <v>6.499803362203238e-07</v>
+        <v>0.0001081589289242402</v>
       </c>
       <c r="BI10" t="n">
-        <v>5.513468863682647e-07</v>
+        <v>0.0001037025067489594</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7.931085121981596e-08</v>
+        <v>0.0001149271047324874</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.05858788401747e-09</v>
+        <v>3.037954593310133e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.498801734418521e-07</v>
+        <v>6.811328057665378e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.013175782802136e-07</v>
+        <v>4.833205457543954e-05</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.759400328817719e-07</v>
+        <v>6.46859043627046e-05</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.051412823471765e-08</v>
+        <v>4.234734660713002e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>8.290626851703564e-09</v>
+        <v>7.811940304236487e-05</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3.968920907482243e-07</v>
+        <v>6.143951031845063e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.543581333862676e-07</v>
+        <v>0.0001153004996012896</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.228934701837716e-07</v>
+        <v>4.678382538259029e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.759492533892626e-07</v>
+        <v>5.912634878768586e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>6.602592748095049e-07</v>
+        <v>2.997397314175032e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.684729108499596e-07</v>
+        <v>0.0002911311748903245</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.357074665975233e-07</v>
+        <v>8.1198952102568e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.484522954342538e-06</v>
+        <v>5.011458051740192e-05</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.367574035768484e-08</v>
+        <v>1.724799585645087e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5.949269166194426e-08</v>
+        <v>0.0001156676662503742</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.692180487429141e-07</v>
+        <v>2.6647785489331e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.971796213088965e-07</v>
+        <v>1.269885797228198e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>6.619445116484712e-07</v>
+        <v>5.174995021661744e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>7.398737125186017e-07</v>
+        <v>2.370664515183307e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.607427743190783e-07</v>
+        <v>0.0001725475594867021</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.278822594485973e-07</v>
+        <v>4.992624599253759e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>8.561088407077477e-07</v>
+        <v>4.33750064985361e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.654319703447982e-07</v>
+        <v>5.779601269750856e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.666470209078398e-07</v>
+        <v>3.433287929510698e-05</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.564442855960806e-08</v>
+        <v>5.756120299338363e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.267036253693732e-07</v>
+        <v>8.432678441749886e-06</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.41028183470371e-08</v>
+        <v>1.707423507468775e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>3.582866838769405e-07</v>
+        <v>9.441334987059236e-05</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.720358907026821e-07</v>
+        <v>2.389423116255784e-06</v>
       </c>
       <c r="CO10" t="n">
-        <v>9.116513410845073e-07</v>
+        <v>2.924538421211764e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>9.974459089789889e-07</v>
+        <v>0.0001140327585744672</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.458044721402985e-06</v>
+        <v>0.0001272347290068865</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.360750275125611e-06</v>
+        <v>0.0001427859533578157</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.139848843147774e-07</v>
+        <v>5.015061469748616e-05</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.049323401502988e-07</v>
+        <v>4.732814340968616e-05</v>
       </c>
       <c r="CU10" t="n">
-        <v>4.539489850685641e-08</v>
+        <v>2.986874096677639e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.860315349716984e-07</v>
+        <v>2.075573138426989e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>4.851386279369763e-07</v>
+        <v>0.0001575856149429455</v>
       </c>
       <c r="CX10" t="n">
-        <v>7.283288994130999e-08</v>
+        <v>6.020695946062915e-05</v>
       </c>
       <c r="CY10" t="n">
-        <v>7.963456027937355e-07</v>
+        <v>6.71848320052959e-05</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.546326444668011e-07</v>
+        <v>5.49971082364209e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.807945864129579e-07</v>
+        <v>4.860815170104615e-05</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.783108771746811e-08</v>
+        <v>6.131405825726688e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.380360181713058e-08</v>
+        <v>1.82713774847798e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>3.58965124291899e-08</v>
+        <v>1.454955054214224e-06</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.07905805180053e-06</v>
+        <v>9.721504466142505e-05</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.310506346248076e-07</v>
+        <v>0.0002239989553345367</v>
       </c>
       <c r="DG10" t="n">
-        <v>7.92160676610365e-07</v>
+        <v>4.78887050121557e-05</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.957818310278526e-07</v>
+        <v>0.0002436225477140397</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.352883812927757e-07</v>
+        <v>2.269034848723095e-05</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.181008594310697e-07</v>
+        <v>9.316961950389668e-06</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.734255133418628e-07</v>
+        <v>2.523056537029333e-05</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.89086811892048e-07</v>
+        <v>6.175834278110415e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.21662040442061e-08</v>
+        <v>3.016453410964459e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>6.013081019773381e-07</v>
+        <v>7.193331111920998e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.350655314842243e-08</v>
+        <v>7.791955431457609e-05</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.762987409392736e-07</v>
+        <v>3.088244920945726e-05</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.060036822764232e-07</v>
+        <v>4.365265704109333e-05</v>
       </c>
       <c r="DR10" t="n">
-        <v>7.535933264080086e-07</v>
+        <v>0.00012402911670506</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.871624360523128e-07</v>
+        <v>4.741940938401967e-05</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.714684453370865e-07</v>
+        <v>2.13382863876177e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.298233852116027e-07</v>
+        <v>1.415470615029335e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>3.107793418166693e-07</v>
+        <v>1.256005634786561e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.371662960991671e-07</v>
+        <v>4.032808647025377e-06</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.575433259404235e-07</v>
+        <v>3.135056249448098e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.682262163489213e-07</v>
+        <v>9.447232878301293e-05</v>
       </c>
       <c r="DZ10" t="n">
-        <v>5.470582209454733e-07</v>
+        <v>2.101681275235023e-06</v>
       </c>
       <c r="EA10" t="n">
-        <v>3.295781141332554e-07</v>
+        <v>0.0001246175088454038</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.520790639617189e-07</v>
+        <v>5.341026553651318e-05</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.310830910483674e-08</v>
+        <v>1.943493043654598e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.060322603052555e-07</v>
+        <v>6.502070391434245e-06</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.253519989561028e-07</v>
+        <v>2.145686630683485e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>2.999751700372144e-07</v>
+        <v>2.038750244537368e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.725289789395902e-07</v>
+        <v>9.763566049514338e-05</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.511322835767714e-07</v>
+        <v>4.181356052868068e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.259046257473528e-06</v>
+        <v>1.944341238413472e-05</v>
       </c>
       <c r="EJ10" t="n">
-        <v>5.307040851221245e-07</v>
+        <v>5.929839244345203e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>3.972633919602231e-07</v>
+        <v>2.00560680241324e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.923698782022257e-09</v>
+        <v>7.993593317223713e-05</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.232433863966435e-07</v>
+        <v>2.258497625007294e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>2.287993616789663e-08</v>
+        <v>8.452588190266397e-06</v>
       </c>
       <c r="EO10" t="n">
-        <v>7.109134116944915e-07</v>
+        <v>4.435816299519502e-05</v>
       </c>
       <c r="EP10" t="n">
-        <v>5.26965152403136e-07</v>
+        <v>0.0001554683258291334</v>
       </c>
       <c r="EQ10" t="n">
-        <v>7.748653843009379e-07</v>
+        <v>2.862950714188628e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.223526453486556e-07</v>
+        <v>6.575325096491724e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.103088144802314e-07</v>
+        <v>9.720538946567103e-05</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.958429152182362e-08</v>
+        <v>0.0001440073101548478</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.96597483181904e-07</v>
+        <v>9.010813664644957e-05</v>
       </c>
       <c r="EV10" t="n">
-        <v>4.683062115873327e-08</v>
+        <v>4.496745532378554e-05</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.199274493046687e-07</v>
+        <v>3.121978807030246e-06</v>
       </c>
       <c r="EX10" t="n">
-        <v>5.856084612787527e-07</v>
+        <v>4.050009465572657e-06</v>
       </c>
       <c r="EY10" t="n">
-        <v>4.005642040283419e-07</v>
+        <v>0.0001595761714270338</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.855677282946999e-07</v>
+        <v>2.285703158122487e-05</v>
       </c>
       <c r="FA10" t="n">
-        <v>7.158134849305497e-07</v>
+        <v>6.382596620824188e-05</v>
       </c>
       <c r="FB10" t="n">
-        <v>2.825682372531446e-07</v>
+        <v>5.007538129575551e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.638733178628172e-07</v>
+        <v>4.666752647608519e-05</v>
       </c>
       <c r="FD10" t="n">
-        <v>2.200555826448181e-08</v>
+        <v>6.785131699871272e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.353832885797601e-07</v>
+        <v>2.738295734161511e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.594466591039236e-08</v>
+        <v>2.762617805274203e-05</v>
       </c>
       <c r="FG10" t="n">
-        <v>3.878054997130675e-07</v>
+        <v>2.686364496184979e-06</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.81776073304718e-07</v>
+        <v>2.683207821974065e-05</v>
       </c>
       <c r="FI10" t="n">
-        <v>2.937004524028453e-07</v>
+        <v>2.637812758621294e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>7.398350021503575e-07</v>
+        <v>7.634596840944141e-05</v>
       </c>
       <c r="FK10" t="n">
-        <v>4.003878188996168e-07</v>
+        <v>5.168620918993838e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>6.102568477217574e-07</v>
+        <v>3.959352761739865e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.218326583009912e-07</v>
+        <v>3.549728717189282e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.449822377708188e-07</v>
+        <v>2.431657958368305e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.655808858913588e-07</v>
+        <v>5.188507930142805e-05</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.601110793420958e-07</v>
+        <v>5.720744957216084e-05</v>
       </c>
       <c r="FQ10" t="n">
-        <v>8.021938668889561e-09</v>
+        <v>2.577585291874129e-05</v>
       </c>
       <c r="FR10" t="n">
-        <v>7.596284490318794e-07</v>
+        <v>1.299885389016708e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>7.191033546405379e-08</v>
+        <v>4.739162250189111e-05</v>
       </c>
       <c r="FT10" t="n">
-        <v>5.101328497403301e-07</v>
+        <v>0.0001480362116126344</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.341747737475089e-07</v>
+        <v>1.770748713170178e-05</v>
       </c>
       <c r="FV10" t="n">
-        <v>3.23409693692156e-07</v>
+        <v>3.98587180825416e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>4.220333380544616e-07</v>
+        <v>8.14977684058249e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.139052798748708e-07</v>
+        <v>6.742544064763933e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>9.221020604854857e-07</v>
+        <v>6.614868470933288e-05</v>
       </c>
       <c r="FZ10" t="n">
-        <v>4.684333418936149e-07</v>
+        <v>7.431953417835757e-05</v>
       </c>
       <c r="GA10" t="n">
-        <v>4.110954421321367e-08</v>
+        <v>2.560486245783977e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>3.172058313793968e-07</v>
+        <v>2.136160765076056e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>6.083913461907287e-08</v>
+        <v>9.000859427032992e-05</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.294257678338909e-07</v>
+        <v>8.166959742084146e-05</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.266580736431933e-07</v>
+        <v>0.0001980181114049628</v>
       </c>
       <c r="GF10" t="n">
-        <v>6.795781359869579e-08</v>
+        <v>3.188385380781256e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.089987478053445e-07</v>
+        <v>1.91324797924608e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.000751641346141696</v>
+        <v>0.002400087891146541</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0008883102564141154</v>
+        <v>0.02086326293647289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001506462867837399</v>
+        <v>0.003328201593831182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002554000122472644</v>
+        <v>0.00805305689573288</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001951752346940339</v>
+        <v>0.004949083551764488</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005460179527290165</v>
+        <v>0.004818160552531481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0007073445012792945</v>
+        <v>3.637396730482578e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004750732041429728</v>
+        <v>0.0002533479128032923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002290291478857398</v>
+        <v>0.00161838042549789</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009488154319114983</v>
+        <v>0.001080947462469339</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001150437165051699</v>
+        <v>0.0171161126345396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003268483851570636</v>
+        <v>0.001091355225071311</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001694888109341264</v>
+        <v>0.0108789075165987</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001518474775366485</v>
+        <v>0.006624635774642229</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001224526349687949</v>
+        <v>0.00471777468919754</v>
       </c>
       <c r="P11" t="n">
-        <v>7.09288360667415e-05</v>
+        <v>0.0001456625759601593</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0003734387864824384</v>
+        <v>0.002048826310783625</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002664412837475538</v>
+        <v>0.00305851292796433</v>
       </c>
       <c r="S11" t="n">
-        <v>9.57798765739426e-05</v>
+        <v>0.0004681008867919445</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0001715836260700598</v>
+        <v>0.004277513828128576</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0002619834267534316</v>
+        <v>0.001243097009137273</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001968315191334113</v>
+        <v>0.001160738174803555</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002190166153013706</v>
+        <v>0.0008821027586236596</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0003326442674733698</v>
+        <v>0.003646929515525699</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0002025643916567788</v>
+        <v>0.00188277754932642</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0009581961203366518</v>
+        <v>0.0006042517488822341</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0002731009153649211</v>
+        <v>0.001292339293286204</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.000610812334343791</v>
+        <v>0.00256053963676095</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0005065642762929201</v>
+        <v>0.003160098800435662</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0005471938056871295</v>
+        <v>0.0003527516091708094</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0005298309260979295</v>
+        <v>0.0007945683901198208</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0009423797600902617</v>
+        <v>0.0002247653901576996</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0001770627859514207</v>
+        <v>0.00139406556263566</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0003069654339924455</v>
+        <v>0.0008847899734973907</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.000291716685751453</v>
+        <v>0.0006442695157602429</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0003633331798482686</v>
+        <v>0.0003706058487296104</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0008834166219457984</v>
+        <v>3.147026291117072e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0003398397238925099</v>
+        <v>0.003131942357867956</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.059101284947246e-05</v>
+        <v>0.0003122077032458037</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0003766173031181097</v>
+        <v>0.0007233849610202014</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0002261907065985724</v>
+        <v>0.001383369090035558</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0006744212587364018</v>
+        <v>0.002053335541859269</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9.682124073151499e-05</v>
+        <v>0.0005245800130069256</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0004585374554153532</v>
+        <v>0.001496597891673446</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0001095723782782443</v>
+        <v>0.0007248935871757567</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.276501178741455e-05</v>
+        <v>0.004686649423092604</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0005014435737393796</v>
+        <v>0.0132233863696456</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.337112376466393e-06</v>
+        <v>0.0007649466278962791</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.001286902697756886</v>
+        <v>0.001792573602870107</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0001379458699375391</v>
+        <v>0.0001979765074793249</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0008138144621625543</v>
+        <v>0.0001865756639745086</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0002766886027529836</v>
+        <v>0.0004810412065126002</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0001779482990968972</v>
+        <v>0.0003668092540465295</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0004569126467686146</v>
+        <v>0.0002611672971397638</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0002490291662979871</v>
+        <v>0.0004391228721942753</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0004014521255157888</v>
+        <v>0.003527452237904072</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0005577764241024852</v>
+        <v>0.003490682225674391</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0007584861014038324</v>
+        <v>0.002280109561979771</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0002231998223578557</v>
+        <v>0.008003660477697849</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0004432429559528828</v>
+        <v>0.002492582891136408</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0002905039582401514</v>
+        <v>0.002432436216622591</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0007102400995790958</v>
+        <v>0.001004689838737249</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.001281698816455901</v>
+        <v>0.002361099002882838</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0003993836580775678</v>
+        <v>0.00163504877127707</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0006294031627476215</v>
+        <v>1.690443605184555e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0004008691757917404</v>
+        <v>0.00116668245755136</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0005683337803930044</v>
+        <v>0.0001076827466022223</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0003209433052688837</v>
+        <v>0.0003238051722291857</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.000587972579523921</v>
+        <v>0.002244824543595314</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0004579135274980217</v>
+        <v>0.0005279426695778966</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0006728539010509849</v>
+        <v>0.0004794353735633194</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0001157344522653148</v>
+        <v>0.0008119421545416117</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0007763936882838607</v>
+        <v>0.002991957357153296</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0002697411691769958</v>
+        <v>0.008101101033389568</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0004944403772242367</v>
+        <v>0.002278680913150311</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.000952868431340903</v>
+        <v>0.002854656893759966</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0001562076358823106</v>
+        <v>0.002580805215984583</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0005347292753867805</v>
+        <v>0.001575439353473485</v>
       </c>
       <c r="CA11" t="n">
-        <v>8.54425597935915e-05</v>
+        <v>0.0005031974287703633</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0001741202140692621</v>
+        <v>0.0007414545980282128</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0009790553012862802</v>
+        <v>0.0007330332882702351</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0008600152796134353</v>
+        <v>0.0001272474473807961</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0002001497778110206</v>
+        <v>0.003448279108852148</v>
       </c>
       <c r="CF11" t="n">
-        <v>9.713332838146016e-05</v>
+        <v>0.0008288873941637576</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.000504789873957634</v>
+        <v>0.001126742106862366</v>
       </c>
       <c r="CH11" t="n">
-        <v>6.251532613532618e-05</v>
+        <v>0.0008398295613005757</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0004232624487485737</v>
+        <v>0.0009398341062478721</v>
       </c>
       <c r="CJ11" t="n">
-        <v>8.684716704010498e-06</v>
+        <v>0.0008049925090745091</v>
       </c>
       <c r="CK11" t="n">
-        <v>7.004328654147685e-05</v>
+        <v>0.0002681688347365707</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0003343569987919182</v>
+        <v>0.000339919060934335</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0001905109238578007</v>
+        <v>0.002686587395146489</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.490177237428725e-05</v>
+        <v>0.001731200143694878</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0005679986206814647</v>
+        <v>0.0003295050119049847</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0004033587756566703</v>
+        <v>0.0003806061577051878</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0001196270095533691</v>
+        <v>0.002719829557463527</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.001665325136855245</v>
+        <v>0.001640174654312432</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0002695411094464362</v>
+        <v>0.0007140969391912222</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0002554002276156098</v>
+        <v>0.001977280247956514</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0005342905060388148</v>
+        <v>0.0002963742590509355</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0007887550164014101</v>
+        <v>0.0001539624645374715</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0003393402730580419</v>
+        <v>0.003037355840206146</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.149560118094087e-05</v>
+        <v>0.001077291439287364</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0005557726835832</v>
+        <v>0.001266861450858414</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0001755924167810008</v>
+        <v>0.0004720918950624764</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0003268077271059155</v>
+        <v>0.001609801314771175</v>
       </c>
       <c r="DB11" t="n">
-        <v>5.534177034860477e-06</v>
+        <v>0.0008137103286571801</v>
       </c>
       <c r="DC11" t="n">
-        <v>6.239505455596372e-05</v>
+        <v>8.924410212785006e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0003026887134183198</v>
+        <v>0.000212775485124439</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.001146524911746383</v>
+        <v>0.0006846435717307031</v>
       </c>
       <c r="DF11" t="n">
-        <v>8.331428398378193e-05</v>
+        <v>0.005808839574456215</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001186181558296084</v>
+        <v>0.001550544751808047</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.000915012089535594</v>
+        <v>0.004400128033012152</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.000471312232548371</v>
+        <v>5.282042548060417e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0004248176119290292</v>
+        <v>0.002774310298264027</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0007667469908483326</v>
+        <v>0.0002258592285215855</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0004309164942242205</v>
+        <v>0.0009777197847142816</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.024809120688587e-05</v>
+        <v>0.0003026396443601698</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0004740629519801587</v>
+        <v>0.000779853668063879</v>
       </c>
       <c r="DO11" t="n">
-        <v>6.052656681276858e-05</v>
+        <v>0.00106484058778733</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0001909569255076349</v>
+        <v>0.001463065738789737</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0007644419674761593</v>
+        <v>0.0003838532138615847</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0004560434026643634</v>
+        <v>0.003749038092792034</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0007499081548303366</v>
+        <v>0.001087315031327307</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0002245957002742216</v>
+        <v>0.001453126780688763</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0006625730311498046</v>
+        <v>0.0008839767542667687</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0001987674331758171</v>
+        <v>0.0006881963345222175</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.881069329101592e-05</v>
+        <v>0.0001931295410031453</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0003928053192794323</v>
+        <v>0.002506338059902191</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0001363666960969567</v>
+        <v>0.0019553960300982</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0006757988594472408</v>
+        <v>0.002371170790866017</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0001963131508091465</v>
+        <v>0.001910612802021205</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.00147739180829376</v>
+        <v>0.001904550706967711</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0001567733124829829</v>
+        <v>0.0001832349662436172</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0004473644366953522</v>
+        <v>0.0007974555483087897</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0004968332941643894</v>
+        <v>0.00166037306189537</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0006961895269341767</v>
+        <v>0.0003728047013282776</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0002247350639663637</v>
+        <v>0.001776456483639777</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0001257733092643321</v>
+        <v>0.0009981677867472172</v>
       </c>
       <c r="EI11" t="n">
-        <v>2.696136652957648e-05</v>
+        <v>0.001037450158037245</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0007931900327093899</v>
+        <v>0.001143541885539889</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0006810968043282628</v>
+        <v>0.002336017321795225</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0002426556311547756</v>
+        <v>0.0007045168895274401</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0003651092702057213</v>
+        <v>0.000282625580439344</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.000366216991096735</v>
+        <v>0.0002292058488819748</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0007340999436564744</v>
+        <v>0.0007903536316007376</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.00031334935920313</v>
+        <v>0.001753928023390472</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0007022704230621457</v>
+        <v>0.001880203955806792</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003893344255629927</v>
+        <v>0.0004808463272638619</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0008228588267229497</v>
+        <v>0.001139806816354394</v>
       </c>
       <c r="ET11" t="n">
-        <v>7.092971645761281e-05</v>
+        <v>0.002904222579672933</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0003005521721206605</v>
+        <v>0.001025121076963842</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0001269431377295405</v>
+        <v>0.001073656138032675</v>
       </c>
       <c r="EW11" t="n">
-        <v>9.477025014348328e-05</v>
+        <v>0.0006036213599145412</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0006190586718730628</v>
+        <v>0.0005636093555949628</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0003735200443770736</v>
+        <v>0.00330331502482295</v>
       </c>
       <c r="EZ11" t="n">
-        <v>8.611417433712631e-05</v>
+        <v>0.000257569452514872</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0003925829951185733</v>
+        <v>0.001677283900789917</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0003153473080601543</v>
+        <v>0.0007105080294422805</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0004781110619660467</v>
+        <v>0.001717699225991964</v>
       </c>
       <c r="FD11" t="n">
-        <v>2.712494824663736e-05</v>
+        <v>0.0009471625089645386</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0002734771696850657</v>
+        <v>0.0003401973517611623</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0003090477257501334</v>
+        <v>0.0002764560340438038</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0004603767010848969</v>
+        <v>2.688711174414493e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0005308282561600208</v>
+        <v>0.001518102013505995</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.000374693248886615</v>
+        <v>0.0004308539791963995</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0003329453757032752</v>
+        <v>0.0006654099561274052</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0001300981384702027</v>
+        <v>0.001382157555781305</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001108306692913175</v>
+        <v>0.001602979144081473</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0002128139603883028</v>
+        <v>0.0008968214970082045</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0001498412166256458</v>
+        <v>0.0003739538660738617</v>
       </c>
       <c r="FO11" t="n">
-        <v>7.787352660670877e-05</v>
+        <v>0.0008960232953540981</v>
       </c>
       <c r="FP11" t="n">
-        <v>7.481162901967764e-05</v>
+        <v>0.00367737072519958</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.001095046987757087</v>
+        <v>0.006428077816963196</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0004837749293074012</v>
+        <v>0.001330853789113462</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0009146228549070656</v>
+        <v>0.007716701366007328</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0006702697137370706</v>
+        <v>0.002129078842699528</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0007439198670908809</v>
+        <v>0.001033266540616751</v>
       </c>
       <c r="FV11" t="n">
-        <v>6.097518053138629e-05</v>
+        <v>0.0007747760391794145</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.967493517440744e-05</v>
+        <v>0.0006563775241374969</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0008271542028523982</v>
+        <v>0.0006054958794265985</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001094863167963922</v>
+        <v>0.002772375475615263</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0002579695428721607</v>
+        <v>0.001699402695521712</v>
       </c>
       <c r="GA11" t="n">
-        <v>9.162785136140883e-05</v>
+        <v>0.000772693776525557</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.000266287534032017</v>
+        <v>0.0005276495357975364</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002322723885299638</v>
+        <v>0.002483700634911656</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0001464896195102483</v>
+        <v>0.0009473227546550333</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0003459063882473856</v>
+        <v>0.003206765744835138</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0002526169701013714</v>
+        <v>0.0001912977313622832</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0002882723929360509</v>
+        <v>0.0001070374855771661</v>
       </c>
     </row>
     <row r="12">
@@ -7263,1140 +7263,1140 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.005714274477213621</v>
+        <v>6.365035369526595e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0001002603676170111</v>
+        <v>0.0009989474201574922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004713661968708038</v>
+        <v>0.0001663705479586497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001897801412269473</v>
+        <v>0.0003745494759641588</v>
       </c>
       <c r="E13" t="n">
-        <v>3.617079346440732e-05</v>
+        <v>0.0008780342759564519</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00032554887002334</v>
+        <v>0.0004969699075445533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001102163922041655</v>
+        <v>0.0002746826212387532</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001220525940880179</v>
+        <v>0.0005006091669201851</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001111506717279553</v>
+        <v>1.194061951537151e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00545806810259819</v>
+        <v>0.0001359459420200437</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002051058690994978</v>
+        <v>0.0008383724489249289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004693684168159962</v>
+        <v>0.0001241407881025225</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00137633690610528</v>
+        <v>0.0001926469558384269</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002403930993750691</v>
+        <v>0.0008713589631952345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0004729060165118426</v>
+        <v>0.0006061723688617349</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001533116213977337</v>
+        <v>0.000155965011799708</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001075517502613366</v>
+        <v>0.000119914322567638</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001710960292257369</v>
+        <v>4.649719994631596e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004338622675277293</v>
+        <v>6.355857476592064e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001636443776078522</v>
+        <v>0.0002645831555128098</v>
       </c>
       <c r="U13" t="n">
-        <v>2.015386417042464e-05</v>
+        <v>3.722603651112877e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0002164986508432776</v>
+        <v>6.503421172965318e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0008689319947734475</v>
+        <v>8.463764243060723e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0001134316407842562</v>
+        <v>0.0001543906109873205</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0002402325626462698</v>
+        <v>4.218872345518321e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001287541585043073</v>
+        <v>6.372221105266362e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0002107433101627976</v>
+        <v>9.968992526410148e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0003627220576163381</v>
+        <v>1.005231752060354e-06</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001523012178950012</v>
+        <v>0.0001010931664495729</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0003981708723586053</v>
+        <v>0.0001730940275592729</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0004673903458751738</v>
+        <v>3.377295070094988e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.539004632737488e-05</v>
+        <v>8.46692782943137e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0009396219393238425</v>
+        <v>0.0001510801957920194</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0004863844660576433</v>
+        <v>0.0002820106165017933</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001266628387384117</v>
+        <v>0.0001937994966283441</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0006050345255061984</v>
+        <v>1.167828304460272e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.001038342714309692</v>
+        <v>4.31941298302263e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001575421076267958</v>
+        <v>0.0003432522353250533</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0003854144015349448</v>
+        <v>6.024324466125108e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001170645235106349</v>
+        <v>2.633731492096558e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0004234001680742949</v>
+        <v>5.660275928676128e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0009472744422964752</v>
+        <v>0.0001525242114439607</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0002089844783768058</v>
+        <v>3.253237446187995e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.453046752430964e-05</v>
+        <v>0.0001204665750265121</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0001727360067889094</v>
+        <v>8.56895640026778e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.002303220331668854</v>
+        <v>0.0001710369397187606</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001400645589455962</v>
+        <v>0.0007075258181430399</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002368169836699963</v>
+        <v>0.0001005754238576628</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0007088232086971402</v>
+        <v>3.067862780881114e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0004693966475315392</v>
+        <v>0.000140452990308404</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0006600889610126615</v>
+        <v>0.0003402791917324066</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.875667996704578e-05</v>
+        <v>6.974190182518214e-05</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001171189593151212</v>
+        <v>0.0002781597431749105</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0006640231586061418</v>
+        <v>0.0001339044392807409</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.001405253889970481</v>
+        <v>4.776354035129771e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0003763639251701534</v>
+        <v>0.0001386060903314501</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001657005515880883</v>
+        <v>3.097090302617289e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000234620223636739</v>
+        <v>0.0002018740633502603</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.003838355652988e-05</v>
+        <v>0.0006341560510918498</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0003438417334109545</v>
+        <v>7.898652256699279e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0007960761431604624</v>
+        <v>0.0002540858404245228</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001216685632243752</v>
+        <v>4.34178946306929e-05</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0008322224603034556</v>
+        <v>4.627351154340431e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0004140209057368338</v>
+        <v>0.0001525406405562535</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.000568243267480284</v>
+        <v>5.159835200174712e-05</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0008619013824500144</v>
+        <v>7.690447091590613e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>4.520103539107367e-05</v>
+        <v>1.701229484751821e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001580842304974794</v>
+        <v>8.903638808988035e-05</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0001801056787371635</v>
+        <v>0.000155583446030505</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0002124096208717674</v>
+        <v>7.409441604977474e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.000849751872010529</v>
+        <v>6.149954424472526e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.000301689375191927</v>
+        <v>0.0001740085717756301</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.002002751920372248</v>
+        <v>0.0001546811254229397</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0006402255967259407</v>
+        <v>0.0004876434395555407</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0009725899435579777</v>
+        <v>0.000201822113012895</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.001518039265647531</v>
+        <v>4.840746623813175e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0001000217162072659</v>
+        <v>0.0001380419125780463</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001054782303981483</v>
+        <v>7.048827683320269e-05</v>
       </c>
       <c r="CA13" t="n">
-        <v>3.422343070269562e-06</v>
+        <v>1.284320751437917e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0007761068409308791</v>
+        <v>8.191652887035161e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>5.344391684047878e-05</v>
+        <v>2.660672180354595e-06</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.00114425178617239</v>
+        <v>1.101312045648228e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001087437383830547</v>
+        <v>0.0001548003929201514</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001015663729049265</v>
+        <v>3.246691221647779e-06</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0003053648397326469</v>
+        <v>8.020149107323959e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.180327282985672e-05</v>
+        <v>0.0001140805470640771</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0001443499932065606</v>
+        <v>0.0001272013760171831</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001935185282491148</v>
+        <v>9.855190728558227e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0006800573319196701</v>
+        <v>5.516811870620586e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>9.480594599153847e-05</v>
+        <v>4.094188625458628e-06</v>
       </c>
       <c r="CM13" t="n">
-        <v>3.679172368720174e-05</v>
+        <v>0.0001125091293943115</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.001354242558591068</v>
+        <v>6.428410415537655e-06</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0004162199620623142</v>
+        <v>1.511960908828769e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.760541636031121e-05</v>
+        <v>2.323319858987816e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.001049310201779008</v>
+        <v>7.022760655672755e-06</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0001120107117458247</v>
+        <v>1.864454861788545e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.399538299068809e-05</v>
+        <v>0.0002995783870574087</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0002855807542800903</v>
+        <v>0.0002612328389659524</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0007680777925997972</v>
+        <v>1.115133454732131e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.001055401284247637</v>
+        <v>2.112804213538766e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.001029648468829691</v>
+        <v>0.0001074285537470132</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001061532995663583</v>
+        <v>2.920085353252944e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0001920119684655219</v>
+        <v>0.0001046092438627966</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0005576993571594357</v>
+        <v>8.155334944603965e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>2.186146957683377e-06</v>
+        <v>0.0001670978090260178</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.000141808413900435</v>
+        <v>6.633448356296867e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0004760593583341688</v>
+        <v>4.096170232514851e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>6.450480577768758e-05</v>
+        <v>4.065093162353151e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0003036977432202548</v>
+        <v>0.0001467741967644542</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.002181081799790263</v>
+        <v>0.0002130674693034962</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0001570079912198707</v>
+        <v>4.978289871360175e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0008529916522093117</v>
+        <v>0.0002646515786182135</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0003610957064665854</v>
+        <v>5.277543095871806e-05</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001683529117144644</v>
+        <v>0.0001246624015038833</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0005620883894152939</v>
+        <v>0.000195121974684298</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.000364358100341633</v>
+        <v>2.720341944950633e-05</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.000571182114072144</v>
+        <v>7.20583375368733e-06</v>
       </c>
       <c r="DN13" t="n">
-        <v>5.250284448266029e-05</v>
+        <v>1.566429273225367e-05</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001088226679712534</v>
+        <v>3.924602788174525e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0003541562473401427</v>
+        <v>0.0001043174852384254</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.000224925737711601</v>
+        <v>0.0002997980336658657</v>
       </c>
       <c r="DR13" t="n">
-        <v>8.566411270294338e-05</v>
+        <v>7.972292223712429e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0007096797344274819</v>
+        <v>0.0003360790433362126</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001568903389852494</v>
+        <v>0.0001050753417075612</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0007188977906480432</v>
+        <v>8.907616575015709e-06</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.000718918745405972</v>
+        <v>6.9841044023633e-06</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0002111261419486254</v>
+        <v>5.849201261298731e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0005349296843633056</v>
+        <v>9.597815733286552e-07</v>
       </c>
       <c r="DY13" t="n">
-        <v>5.767115362687036e-05</v>
+        <v>0.0001074261163012125</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.000330116250552237</v>
+        <v>0.0001100930094253272</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0006896416307426989</v>
+        <v>0.0001266184990527108</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0007392706465907395</v>
+        <v>0.0002252018311992288</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0002389224537182599</v>
+        <v>0.0001334302505711094</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.001521107857115567</v>
+        <v>3.955505235353485e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>8.109684858936816e-05</v>
+        <v>1.123236870625988e-06</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001795772928744555</v>
+        <v>0.0001143964618677273</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001266258535906672</v>
+        <v>0.0001366972719551995</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.001001694821752608</v>
+        <v>2.618363760120701e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0004219489928800613</v>
+        <v>0.0001204645959660411</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.00027840695111081</v>
+        <v>9.969400707632303e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0006228126585483551</v>
+        <v>8.376905498153064e-06</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0004311920783948153</v>
+        <v>0.0001136694045271724</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.001535355462692678</v>
+        <v>1.239776975126006e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0005827224813401699</v>
+        <v>4.343495675129816e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001071376682375558</v>
+        <v>1.144745692727156e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001284041325561702</v>
+        <v>6.752795889042318e-05</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0002837323409039527</v>
+        <v>0.0001698376581771299</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0009206471731886268</v>
+        <v>9.237072663381696e-05</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.000161622345331125</v>
+        <v>8.683495252626017e-06</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.001225324114784598</v>
+        <v>0.0002380037331022322</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004909684648737311</v>
+        <v>2.547447729739361e-05</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003869130741804838</v>
+        <v>0.0001090509686036967</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.00058878178242594</v>
+        <v>2.446310099912807e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0009978337911888957</v>
+        <v>4.281318979337811e-06</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0008316899184137583</v>
+        <v>0.0001048463527695276</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001075529959052801</v>
+        <v>1.27439043353661e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001690614153631032</v>
+        <v>9.777642117114738e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0002697239979170263</v>
+        <v>7.65781951486133e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>8.6128173279576e-05</v>
+        <v>0.0001473045849706978</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001885607489384711</v>
+        <v>9.587097156327218e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0007146451389417052</v>
+        <v>5.983915616525337e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001645170268602669</v>
+        <v>5.285808583721519e-06</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001029356615617871</v>
+        <v>3.638419366325252e-05</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.000370295369066298</v>
+        <v>0.0001824507780838758</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0006578258471563458</v>
+        <v>0.000113660455099307</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001457735896110535</v>
+        <v>0.0001952498423634097</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0005000194068998098</v>
+        <v>4.032172000734136e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0005134474486112595</v>
+        <v>4.008363976026885e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0003904891782440245</v>
+        <v>0.0001100383378798142</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.001073176274076104</v>
+        <v>1.723636887618341e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0007561822421848774</v>
+        <v>9.928636427503079e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0004917607875540853</v>
+        <v>2.884686909965239e-05</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.002865418791770935</v>
+        <v>0.0002627001667860895</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0005547459586523473</v>
+        <v>2.977995973196812e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0005443490226753056</v>
+        <v>0.0001819324970711023</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.000703530153259635</v>
+        <v>0.0002069782931357622</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0005027514416724443</v>
+        <v>1.791231625247747e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0002014390920521691</v>
+        <v>0.0001306483754888177</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0002094405936077237</v>
+        <v>2.175753616029397e-05</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0005901106633245945</v>
+        <v>1.487522968091071e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001060626585967839</v>
+        <v>1.238673576153815e-06</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0006240869988687336</v>
+        <v>4.507887297222624e-06</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0001523342216387391</v>
+        <v>0.000256900122622028</v>
       </c>
       <c r="GB13" t="n">
-        <v>7.329251093324274e-05</v>
+        <v>6.266440323088318e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.654009924503043e-05</v>
+        <v>5.579938078881241e-05</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.001363130286335945</v>
+        <v>0.0002060320548480377</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0004678908153437078</v>
+        <v>0.0002857010695151985</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0002966805768664926</v>
+        <v>0.0001512705493951216</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0005144929746165872</v>
+        <v>2.839876106008887e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001719768770271912</v>
+        <v>0.000125910431961529</v>
       </c>
       <c r="B14" t="n">
-        <v>1.539481490908656e-05</v>
+        <v>0.001272230758331716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001640602858969942</v>
+        <v>0.0001609665923751891</v>
       </c>
       <c r="D14" t="n">
-        <v>6.030924123479053e-05</v>
+        <v>0.0004192398919258267</v>
       </c>
       <c r="E14" t="n">
-        <v>1.102535043173702e-05</v>
+        <v>0.001462477608583868</v>
       </c>
       <c r="F14" t="n">
-        <v>9.421509275853168e-06</v>
+        <v>0.0003685933188535273</v>
       </c>
       <c r="G14" t="n">
-        <v>3.645250399131328e-05</v>
+        <v>0.0001431512355338782</v>
       </c>
       <c r="H14" t="n">
-        <v>3.704481787281111e-05</v>
+        <v>0.00033618847373873</v>
       </c>
       <c r="I14" t="n">
-        <v>4.427459498401731e-05</v>
+        <v>9.579286415828392e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001632158091524616</v>
+        <v>0.0002877461956813931</v>
       </c>
       <c r="K14" t="n">
-        <v>1.707995033939369e-05</v>
+        <v>0.001148673356510699</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001553247420815751</v>
+        <v>0.0002825409173965454</v>
       </c>
       <c r="M14" t="n">
-        <v>3.167664544889703e-05</v>
+        <v>0.0001138535953941755</v>
       </c>
       <c r="N14" t="n">
-        <v>7.816308789188042e-05</v>
+        <v>0.001268102088943124</v>
       </c>
       <c r="O14" t="n">
-        <v>3.411842271816568e-06</v>
+        <v>0.0005276579759083688</v>
       </c>
       <c r="P14" t="n">
-        <v>3.852340887533501e-05</v>
+        <v>0.0001036816975101829</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.922656469512731e-05</v>
+        <v>3.074256528634578e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>5.937992682447657e-05</v>
+        <v>1.242564212589059e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>4.315018941269955e-06</v>
+        <v>5.848981891176663e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>5.612400855170563e-05</v>
+        <v>0.0003215434844605625</v>
       </c>
       <c r="U14" t="n">
-        <v>2.256564130220795e-06</v>
+        <v>0.0001430762786185369</v>
       </c>
       <c r="V14" t="n">
-        <v>3.084586751356255e-06</v>
+        <v>0.0001993664773181081</v>
       </c>
       <c r="W14" t="n">
-        <v>2.130971915903501e-05</v>
+        <v>2.05215546884574e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>6.851752004877198e-06</v>
+        <v>0.0002755048626568168</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.670961632451508e-06</v>
+        <v>6.603657675441355e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.655109271174297e-05</v>
+        <v>6.982984632486477e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.112158421776257e-06</v>
+        <v>7.179880776675418e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.056910362734925e-06</v>
+        <v>2.487635356374085e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.739700100093614e-06</v>
+        <v>0.0001214834774145856</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.264988198585343e-06</v>
+        <v>0.0002829593140631914</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.876034912129398e-05</v>
+        <v>2.452510852890555e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.644357664394192e-06</v>
+        <v>6.010650395182893e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.978272459586151e-05</v>
+        <v>0.0002184914628742263</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.702994268271141e-05</v>
+        <v>0.0002642495092004538</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.249679113854654e-05</v>
+        <v>0.0003367685130797327</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.297086368547752e-05</v>
+        <v>6.447939085774124e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.00658632820705e-05</v>
+        <v>4.845276271225885e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>3.85572639061138e-05</v>
+        <v>0.0004561593814287335</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.837708805396687e-05</v>
+        <v>0.0001712326484266669</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.486072819214314e-05</v>
+        <v>1.738513674354181e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.214418261952233e-05</v>
+        <v>1.379141122015426e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.89990784949623e-05</v>
+        <v>0.0001074639149010181</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.195516339677852e-06</v>
+        <v>6.922104512341321e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.165566795360064e-07</v>
+        <v>0.0001073121748049743</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.127203813666711e-05</v>
+        <v>0.000133438064949587</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.020137854851782e-05</v>
+        <v>0.0002732630528043956</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.865489659598097e-05</v>
+        <v>0.001097593572922051</v>
       </c>
       <c r="AV14" t="n">
-        <v>8.762503421166912e-05</v>
+        <v>1.017580234474735e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.792042768211104e-06</v>
+        <v>3.16994555760175e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.824203647833201e-06</v>
+        <v>0.0001771941606421024</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.237856642750558e-05</v>
+        <v>9.274372132495046e-07</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.673541636497248e-06</v>
+        <v>0.000146271864650771</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.029163392260671e-05</v>
+        <v>0.0003647804551292211</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.920132945087971e-06</v>
+        <v>0.0003186691028531641</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.870344153256156e-05</v>
+        <v>4.289595744921826e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.398995093244594e-05</v>
+        <v>3.602257129386999e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.882091889157891e-05</v>
+        <v>2.969839260913432e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.66529388379422e-06</v>
+        <v>0.000238589127548039</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.721740202105138e-06</v>
+        <v>0.0009752990445122123</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.426425933459541e-05</v>
+        <v>0.000350321177393198</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.872846223704983e-05</v>
+        <v>0.0002817967033479363</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.811705442378297e-05</v>
+        <v>0.0001506345288362354</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.830473047448322e-05</v>
+        <v>9.809286711970344e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>9.355367183161434e-06</v>
+        <v>0.0001759847509674728</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.03966694950941e-05</v>
+        <v>4.480569259612821e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.515888965921476e-05</v>
+        <v>4.374476338853128e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.247635736945085e-05</v>
+        <v>7.420685869874433e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.702227645087987e-05</v>
+        <v>3.233517054468393e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.1406017392801e-06</v>
+        <v>0.0002686497173272073</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.621815317776054e-05</v>
+        <v>0.00011667818762362</v>
       </c>
       <c r="BS14" t="n">
-        <v>2.325756940990686e-05</v>
+        <v>1.066588083631359e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.740625350521441e-07</v>
+        <v>0.0002006922732107341</v>
       </c>
       <c r="BU14" t="n">
-        <v>5.391786544350907e-05</v>
+        <v>0.0002253083075629547</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.462076033931226e-05</v>
+        <v>0.0007179504609666765</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.920602102880366e-05</v>
+        <v>0.0002300613996339962</v>
       </c>
       <c r="BX14" t="n">
-        <v>5.615815098281018e-05</v>
+        <v>1.506642365711741e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>6.904582278366433e-06</v>
+        <v>3.084283525822684e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>3.92697038478218e-05</v>
+        <v>0.0001961136149475351</v>
       </c>
       <c r="CA14" t="n">
-        <v>5.059929208073299e-06</v>
+        <v>8.746909588808194e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>8.011449608602561e-06</v>
+        <v>0.000129871943499893</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.252553142374381e-06</v>
+        <v>8.229797094827518e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>3.2854553865036e-05</v>
+        <v>2.053775097010657e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.554160502972081e-05</v>
+        <v>0.0002163777244277298</v>
       </c>
       <c r="CF14" t="n">
-        <v>3.71755231753923e-05</v>
+        <v>5.364677053876221e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.322944262938108e-05</v>
+        <v>0.0001154562633018941</v>
       </c>
       <c r="CH14" t="n">
-        <v>5.600001259153942e-06</v>
+        <v>0.0001786318025551736</v>
       </c>
       <c r="CI14" t="n">
-        <v>4.521498340182006e-06</v>
+        <v>0.0001199882754008286</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9.851089998846874e-06</v>
+        <v>0.000159548842930235</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.717215309327003e-05</v>
+        <v>1.320613228017464e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.705655106183258e-06</v>
+        <v>4.050535790156573e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.203330793941859e-05</v>
+        <v>0.0001657019311096519</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.770091956946999e-05</v>
+        <v>0.0001070839498424903</v>
       </c>
       <c r="CO14" t="n">
-        <v>1.453349432267714e-05</v>
+        <v>1.13820196929737e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>6.547314114868641e-06</v>
+        <v>3.638229827629402e-06</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.018595791421831e-05</v>
+        <v>0.0001965808478416875</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.31399874589988e-05</v>
+        <v>5.007392246625386e-05</v>
       </c>
       <c r="CS14" t="n">
-        <v>5.861607860424556e-06</v>
+        <v>0.0002969976339954883</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.26433837976947e-06</v>
+        <v>0.0002377029450144619</v>
       </c>
       <c r="CU14" t="n">
-        <v>3.17250523949042e-05</v>
+        <v>9.194097947329283e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.759831659204792e-05</v>
+        <v>1.242711732629687e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>3.123308488284238e-05</v>
+        <v>0.0001569041633047163</v>
       </c>
       <c r="CX14" t="n">
-        <v>3.519679376040585e-05</v>
+        <v>1.269961467187386e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>7.766976523271296e-06</v>
+        <v>0.0001370622630929574</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.436112597730244e-05</v>
+        <v>0.0001526195701444522</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.028437282002415e-06</v>
+        <v>0.0001963496615644544</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.092067395802587e-05</v>
+        <v>0.0001269711356144398</v>
       </c>
       <c r="DC14" t="n">
-        <v>8.930902367865201e-06</v>
+        <v>1.526434061815962e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.540873644349631e-06</v>
+        <v>8.59260544530116e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.19660071504768e-05</v>
+        <v>7.846286462154239e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>7.056267349980772e-05</v>
+        <v>0.0002946341701317579</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.018943112285342e-05</v>
+        <v>8.612021338194609e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.218250665464438e-05</v>
+        <v>0.0003664848918560892</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.247919039495173e-06</v>
+        <v>0.0002613588003441691</v>
       </c>
       <c r="DJ14" t="n">
-        <v>4.603479283105116e-06</v>
+        <v>2.843439506250434e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.64335121755721e-05</v>
+        <v>0.000223042254219763</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.460790372220799e-05</v>
+        <v>0.0001954612816916779</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.223831259267172e-05</v>
+        <v>0.0001680410641711205</v>
       </c>
       <c r="DN14" t="n">
-        <v>6.089725047786487e-06</v>
+        <v>4.186763544566929e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>3.686990021378733e-05</v>
+        <v>2.281509478052612e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.837952731875703e-05</v>
+        <v>9.023817983688787e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>9.077077265828848e-06</v>
+        <v>0.0003753488999791443</v>
       </c>
       <c r="DR14" t="n">
-        <v>7.61668252380332e-06</v>
+        <v>4.768848157254979e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.981925743166357e-05</v>
+        <v>0.0005644774064421654</v>
       </c>
       <c r="DT14" t="n">
-        <v>6.420890713343397e-06</v>
+        <v>6.176367605803534e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>2.429696542094462e-05</v>
+        <v>5.757037433795631e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.637526970123872e-05</v>
+        <v>5.148552736500278e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>8.290688128909096e-06</v>
+        <v>1.317620990448631e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.694296588539146e-05</v>
+        <v>1.031744614010677e-05</v>
       </c>
       <c r="DY14" t="n">
-        <v>6.966596629354171e-06</v>
+        <v>4.112820170121267e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.107585194404237e-05</v>
+        <v>8.083781722234562e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.261877969227498e-05</v>
+        <v>0.0001345797791145742</v>
       </c>
       <c r="EB14" t="n">
-        <v>3.325920260977e-05</v>
+        <v>0.000335894146701321</v>
       </c>
       <c r="EC14" t="n">
-        <v>4.260646164766513e-06</v>
+        <v>0.0001460866333218291</v>
       </c>
       <c r="ED14" t="n">
-        <v>4.319721119827591e-05</v>
+        <v>0.0001494263560744002</v>
       </c>
       <c r="EE14" t="n">
-        <v>9.520473213342484e-06</v>
+        <v>3.376327367732301e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.154814061825164e-05</v>
+        <v>0.000136756629217416</v>
       </c>
       <c r="EG14" t="n">
-        <v>4.191510379314423e-05</v>
+        <v>0.0001873921864898875</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.419115819269791e-05</v>
+        <v>8.463902304356452e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.837737727328204e-05</v>
+        <v>0.0001434573059668764</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.253507252840791e-05</v>
+        <v>0.0002169950021198019</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.905417411762755e-05</v>
+        <v>2.39320652326569e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>6.217458121682284e-06</v>
+        <v>0.0001439248881069943</v>
       </c>
       <c r="EM14" t="n">
-        <v>3.046002530027181e-05</v>
+        <v>8.362170774489641e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.656289896345697e-05</v>
+        <v>9.829021291807294e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>4.328079739934765e-06</v>
+        <v>5.917712041991763e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>4.341648309491575e-05</v>
+        <v>3.589883999666199e-05</v>
       </c>
       <c r="EQ14" t="n">
-        <v>3.010572072525974e-06</v>
+        <v>0.0001476000907132402</v>
       </c>
       <c r="ER14" t="n">
-        <v>2.253874481539242e-05</v>
+        <v>8.142797014443204e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>1.553562105982564e-05</v>
+        <v>6.154867151053622e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>3.978212407673709e-05</v>
+        <v>0.000283614790532738</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.918350608320907e-05</v>
+        <v>5.311657878337428e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.177811827801634e-05</v>
+        <v>9.353778295917436e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.602445783850271e-05</v>
+        <v>7.968770660227165e-06</v>
       </c>
       <c r="EX14" t="n">
-        <v>2.630130438774358e-05</v>
+        <v>2.667877924977802e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>2.483683238097001e-05</v>
+        <v>0.0001646681193960831</v>
       </c>
       <c r="EZ14" t="n">
-        <v>3.676474443636835e-05</v>
+        <v>4.745188562083058e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.150216667156201e-05</v>
+        <v>0.0001213126670336351</v>
       </c>
       <c r="FB14" t="n">
-        <v>4.147363142692484e-06</v>
+        <v>0.0001297581184189767</v>
       </c>
       <c r="FC14" t="n">
-        <v>2.704869757508277e-06</v>
+        <v>0.0001784527557902038</v>
       </c>
       <c r="FD14" t="n">
-        <v>1.045711360347923e-05</v>
+        <v>0.0001259007840417325</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.158617124019656e-05</v>
+        <v>1.404376234859228e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>3.951703547500074e-06</v>
+        <v>2.461344411130995e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>2.619582301122136e-05</v>
+        <v>9.623727237340063e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.166887523140758e-05</v>
+        <v>0.0001415610313415527</v>
       </c>
       <c r="FI14" t="n">
-        <v>2.315886558790226e-05</v>
+        <v>0.0001645202282816172</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.877083872794174e-05</v>
+        <v>0.0002624462358653545</v>
       </c>
       <c r="FK14" t="n">
-        <v>2.389049950579647e-05</v>
+        <v>4.245624950272031e-06</v>
       </c>
       <c r="FL14" t="n">
-        <v>5.260467332846019e-06</v>
+        <v>2.823724571499042e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>2.474686152709182e-05</v>
+        <v>8.804276149021462e-06</v>
       </c>
       <c r="FN14" t="n">
-        <v>2.984131606353913e-05</v>
+        <v>7.652553904335946e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>2.36377636610996e-05</v>
+        <v>0.0001079555950127542</v>
       </c>
       <c r="FP14" t="n">
-        <v>3.261082747485489e-05</v>
+        <v>1.39057265187148e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>9.032259549712762e-05</v>
+        <v>0.0004558544897008687</v>
       </c>
       <c r="FR14" t="n">
-        <v>2.74252215604065e-05</v>
+        <v>5.70367556065321e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.152307595475577e-05</v>
+        <v>0.0001488922425778583</v>
       </c>
       <c r="FT14" t="n">
-        <v>8.058906132646371e-06</v>
+        <v>0.0001432624849257991</v>
       </c>
       <c r="FU14" t="n">
-        <v>2.713247158681042e-05</v>
+        <v>8.603688911534846e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>1.572114342707209e-06</v>
+        <v>0.0001056782057275996</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.165367211797275e-05</v>
+        <v>0.0002135794929927215</v>
       </c>
       <c r="FX14" t="n">
-        <v>2.534542363719083e-05</v>
+        <v>2.137193223461509e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.279449472553097e-05</v>
+        <v>2.070839400403202e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>2.914543983933982e-05</v>
+        <v>0.0001869805564638227</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.455191522836685e-10</v>
+        <v>0.0002480068651493639</v>
       </c>
       <c r="GB14" t="n">
-        <v>9.242121450370178e-07</v>
+        <v>5.0194954383187e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.975790605181828e-06</v>
+        <v>8.982249710243195e-06</v>
       </c>
       <c r="GD14" t="n">
-        <v>3.295441274531186e-05</v>
+        <v>0.0002271884877700359</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.155217523773899e-05</v>
+        <v>0.0002260485198348761</v>
       </c>
       <c r="GF14" t="n">
-        <v>2.189350925618783e-05</v>
+        <v>0.0001710909564280882</v>
       </c>
       <c r="GG14" t="n">
-        <v>1.305055138800526e-05</v>
+        <v>1.172891643363982e-06</v>
       </c>
     </row>
     <row r="15">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001473504089517519</v>
+        <v>0.0007514450699090958</v>
       </c>
       <c r="B16" t="n">
-        <v>3.574264337657951e-05</v>
+        <v>0.002360528567805886</v>
       </c>
       <c r="C16" t="n">
-        <v>8.214084664359689e-05</v>
+        <v>0.0006246225093491375</v>
       </c>
       <c r="D16" t="n">
-        <v>5.493056960403919e-05</v>
+        <v>0.0005634762346744537</v>
       </c>
       <c r="E16" t="n">
-        <v>2.904262146330439e-06</v>
+        <v>0.001089205383323133</v>
       </c>
       <c r="F16" t="n">
-        <v>2.247237262054114e-06</v>
+        <v>0.002182751893997192</v>
       </c>
       <c r="G16" t="n">
-        <v>3.827293403446674e-05</v>
+        <v>0.0003292417386546731</v>
       </c>
       <c r="H16" t="n">
-        <v>2.493731699360069e-05</v>
+        <v>0.0004917393089272082</v>
       </c>
       <c r="I16" t="n">
-        <v>3.128715979983099e-05</v>
+        <v>0.0001404701470164582</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000140032687340863</v>
+        <v>0.0004903624067083001</v>
       </c>
       <c r="K16" t="n">
-        <v>2.647033761604689e-05</v>
+        <v>0.001614714507013559</v>
       </c>
       <c r="L16" t="n">
-        <v>9.462638990953565e-05</v>
+        <v>0.0003040237061213702</v>
       </c>
       <c r="M16" t="n">
-        <v>2.824517105182167e-05</v>
+        <v>0.0003041207673959434</v>
       </c>
       <c r="N16" t="n">
-        <v>2.433765439491253e-05</v>
+        <v>0.001104046474210918</v>
       </c>
       <c r="O16" t="n">
-        <v>9.636259164835792e-06</v>
+        <v>0.002304403111338615</v>
       </c>
       <c r="P16" t="n">
-        <v>5.083436190034263e-05</v>
+        <v>0.0004298030398786068</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.697996412985958e-05</v>
+        <v>0.0002689454704523087</v>
       </c>
       <c r="R16" t="n">
-        <v>5.34587015863508e-05</v>
+        <v>1.388367309118621e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>3.027258344445727e-06</v>
+        <v>0.0002602388267405331</v>
       </c>
       <c r="T16" t="n">
-        <v>3.460983134573326e-05</v>
+        <v>0.0004268890479579568</v>
       </c>
       <c r="U16" t="n">
-        <v>5.866931132914033e-06</v>
+        <v>0.0002219926100224257</v>
       </c>
       <c r="V16" t="n">
-        <v>7.173218818934401e-07</v>
+        <v>0.000309052353259176</v>
       </c>
       <c r="W16" t="n">
-        <v>1.406643332302338e-05</v>
+        <v>0.001056633191183209</v>
       </c>
       <c r="X16" t="n">
-        <v>1.484546942265297e-06</v>
+        <v>0.0001034821616485715</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.93005528471258e-07</v>
+        <v>0.0006342313718050718</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.968761898751836e-05</v>
+        <v>0.0002543039154261351</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.247963518835604e-05</v>
+        <v>0.0002508324978407472</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.116476025548764e-07</v>
+        <v>0.0004327317874412984</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.532125553349033e-06</v>
+        <v>0.0008592366357333958</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.399251414113678e-05</v>
+        <v>0.0006841417634859681</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.261110173800262e-05</v>
+        <v>0.0007365352939814329</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.38333443828742e-05</v>
+        <v>4.970601003151387e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.275540055052261e-06</v>
+        <v>0.0004774128319695592</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.44787354656728e-05</v>
+        <v>0.0001386887452099472</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.165357909689192e-05</v>
+        <v>0.0005805112887173891</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.448227496643085e-05</v>
+        <v>2.496583692845888e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.283339199493639e-05</v>
+        <v>0.0006773836212232709</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.359352194820531e-05</v>
+        <v>0.0001438232720829546</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.172694389126264e-06</v>
+        <v>2.650342503329739e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.830682751664426e-05</v>
+        <v>0.0001608142192708328</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.145393960352521e-06</v>
+        <v>8.953809447120875e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.134421816270333e-06</v>
+        <v>0.0001198830723296851</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.000158474402269e-07</v>
+        <v>7.735430699540302e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.150404023064766e-05</v>
+        <v>0.0004716043185908347</v>
       </c>
       <c r="AS16" t="n">
-        <v>6.327836672426201e-07</v>
+        <v>0.0001005502927000634</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.324613787000999e-05</v>
+        <v>9.903707541525364e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.458263977838214e-05</v>
+        <v>0.002159163122996688</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.562781396089122e-05</v>
+        <v>0.0002326926041860133</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.149389032041654e-06</v>
+        <v>0.001538637327030301</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.65838638774585e-06</v>
+        <v>0.0002979513083118945</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.382950308150612e-05</v>
+        <v>0.0006434664828702807</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.489183680154383e-05</v>
+        <v>0.0009126143413595855</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.048841244890355e-05</v>
+        <v>0.0002975556999444962</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.138134393841028e-05</v>
+        <v>0.0001016243259073235</v>
       </c>
       <c r="BC16" t="n">
-        <v>3.799418846028857e-05</v>
+        <v>6.501204916276038e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.634753582242411e-05</v>
+        <v>0.0004506955738179386</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.123907299595885e-05</v>
+        <v>0.0007539672660641372</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.107294221787015e-06</v>
+        <v>0.0005752503057010472</v>
       </c>
       <c r="BG16" t="n">
-        <v>7.519412065448705e-06</v>
+        <v>0.0007788049406372011</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.746829730109312e-05</v>
+        <v>0.001120250206440687</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.762757503660396e-05</v>
+        <v>0.0001692330843070522</v>
       </c>
       <c r="BJ16" t="n">
-        <v>3.314913192298263e-05</v>
+        <v>0.0004489238781388849</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.659083500271663e-05</v>
+        <v>0.0001228094333782792</v>
       </c>
       <c r="BL16" t="n">
-        <v>2.493678766768426e-05</v>
+        <v>0.0003280390228610486</v>
       </c>
       <c r="BM16" t="n">
-        <v>4.830964826396666e-06</v>
+        <v>0.0003565545775927603</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.51421845657751e-05</v>
+        <v>0.0001273289090022445</v>
       </c>
       <c r="BO16" t="n">
-        <v>1.001976897896384e-06</v>
+        <v>0.0002629705704748631</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.905808651121333e-05</v>
+        <v>0.0003326736332383007</v>
       </c>
       <c r="BQ16" t="n">
-        <v>7.340696356550325e-06</v>
+        <v>0.0001258221891475841</v>
       </c>
       <c r="BR16" t="n">
-        <v>6.662842679361347e-06</v>
+        <v>0.0001571472821524367</v>
       </c>
       <c r="BS16" t="n">
-        <v>3.528205070324475e-06</v>
+        <v>0.0001376250147586688</v>
       </c>
       <c r="BT16" t="n">
-        <v>7.522894520661794e-06</v>
+        <v>0.0001994588819798082</v>
       </c>
       <c r="BU16" t="n">
-        <v>5.419331864686683e-05</v>
+        <v>0.0003588999679777771</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.266554681933485e-05</v>
+        <v>0.0006887818453833461</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.662196336837951e-05</v>
+        <v>0.0004150649183429778</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.827617911156267e-05</v>
+        <v>9.170055272988975e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>1.761160092428327e-05</v>
+        <v>0.0001054466192726977</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4.349994014773984e-06</v>
+        <v>0.0002678096643649042</v>
       </c>
       <c r="CA16" t="n">
-        <v>6.186786777107045e-06</v>
+        <v>0.0001815774012356997</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.84904729394475e-05</v>
+        <v>7.601050310768187e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>1.429339681635611e-05</v>
+        <v>0.0003058089932892472</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.063464828301221e-05</v>
+        <v>4.059487037011422e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.403038888587616e-05</v>
+        <v>0.0003449546056799591</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.656398490013089e-05</v>
+        <v>5.619967851089314e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>9.711269740364514e-06</v>
+        <v>0.0001633759384276345</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.383181137905922e-06</v>
+        <v>0.0001053683517966419</v>
       </c>
       <c r="CI16" t="n">
-        <v>6.258718258322915e-06</v>
+        <v>0.0004091931623406708</v>
       </c>
       <c r="CJ16" t="n">
-        <v>3.754706767722382e-06</v>
+        <v>7.155802450142801e-06</v>
       </c>
       <c r="CK16" t="n">
-        <v>6.568077878910117e-06</v>
+        <v>0.0003201286599505693</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.492321300451295e-06</v>
+        <v>1.531248926767148e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>6.145299721538322e-06</v>
+        <v>0.0005792683223262429</v>
       </c>
       <c r="CN16" t="n">
-        <v>1.953782157215755e-05</v>
+        <v>0.0002798782952595502</v>
       </c>
       <c r="CO16" t="n">
-        <v>9.814260010898579e-06</v>
+        <v>8.860586603987031e-06</v>
       </c>
       <c r="CP16" t="n">
-        <v>6.726349965902045e-07</v>
+        <v>0.000276600185316056</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.378508336027153e-05</v>
+        <v>0.0005982829607091844</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.099863766285125e-06</v>
+        <v>0.0002586430346127599</v>
       </c>
       <c r="CS16" t="n">
-        <v>3.250935333198868e-05</v>
+        <v>0.000231253681704402</v>
       </c>
       <c r="CT16" t="n">
-        <v>9.819696060731076e-06</v>
+        <v>0.0005265375948511064</v>
       </c>
       <c r="CU16" t="n">
-        <v>8.603004971519113e-06</v>
+        <v>2.880404281313531e-06</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.050307168450672e-05</v>
+        <v>2.913232128776144e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.861936834757216e-05</v>
+        <v>0.0002588022616691887</v>
       </c>
       <c r="CX16" t="n">
-        <v>1.941205482580699e-05</v>
+        <v>6.595728336833417e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>5.018852334615076e-06</v>
+        <v>7.24763231119141e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.750527189869899e-05</v>
+        <v>7.351903332164511e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>4.997595169697888e-06</v>
+        <v>0.0005033847410231829</v>
       </c>
       <c r="DB16" t="n">
-        <v>4.442852514330298e-06</v>
+        <v>0.000133956375066191</v>
       </c>
       <c r="DC16" t="n">
-        <v>3.982309408456786e-06</v>
+        <v>0.0001414860307704657</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.936206217578729e-06</v>
+        <v>1.361245267617051e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>4.336931851867121e-06</v>
+        <v>0.0001840058394009247</v>
       </c>
       <c r="DF16" t="n">
-        <v>5.181839151191525e-05</v>
+        <v>0.0004353065451141447</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.243042333953781e-05</v>
+        <v>0.0001124633854487911</v>
       </c>
       <c r="DH16" t="n">
-        <v>8.682331099407747e-06</v>
+        <v>0.0004309006326366216</v>
       </c>
       <c r="DI16" t="n">
-        <v>1.263181366084609e-05</v>
+        <v>0.001441798638552427</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.106720537791261e-05</v>
+        <v>0.001165788504295051</v>
       </c>
       <c r="DK16" t="n">
-        <v>7.614305104652885e-06</v>
+        <v>0.0003279514494352043</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.326211172970943e-06</v>
+        <v>0.001305360696278512</v>
       </c>
       <c r="DM16" t="n">
-        <v>1.405798502673861e-05</v>
+        <v>0.0008538728579878807</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.862458925141254e-06</v>
+        <v>6.205255340319127e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>3.499450031085871e-05</v>
+        <v>0.0001897555775940418</v>
       </c>
       <c r="DP16" t="n">
-        <v>6.302095243881922e-06</v>
+        <v>0.0001811215915950015</v>
       </c>
       <c r="DQ16" t="n">
-        <v>2.039220134975039e-06</v>
+        <v>0.0008919966639950871</v>
       </c>
       <c r="DR16" t="n">
-        <v>2.044500888587208e-06</v>
+        <v>0.0001851658016676083</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.296596903761383e-06</v>
+        <v>0.0005607794155366719</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.806032378226519e-05</v>
+        <v>0.0001603264827281237</v>
       </c>
       <c r="DU16" t="n">
-        <v>8.197212082450278e-06</v>
+        <v>7.297884440049529e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>2.779804162855726e-06</v>
+        <v>4.000437184004113e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.271206292585703e-05</v>
+        <v>0.0004421485646162182</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.174697717942763e-05</v>
+        <v>2.597149432403967e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>4.407151209306903e-06</v>
+        <v>0.0009215433383360505</v>
       </c>
       <c r="DZ16" t="n">
-        <v>9.972339285013732e-06</v>
+        <v>0.0003854109672829509</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.220217695343308e-05</v>
+        <v>0.0004294737882446498</v>
       </c>
       <c r="EB16" t="n">
-        <v>3.643128138719476e-06</v>
+        <v>1.191794581245631e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>5.277715445117792e-06</v>
+        <v>1.379836976411752e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>1.644796248001512e-05</v>
+        <v>0.0001178236634586938</v>
       </c>
       <c r="EE16" t="n">
-        <v>4.622495907824486e-06</v>
+        <v>5.154999234946445e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>4.516111948760226e-05</v>
+        <v>0.0002452242479193956</v>
       </c>
       <c r="EG16" t="n">
-        <v>2.037485683104023e-05</v>
+        <v>0.0004920301144011319</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.578215778863523e-05</v>
+        <v>0.0002311584685230628</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.00497845778591e-05</v>
+        <v>0.0003294980269856751</v>
       </c>
       <c r="EJ16" t="n">
-        <v>6.269371169764781e-06</v>
+        <v>0.0003065640630666167</v>
       </c>
       <c r="EK16" t="n">
-        <v>1.582052391313482e-05</v>
+        <v>0.0001794665440684184</v>
       </c>
       <c r="EL16" t="n">
-        <v>1.15317079689703e-05</v>
+        <v>0.0002378442150074989</v>
       </c>
       <c r="EM16" t="n">
-        <v>9.082591532205697e-06</v>
+        <v>1.003787838271819e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>1.097687891160604e-05</v>
+        <v>8.448371954727918e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>3.363591986271786e-06</v>
+        <v>0.0001507571141701192</v>
       </c>
       <c r="EP16" t="n">
-        <v>2.540137938922271e-05</v>
+        <v>9.92420973489061e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>9.39116671361262e-06</v>
+        <v>0.0001325387274846435</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.615750443306752e-05</v>
+        <v>0.0001714945246931165</v>
       </c>
       <c r="ES16" t="n">
-        <v>1.312256972596515e-05</v>
+        <v>4.84064657939598e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>1.097440872399602e-05</v>
+        <v>0.000325822300510481</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.29126783576794e-05</v>
+        <v>0.0007490671705454588</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.033212993206689e-05</v>
+        <v>0.00120644411072135</v>
       </c>
       <c r="EW16" t="n">
-        <v>8.494267603964545e-06</v>
+        <v>0.0006379781407304108</v>
       </c>
       <c r="EX16" t="n">
-        <v>2.92784516204847e-05</v>
+        <v>7.610733155161142e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.607784724910744e-05</v>
+        <v>0.0002150771615561098</v>
       </c>
       <c r="EZ16" t="n">
-        <v>2.035224315477535e-05</v>
+        <v>6.597601168323308e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>5.759654413850512e-06</v>
+        <v>0.0001797287259250879</v>
       </c>
       <c r="FB16" t="n">
-        <v>7.52672985981917e-06</v>
+        <v>9.124413190875202e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>4.070126351507497e-07</v>
+        <v>0.0003199436469003558</v>
       </c>
       <c r="FD16" t="n">
-        <v>3.104560619249241e-06</v>
+        <v>9.492282697465271e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>5.697139386029448e-06</v>
+        <v>0.0001233122893609107</v>
       </c>
       <c r="FF16" t="n">
-        <v>4.663581876229728e-06</v>
+        <v>1.781335777195636e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.453630986565258e-05</v>
+        <v>0.0002039828104898334</v>
       </c>
       <c r="FH16" t="n">
-        <v>1.296999653277453e-05</v>
+        <v>8.497256203554571e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>1.458457154512871e-05</v>
+        <v>0.0002217336150351912</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.752659954945557e-05</v>
+        <v>0.0008506809826940298</v>
       </c>
       <c r="FK16" t="n">
-        <v>8.621561391919386e-06</v>
+        <v>3.656372427940369e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>1.328585312876385e-06</v>
+        <v>0.0005196219426579773</v>
       </c>
       <c r="FM16" t="n">
-        <v>2.555813989602029e-05</v>
+        <v>0.0002625067427288741</v>
       </c>
       <c r="FN16" t="n">
-        <v>3.567474414012395e-05</v>
+        <v>0.0004669301561079919</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.07450396171771e-05</v>
+        <v>0.0008306963718496263</v>
       </c>
       <c r="FP16" t="n">
-        <v>8.027092917473055e-06</v>
+        <v>0.0003849497879855335</v>
       </c>
       <c r="FQ16" t="n">
-        <v>4.987985084881075e-05</v>
+        <v>0.0003444184549152851</v>
       </c>
       <c r="FR16" t="n">
-        <v>3.772238414967433e-06</v>
+        <v>0.001945246593095362</v>
       </c>
       <c r="FS16" t="n">
-        <v>2.912626951001585e-05</v>
+        <v>0.000166723970323801</v>
       </c>
       <c r="FT16" t="n">
-        <v>1.155687277787365e-05</v>
+        <v>8.539843838661909e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>4.76149216410704e-06</v>
+        <v>0.0005670787650160491</v>
       </c>
       <c r="FV16" t="n">
-        <v>1.113887265091762e-06</v>
+        <v>9.932500688591972e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>1.723218520055525e-05</v>
+        <v>0.0006922588218003511</v>
       </c>
       <c r="FX16" t="n">
-        <v>1.253116624866379e-05</v>
+        <v>0.0001935465697897598</v>
       </c>
       <c r="FY16" t="n">
-        <v>1.06941533886129e-05</v>
+        <v>0.0001105610208469443</v>
       </c>
       <c r="FZ16" t="n">
-        <v>2.109815250150859e-05</v>
+        <v>4.53572029073257e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>3.577483767003287e-07</v>
+        <v>0.0002256279985886067</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.395263552694814e-05</v>
+        <v>0.0004448812978807837</v>
       </c>
       <c r="GC16" t="n">
-        <v>2.780099748633802e-06</v>
+        <v>2.480467446730472e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>1.822309241106268e-05</v>
+        <v>1.480011997045949e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>6.680971637251787e-06</v>
+        <v>0.0004557003558147699</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.34884355450049e-05</v>
+        <v>0.0004793099651578814</v>
       </c>
       <c r="GG16" t="n">
-        <v>1.122204230341595e-05</v>
+        <v>0.000160210402100347</v>
       </c>
     </row>
     <row r="17">
@@ -10108,571 +10108,571 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.001612913445569575</v>
+        <v>2.401902384008281e-05</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001740085135679692</v>
+        <v>0.001292182132601738</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001356633147224784</v>
+        <v>0.0001702952577034011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005744305672124028</v>
+        <v>0.0004728451312985271</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005378850037232041</v>
+        <v>0.0006064593326300383</v>
       </c>
       <c r="F18" t="n">
-        <v>6.581936031579971e-05</v>
+        <v>0.0006038479623384774</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000302665081107989</v>
+        <v>0.0001039950366248377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001386771909892559</v>
+        <v>0.0004463295626919717</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004483531811274588</v>
+        <v>2.824783587129787e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001697977189905941</v>
+        <v>2.33800892601721e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001613580679986626</v>
+        <v>0.001060291077010334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001430263742804527</v>
+        <v>7.576533243991435e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002710657427087426</v>
+        <v>0.0002201384049840271</v>
       </c>
       <c r="N18" t="n">
-        <v>5.519059777725488e-05</v>
+        <v>0.0004065883404109627</v>
       </c>
       <c r="O18" t="n">
-        <v>9.055117698153481e-05</v>
+        <v>0.0005684426869265735</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0003365872253198177</v>
+        <v>8.606187475379556e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0001667143078520894</v>
+        <v>3.659639332909137e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0006899910513311625</v>
+        <v>3.861586446873844e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0001850905682658777</v>
+        <v>2.20948950300226e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0004560319648589939</v>
+        <v>0.0001829843677114695</v>
       </c>
       <c r="U18" t="n">
-        <v>5.540645361179486e-05</v>
+        <v>2.068440335278865e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001410796685377136</v>
+        <v>0.0001934777392307296</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0001805456122383475</v>
+        <v>0.0002033064956776798</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0001253292866749689</v>
+        <v>3.158739855280146e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.152266334742308e-08</v>
+        <v>8.661518222652376e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0002433023182675242</v>
+        <v>0.0001776830613380298</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0001044063246808946</v>
+        <v>0.0001040411661961116</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.064088064595126e-05</v>
+        <v>6.142297206679359e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.338476770091802e-05</v>
+        <v>0.000116024435556028</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.66209021396935e-05</v>
+        <v>3.171160642523319e-05</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.391353675397113e-05</v>
+        <v>7.934310269774869e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0002153790992451832</v>
+        <v>3.364289295859635e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.516541215096368e-05</v>
+        <v>1.198097743326798e-05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0001386003859806806</v>
+        <v>0.0001350525999441743</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0003868298081215471</v>
+        <v>9.200136264553294e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.000260534550761804</v>
+        <v>4.781326060765423e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0003245866973884404</v>
+        <v>0.0001453262229915708</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0005611777887679636</v>
+        <v>0.0002590632648207247</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0001148849987657741</v>
+        <v>3.043370816158131e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0003435801481828094</v>
+        <v>9.051358210854232e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0001145585702033713</v>
+        <v>2.858344123524148e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.0001173488635686226</v>
+        <v>0.0002087113389279693</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.121351594221778e-05</v>
+        <v>2.504057192709297e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0001196118100779131</v>
+        <v>0.0001404272043146193</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.203768185107037e-06</v>
+        <v>0.0001039271301124245</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0006086359499022365</v>
+        <v>5.120538844494149e-05</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.0005884907441213727</v>
+        <v>0.0009676952031441033</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0007981109665706754</v>
+        <v>3.582851059036329e-05</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0002513511863071471</v>
+        <v>7.603933045174927e-05</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0001734743418637663</v>
+        <v>0.0001108209398807958</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0003875457623507828</v>
+        <v>0.0002443601551931351</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0002010827302001417</v>
+        <v>6.854912498965859e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0002343719970667735</v>
+        <v>0.0002873443881981075</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.000134944639285095</v>
+        <v>3.763920176425017e-05</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0002857661456800997</v>
+        <v>1.051310391630977e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.888488158234395e-05</v>
+        <v>0.0001333767140749842</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.0003767751913983375</v>
+        <v>0.0001511079026386142</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.567188782151788e-05</v>
+        <v>8.139506098814309e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0003305324935354292</v>
+        <v>0.00039811892202124</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0002687495434656739</v>
+        <v>0.0001819919270928949</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0003343051648698747</v>
+        <v>0.0001643328578211367</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0004312550590839237</v>
+        <v>0.0001541830861242488</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0001902639342006296</v>
+        <v>4.116206400794908e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0001948971766978502</v>
+        <v>0.0001634694781387225</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0002814130275510252</v>
+        <v>0.0002378343779128045</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0002523267758078873</v>
+        <v>7.044597441563383e-05</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.0001288454659515992</v>
+        <v>6.079109880374745e-05</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0004181319673079997</v>
+        <v>3.490727249300107e-05</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0001771911629475653</v>
+        <v>0.0001171592812170275</v>
       </c>
       <c r="BR18" t="n">
-        <v>4.033830919070169e-06</v>
+        <v>4.89417725475505e-05</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0002224619092885405</v>
+        <v>7.244066364364699e-05</v>
       </c>
       <c r="BT18" t="n">
-        <v>4.691353751695715e-05</v>
+        <v>0.0001131908647948876</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0006664924439974129</v>
+        <v>9.695176413515583e-05</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.0002323522930964828</v>
+        <v>0.0005903651472181082</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.000354630989022553</v>
+        <v>0.0002287314127897844</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0004816753789782524</v>
+        <v>2.741377102211118e-05</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.0002116768737323582</v>
+        <v>8.807668200461194e-05</v>
       </c>
       <c r="BZ18" t="n">
-        <v>8.134655945468694e-05</v>
+        <v>9.682691597845405e-06</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.0001464108936488628</v>
+        <v>3.714732156367972e-05</v>
       </c>
       <c r="CB18" t="n">
-        <v>9.021327423397452e-05</v>
+        <v>8.63572204252705e-05</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0001346580538665876</v>
+        <v>4.779983282787725e-05</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0003400507266633213</v>
+        <v>2.267898162244819e-05</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0003879057185258716</v>
+        <v>0.0001908259000629187</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0002466940495651215</v>
+        <v>5.406359196058474e-05</v>
       </c>
       <c r="CG18" t="n">
-        <v>4.772621468873695e-05</v>
+        <v>9.124888310907409e-05</v>
       </c>
       <c r="CH18" t="n">
-        <v>4.817123772227205e-05</v>
+        <v>2.819038127199747e-05</v>
       </c>
       <c r="CI18" t="n">
-        <v>7.243444269988686e-05</v>
+        <v>0.0001025857636705041</v>
       </c>
       <c r="CJ18" t="n">
-        <v>5.437921936390921e-05</v>
+        <v>8.658706065034494e-05</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.0001110510202124715</v>
+        <v>9.126461372943595e-05</v>
       </c>
       <c r="CL18" t="n">
-        <v>4.394416100694798e-05</v>
+        <v>5.516297096619383e-05</v>
       </c>
       <c r="CM18" t="n">
-        <v>6.941194442333654e-06</v>
+        <v>0.0001486252440372482</v>
       </c>
       <c r="CN18" t="n">
-        <v>8.630477532278746e-05</v>
+        <v>0.0001030690764309838</v>
       </c>
       <c r="CO18" t="n">
-        <v>8.948375761974603e-05</v>
+        <v>8.997063559945673e-06</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.971510573639534e-05</v>
+        <v>0.0001491573348175734</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0002172457461711019</v>
+        <v>0.0001882305659819394</v>
       </c>
       <c r="CR18" t="n">
-        <v>2.362712984904647e-05</v>
+        <v>0.0001346874487353489</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.0001484025560785085</v>
+        <v>0.0002324900269741192</v>
       </c>
       <c r="CT18" t="n">
-        <v>4.517719935392961e-05</v>
+        <v>0.0001643505675019696</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0001841543125919998</v>
+        <v>6.036903141648509e-05</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0003158769686706364</v>
+        <v>2.96670405077748e-05</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0003793047799263149</v>
+        <v>0.0001674085797276348</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.0002780722570605576</v>
+        <v>7.137400098145008e-05</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.329016413365025e-05</v>
+        <v>0.0001383216003887355</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0002397435164311901</v>
+        <v>1.770955350366421e-05</v>
       </c>
       <c r="DA18" t="n">
-        <v>6.789888720959425e-05</v>
+        <v>0.0001662572467466816</v>
       </c>
       <c r="DB18" t="n">
-        <v>6.685200787615031e-05</v>
+        <v>7.283958257175982e-05</v>
       </c>
       <c r="DC18" t="n">
-        <v>7.551606540801004e-05</v>
+        <v>0.0001127259893110022</v>
       </c>
       <c r="DD18" t="n">
-        <v>2.3938786398503e-05</v>
+        <v>1.822271951823495e-05</v>
       </c>
       <c r="DE18" t="n">
-        <v>3.062639734707773e-05</v>
+        <v>4.797969450009987e-05</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0007780297892168164</v>
+        <v>0.0001265328755835071</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0003343016724102199</v>
+        <v>4.386381260701455e-05</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.0001310410443693399</v>
+        <v>0.0004951834562234581</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0001518892095191404</v>
+        <v>9.46257496252656e-05</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0001408074458595365</v>
+        <v>7.512947195209563e-05</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.545610757602844e-05</v>
+        <v>0.0001642851275391877</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0001487075060140342</v>
+        <v>9.402209980180487e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.0001891332067316398</v>
+        <v>0.0001270927459700033</v>
       </c>
       <c r="DN18" t="n">
-        <v>3.392755388631485e-05</v>
+        <v>5.229611997492611e-05</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0003708851290866733</v>
+        <v>0.0001047901387210004</v>
       </c>
       <c r="DP18" t="n">
-        <v>8.939837243815418e-06</v>
+        <v>5.366470577428117e-05</v>
       </c>
       <c r="DQ18" t="n">
-        <v>6.92914763931185e-05</v>
+        <v>5.363857781048864e-06</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0001848389947554097</v>
+        <v>4.053507655044086e-05</v>
       </c>
       <c r="DS18" t="n">
-        <v>1.704454916762188e-05</v>
+        <v>0.0001817310258047655</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.0001679035922279581</v>
+        <v>0.0001189072427223437</v>
       </c>
       <c r="DU18" t="n">
-        <v>5.744575901189819e-05</v>
+        <v>2.385421430517454e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>2.826066338457167e-05</v>
+        <v>4.30831678386312e-05</v>
       </c>
       <c r="DW18" t="n">
-        <v>8.915762009564787e-05</v>
+        <v>6.169421249069273e-05</v>
       </c>
       <c r="DX18" t="n">
-        <v>9.031291119754314e-05</v>
+        <v>5.036174115957692e-05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.100297959055752e-05</v>
+        <v>0.0001706808543531224</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0001303665048908442</v>
+        <v>1.192283889395185e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0003820777928922325</v>
+        <v>5.78511826461181e-05</v>
       </c>
       <c r="EB18" t="n">
-        <v>4.132157118874602e-05</v>
+        <v>8.963925938587636e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0001197739111375995</v>
+        <v>1.277738192584366e-06</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.0003888640203513205</v>
+        <v>2.095452873618342e-05</v>
       </c>
       <c r="EE18" t="n">
-        <v>4.200515468255617e-05</v>
+        <v>6.058268263586797e-05</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0005335886962711811</v>
+        <v>7.117410132195801e-05</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0003107368247583508</v>
+        <v>0.0001905192766571417</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0002508290926925838</v>
+        <v>8.764947415329516e-05</v>
       </c>
       <c r="EI18" t="n">
-        <v>1.172626434708945e-05</v>
+        <v>2.79797641269397e-05</v>
       </c>
       <c r="EJ18" t="n">
-        <v>5.419060471467674e-06</v>
+        <v>0.0001748501672409475</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.0002275327715324238</v>
+        <v>6.538575689774007e-05</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0001215576194226742</v>
+        <v>8.549439371563494e-05</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0003456828708294779</v>
+        <v>4.36566406278871e-05</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.000136212314828299</v>
+        <v>3.506553184706718e-06</v>
       </c>
       <c r="EO18" t="n">
-        <v>2.564002170402091e-05</v>
+        <v>1.20778895507101e-06</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.0005327202379703522</v>
+        <v>0.0001031684805639088</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.0001441148342564702</v>
+        <v>0.0001265140308532864</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.0001606567820999771</v>
+        <v>0.0001404064532835037</v>
       </c>
       <c r="ES18" t="n">
-        <v>9.134896390605718e-05</v>
+        <v>7.164194539655e-05</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.0002551272918935865</v>
+        <v>0.0001752158277668059</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0002257480809930712</v>
+        <v>6.97245413903147e-05</v>
       </c>
       <c r="EV18" t="n">
-        <v>5.467501614475623e-05</v>
+        <v>0.0002414837945252657</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0001414022990502417</v>
+        <v>4.607180380844511e-05</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0003101468319073319</v>
+        <v>1.760348459356464e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.0003214533790014684</v>
+        <v>0.0001485464163124561</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.0002799407229758799</v>
+        <v>4.204396100249141e-05</v>
       </c>
       <c r="FA18" t="n">
-        <v>8.259332389570773e-06</v>
+        <v>0.0001104671246139333</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.0001464141096221283</v>
+        <v>1.491816647103406e-06</v>
       </c>
       <c r="FC18" t="n">
-        <v>4.310619260650128e-06</v>
+        <v>0.0001160175088443793</v>
       </c>
       <c r="FD18" t="n">
-        <v>4.43320459453389e-05</v>
+        <v>0.0001090904988814145</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.0001480463251937181</v>
+        <v>9.569751273375005e-05</v>
       </c>
       <c r="FF18" t="n">
-        <v>6.373909855028614e-05</v>
+        <v>5.97088728682138e-05</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.0003047066566068679</v>
+        <v>4.436466406332329e-05</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.0001691590441623703</v>
+        <v>6.898602441651747e-05</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0001990687451325357</v>
+        <v>0.0001606604200787842</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.0003952329861931503</v>
+        <v>0.0002200083545176312</v>
       </c>
       <c r="FK18" t="n">
-        <v>9.423420124221593e-05</v>
+        <v>4.03248704969883e-05</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.0002063125430140644</v>
+        <v>2.177744318032637e-05</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0001316635898547247</v>
+        <v>1.951966623892076e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0002633295662235469</v>
+        <v>9.476990817347541e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0001146482973126695</v>
+        <v>0.0001026115933200344</v>
       </c>
       <c r="FP18" t="n">
-        <v>3.965866926591843e-05</v>
+        <v>4.358415026217699e-05</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0007428348762914538</v>
+        <v>0.0002382879029028118</v>
       </c>
       <c r="FR18" t="n">
-        <v>7.706397445872426e-05</v>
+        <v>0.0001105892879422754</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.0002635582350194454</v>
+        <v>0.0001777086581569165</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.0001662851427681744</v>
+        <v>0.0001700008288025856</v>
       </c>
       <c r="FU18" t="n">
-        <v>3.177949474775232e-05</v>
+        <v>9.991059414460324e-06</v>
       </c>
       <c r="FV18" t="n">
-        <v>3.29340182361193e-05</v>
+        <v>9.985364158637822e-05</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0002617628197185695</v>
+        <v>3.304829078842886e-06</v>
       </c>
       <c r="FX18" t="n">
-        <v>8.374926255783066e-05</v>
+        <v>4.197063390165567e-05</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0002368099667364731</v>
+        <v>0.0001631668274058029</v>
       </c>
       <c r="FZ18" t="n">
-        <v>2.008606497838628e-05</v>
+        <v>5.311920176609419e-05</v>
       </c>
       <c r="GA18" t="n">
-        <v>2.481952469679527e-05</v>
+        <v>4.177528171567246e-05</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0001412604033248499</v>
+        <v>8.274841820821166e-05</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.0001881761563709006</v>
+        <v>5.152887024451047e-05</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0002574682584963739</v>
+        <v>0.0001364487980026752</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.0001577593648107722</v>
+        <v>0.0004123153048567474</v>
       </c>
       <c r="GF18" t="n">
-        <v>9.967722871806473e-05</v>
+        <v>6.681570084765553e-06</v>
       </c>
       <c r="GG18" t="n">
-        <v>1.401822191837709e-05</v>
+        <v>5.037586743128486e-05</v>
       </c>
     </row>
   </sheetData>
